--- a/AAII_Financials/Quarterly/LVRLF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LVRLF_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="92">
   <si>
     <t>LVRLF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,81 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -782,16 +785,19 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
@@ -808,8 +814,8 @@
       <c r="J9" s="3">
         <v>0</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
+      <c r="K9" s="3">
+        <v>0</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>4</v>
@@ -829,16 +835,19 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -855,8 +864,8 @@
       <c r="J10" s="3">
         <v>0</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
+      <c r="K10" s="3">
+        <v>0</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>4</v>
@@ -876,8 +885,11 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,43 +1005,46 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3">
+        <v>300</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
         <v>200</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>300</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
@@ -1033,11 +1052,14 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1050,11 +1072,11 @@
       <c r="F15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>4</v>
@@ -1062,11 +1084,11 @@
       <c r="J15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>4</v>
@@ -1083,8 +1105,11 @@
       <c r="Q15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,38 +1124,39 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>700</v>
+      </c>
+      <c r="E17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
-        <v>4300</v>
-      </c>
       <c r="F17" s="3">
-        <v>1000</v>
+        <v>4200</v>
       </c>
       <c r="G17" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="H17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I17" s="3">
         <v>700</v>
       </c>
-      <c r="I17" s="3">
-        <v>3700</v>
-      </c>
       <c r="J17" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K17" s="3">
         <v>2700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>600</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
@@ -1146,8 +1172,11 @@
       <c r="Q17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1155,29 +1184,29 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-4300</v>
+        <v>-600</v>
       </c>
       <c r="F18" s="3">
-        <v>-1000</v>
+        <v>-4200</v>
       </c>
       <c r="G18" s="3">
-        <v>-1100</v>
+        <v>-900</v>
       </c>
       <c r="H18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="I18" s="3">
         <v>-700</v>
       </c>
-      <c r="I18" s="3">
-        <v>-3700</v>
-      </c>
       <c r="J18" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-2700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-600</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
@@ -1193,8 +1222,11 @@
       <c r="Q18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1244,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1221,16 +1254,16 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -1259,8 +1292,11 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1268,26 +1304,26 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-4300</v>
+        <v>-600</v>
       </c>
       <c r="F21" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="G21" s="3">
         <v>-900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-700</v>
       </c>
-      <c r="I21" s="3">
-        <v>-3700</v>
-      </c>
       <c r="J21" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="K21" s="3">
         <v>-2700</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1306,8 +1342,11 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1315,22 +1354,22 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1338,8 +1377,8 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>4</v>
@@ -1347,44 +1386,47 @@
       <c r="O22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-700</v>
       </c>
-      <c r="E23" s="3">
-        <v>-4400</v>
-      </c>
       <c r="F23" s="3">
-        <v>-1000</v>
+        <v>-4200</v>
       </c>
       <c r="G23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="H23" s="3">
         <v>-1100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
-        <v>-3700</v>
-      </c>
       <c r="J23" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-2700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
@@ -1400,8 +1442,11 @@
       <c r="Q23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1492,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,38 +1542,41 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-700</v>
       </c>
-      <c r="E26" s="3">
-        <v>-4400</v>
-      </c>
       <c r="F26" s="3">
-        <v>-1000</v>
+        <v>-4200</v>
       </c>
       <c r="G26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="H26" s="3">
         <v>-1100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3">
-        <v>-3700</v>
-      </c>
       <c r="J26" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-2700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-600</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
@@ -1541,38 +1592,41 @@
       <c r="Q26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-700</v>
       </c>
-      <c r="E27" s="3">
-        <v>-4400</v>
-      </c>
       <c r="F27" s="3">
-        <v>-1000</v>
+        <v>-4200</v>
       </c>
       <c r="G27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="H27" s="3">
         <v>-1100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="I27" s="3">
-        <v>-3700</v>
-      </c>
       <c r="J27" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-2700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
@@ -1588,8 +1642,11 @@
       <c r="Q27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1842,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1785,16 +1854,16 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -1823,38 +1892,41 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-700</v>
       </c>
-      <c r="E33" s="3">
-        <v>-4400</v>
-      </c>
       <c r="F33" s="3">
-        <v>-1000</v>
+        <v>-4200</v>
       </c>
       <c r="G33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="H33" s="3">
         <v>-1100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="I33" s="3">
-        <v>-3700</v>
-      </c>
       <c r="J33" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-2700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-600</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
@@ -1870,8 +1942,11 @@
       <c r="Q33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,38 +1992,41 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-700</v>
       </c>
-      <c r="E35" s="3">
-        <v>-4400</v>
-      </c>
       <c r="F35" s="3">
-        <v>-1000</v>
+        <v>-4200</v>
       </c>
       <c r="G35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="H35" s="3">
         <v>-1100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="I35" s="3">
-        <v>-3700</v>
-      </c>
       <c r="J35" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-2700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-600</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
@@ -1964,60 +2042,66 @@
       <c r="Q35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,8 +2139,9 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2063,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
@@ -2072,20 +2158,20 @@
         <v>100</v>
       </c>
       <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
         <v>1000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2101,8 +2187,11 @@
       <c r="Q41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,25 +2237,28 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
         <v>100</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
@@ -2174,14 +2266,14 @@
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
+      <c r="K43" s="3">
+        <v>0</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2195,8 +2287,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,8 +2337,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2254,23 +2352,23 @@
         <v>300</v>
       </c>
       <c r="F45" s="3">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="G45" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I45" s="3">
         <v>1000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
@@ -2289,8 +2387,11 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2298,29 +2399,29 @@
         <v>300</v>
       </c>
       <c r="E46" s="3">
+        <v>300</v>
+      </c>
+      <c r="F46" s="3">
         <v>400</v>
       </c>
-      <c r="F46" s="3">
-        <v>1700</v>
-      </c>
       <c r="G46" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="H46" s="3">
-        <v>2100</v>
+        <v>1600</v>
       </c>
       <c r="I46" s="3">
-        <v>3200</v>
+        <v>2000</v>
       </c>
       <c r="J46" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K46" s="3">
         <v>600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>100</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
       <c r="M46" s="3">
         <v>0</v>
       </c>
@@ -2336,8 +2437,11 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2348,7 +2452,7 @@
         <v>400</v>
       </c>
       <c r="F47" s="3">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="G47" s="3">
         <v>800</v>
@@ -2357,11 +2461,11 @@
         <v>800</v>
       </c>
       <c r="I47" s="3">
+        <v>800</v>
+      </c>
+      <c r="J47" s="3">
         <v>400</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2374,8 +2478,8 @@
       <c r="N47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -2383,19 +2487,22 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="E48" s="3">
         <v>2700</v>
       </c>
       <c r="F48" s="3">
-        <v>100</v>
+        <v>2600</v>
       </c>
       <c r="G48" s="3">
         <v>100</v>
@@ -2410,10 +2517,10 @@
         <v>100</v>
       </c>
       <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="L48" s="3">
+        <v>0</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>4</v>
@@ -2430,8 +2537,11 @@
       <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2587,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2687,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2618,8 +2737,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,38 +2787,41 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F54" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G54" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H54" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I54" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J54" s="3">
         <v>3500</v>
       </c>
-      <c r="E54" s="3">
-        <v>3500</v>
-      </c>
-      <c r="F54" s="3">
-        <v>2600</v>
-      </c>
-      <c r="G54" s="3">
-        <v>2600</v>
-      </c>
-      <c r="H54" s="3">
-        <v>3000</v>
-      </c>
-      <c r="I54" s="3">
-        <v>3700</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>200</v>
       </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
       <c r="M54" s="3">
         <v>0</v>
       </c>
@@ -2712,8 +2837,11 @@
       <c r="Q54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,31 +2879,32 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E57" s="3">
         <v>1300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>200</v>
-      </c>
-      <c r="J57" s="3">
-        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
@@ -2792,33 +2922,36 @@
         <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E58" s="3">
         <v>1400</v>
       </c>
-      <c r="E58" s="3">
-        <v>1800</v>
-      </c>
       <c r="F58" s="3">
-        <v>200</v>
+        <v>1700</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -2827,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="M58" s="3">
         <v>300</v>
@@ -2844,8 +2977,11 @@
       <c r="Q58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2864,11 +3000,11 @@
       <c r="H59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I59" s="3">
-        <v>0</v>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K59" s="3">
         <v>100</v>
@@ -2891,37 +3027,40 @@
       <c r="Q59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E60" s="3">
         <v>2700</v>
       </c>
-      <c r="E60" s="3">
-        <v>2800</v>
-      </c>
       <c r="F60" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G60" s="3">
         <v>800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>300</v>
-      </c>
-      <c r="I60" s="3">
-        <v>200</v>
       </c>
       <c r="J60" s="3">
         <v>200</v>
       </c>
       <c r="K60" s="3">
+        <v>200</v>
+      </c>
+      <c r="L60" s="3">
         <v>100</v>
-      </c>
-      <c r="L60" s="3">
-        <v>500</v>
       </c>
       <c r="M60" s="3">
         <v>500</v>
@@ -2933,13 +3072,16 @@
         <v>500</v>
       </c>
       <c r="P60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2947,13 +3089,13 @@
         <v>900</v>
       </c>
       <c r="E61" s="3">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="F61" s="3">
         <v>400</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2985,8 +3127,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3032,8 +3177,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,37 +3327,40 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3600</v>
+        <v>4100</v>
       </c>
       <c r="E66" s="3">
-        <v>3200</v>
+        <v>3500</v>
       </c>
       <c r="F66" s="3">
-        <v>1200</v>
+        <v>3100</v>
       </c>
       <c r="G66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H66" s="3">
         <v>500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>300</v>
-      </c>
-      <c r="I66" s="3">
-        <v>200</v>
       </c>
       <c r="J66" s="3">
         <v>200</v>
       </c>
       <c r="K66" s="3">
+        <v>200</v>
+      </c>
+      <c r="L66" s="3">
         <v>100</v>
-      </c>
-      <c r="L66" s="3">
-        <v>500</v>
       </c>
       <c r="M66" s="3">
         <v>500</v>
@@ -3215,13 +3372,16 @@
         <v>500</v>
       </c>
       <c r="P66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q66" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,37 +3597,40 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-15400</v>
+        <v>-15700</v>
       </c>
       <c r="E72" s="3">
-        <v>-14700</v>
+        <v>-14900</v>
       </c>
       <c r="F72" s="3">
-        <v>-13100</v>
+        <v>-14200</v>
       </c>
       <c r="G72" s="3">
-        <v>-12200</v>
+        <v>-12700</v>
       </c>
       <c r="H72" s="3">
-        <v>-11100</v>
+        <v>-11800</v>
       </c>
       <c r="I72" s="3">
-        <v>-10300</v>
+        <v>-10700</v>
       </c>
       <c r="J72" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-9800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-7200</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-6600</v>
       </c>
       <c r="M72" s="3">
         <v>-6600</v>
@@ -3466,16 +3639,19 @@
         <v>-6600</v>
       </c>
       <c r="O72" s="3">
-        <v>-6800</v>
+        <v>-6600</v>
       </c>
       <c r="P72" s="3">
         <v>-6800</v>
       </c>
       <c r="Q72" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="R72" s="3">
         <v>-6700</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,43 +3797,46 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>300</v>
       </c>
-      <c r="F76" s="3">
-        <v>1400</v>
-      </c>
       <c r="G76" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H76" s="3">
         <v>2000</v>
       </c>
-      <c r="H76" s="3">
-        <v>2700</v>
-      </c>
       <c r="I76" s="3">
-        <v>3400</v>
+        <v>2600</v>
       </c>
       <c r="J76" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K76" s="3">
         <v>400</v>
       </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
       <c r="L76" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="M76" s="3">
         <v>-500</v>
       </c>
       <c r="N76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="O76" s="3">
         <v>-400</v>
@@ -3662,8 +3847,11 @@
       <c r="Q76" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,90 +3897,96 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-700</v>
       </c>
-      <c r="E81" s="3">
-        <v>-4400</v>
-      </c>
       <c r="F81" s="3">
-        <v>-1000</v>
+        <v>-4200</v>
       </c>
       <c r="G81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="H81" s="3">
         <v>-1100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="I81" s="3">
-        <v>-3700</v>
-      </c>
       <c r="J81" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-2700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-600</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
@@ -3808,8 +4002,11 @@
       <c r="Q81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3853,8 +4051,8 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>4</v>
@@ -3874,8 +4072,11 @@
       <c r="Q83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,38 +4322,41 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
-        <v>-2200</v>
-      </c>
       <c r="F89" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="G89" s="3">
         <v>-300</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-600</v>
       </c>
       <c r="H89" s="3">
         <v>-500</v>
       </c>
       <c r="I89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J89" s="3">
         <v>-900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
@@ -4156,8 +4372,11 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,19 +4394,20 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-1800</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
@@ -4195,14 +4415,14 @@
       <c r="H91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I91" s="3">
-        <v>-100</v>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3">
+        <v>-100</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
@@ -4222,8 +4442,11 @@
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4542,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4325,26 +4554,26 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>-2300</v>
+        <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J94" s="3">
         <v>-900</v>
       </c>
-      <c r="I94" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
@@ -4363,8 +4592,11 @@
       <c r="Q94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,8 +4812,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4579,29 +4824,29 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
-        <v>2100</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>4300</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K100" s="3">
         <v>700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -4617,8 +4862,11 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4640,8 +4888,8 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>4</v>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>4</v>
@@ -4655,8 +4903,8 @@
       <c r="N101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
+      <c r="O101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
@@ -4664,8 +4912,11 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4673,29 +4924,29 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>-2400</v>
+        <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>-2300</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
@@ -4709,6 +4960,9 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LVRLF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LVRLF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
   <si>
     <t>LVRLF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,85 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -788,8 +792,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -799,8 +806,8 @@
       <c r="E9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
+      <c r="F9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -817,8 +824,8 @@
       <c r="K9" s="3">
         <v>0</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
+      <c r="L9" s="3">
+        <v>0</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>4</v>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -849,8 +859,8 @@
       <c r="E10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
+      <c r="F10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -867,8 +877,8 @@
       <c r="K10" s="3">
         <v>0</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
+      <c r="L10" s="3">
+        <v>0</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>4</v>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,46 +1025,49 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>300</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3">
-        <v>200</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>300</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
@@ -1055,16 +1075,19 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
+      <c r="D15" s="3">
+        <v>0</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>4</v>
@@ -1075,11 +1098,11 @@
       <c r="G15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
+      <c r="H15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>4</v>
@@ -1087,11 +1110,11 @@
       <c r="K15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>4</v>
+      <c r="L15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>4</v>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,41 +1151,42 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
         <v>700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
-        <v>4200</v>
-      </c>
       <c r="G17" s="3">
-        <v>900</v>
+        <v>4400</v>
       </c>
       <c r="H17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I17" s="3">
         <v>1200</v>
       </c>
-      <c r="I17" s="3">
-        <v>700</v>
-      </c>
       <c r="J17" s="3">
+        <v>800</v>
+      </c>
+      <c r="K17" s="3">
         <v>3500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>600</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
       <c r="N17" s="3">
         <v>0</v>
       </c>
@@ -1175,8 +1202,11 @@
       <c r="R17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1184,32 +1214,32 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-600</v>
       </c>
-      <c r="F18" s="3">
-        <v>-4200</v>
-      </c>
       <c r="G18" s="3">
-        <v>-900</v>
+        <v>-4400</v>
       </c>
       <c r="H18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I18" s="3">
         <v>-1200</v>
       </c>
-      <c r="I18" s="3">
-        <v>-700</v>
-      </c>
       <c r="J18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K18" s="3">
         <v>-3500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-600</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
         <v>0</v>
       </c>
@@ -1225,8 +1255,11 @@
       <c r="R18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1257,17 +1291,17 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1295,8 +1329,11 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1304,29 +1341,29 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-600</v>
       </c>
-      <c r="F21" s="3">
-        <v>-4200</v>
-      </c>
       <c r="G21" s="3">
-        <v>-900</v>
+        <v>-4400</v>
       </c>
       <c r="H21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I21" s="3">
         <v>-1100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2700</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1345,8 +1382,11 @@
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1357,7 +1397,7 @@
         <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1365,14 +1405,14 @@
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1380,8 +1420,8 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>4</v>
@@ -1389,47 +1429,50 @@
       <c r="P22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>-800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
-        <v>-4200</v>
-      </c>
       <c r="G23" s="3">
-        <v>-900</v>
+        <v>-4400</v>
       </c>
       <c r="H23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I23" s="3">
         <v>-1100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
         <v>0</v>
       </c>
@@ -1445,8 +1488,11 @@
       <c r="R23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,41 +1594,44 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>-800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
-        <v>-4200</v>
-      </c>
       <c r="G26" s="3">
-        <v>-900</v>
+        <v>-4400</v>
       </c>
       <c r="H26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I26" s="3">
         <v>-1100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
@@ -1595,41 +1647,44 @@
       <c r="R26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>-800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
-        <v>-4200</v>
-      </c>
       <c r="G27" s="3">
-        <v>-900</v>
+        <v>-4400</v>
       </c>
       <c r="H27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I27" s="3">
         <v>-1100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
@@ -1645,8 +1700,11 @@
       <c r="R27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1857,17 +1927,17 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -1895,41 +1965,44 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>-800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
-        <v>-4200</v>
-      </c>
       <c r="G33" s="3">
-        <v>-900</v>
+        <v>-4400</v>
       </c>
       <c r="H33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I33" s="3">
         <v>-1100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
         <v>0</v>
       </c>
@@ -1945,8 +2018,11 @@
       <c r="R33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,41 +2071,44 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>-800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
-        <v>-4200</v>
-      </c>
       <c r="G35" s="3">
-        <v>-900</v>
+        <v>-4400</v>
       </c>
       <c r="H35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I35" s="3">
         <v>-1100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
         <v>0</v>
       </c>
@@ -2045,63 +2124,69 @@
       <c r="R35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,19 +2226,20 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
         <v>100</v>
@@ -2161,20 +2248,20 @@
         <v>100</v>
       </c>
       <c r="I41" s="3">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K41" s="3">
         <v>2400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2190,8 +2277,11 @@
       <c r="R41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,28 +2330,31 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
         <v>0</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
         <v>100</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -2269,14 +2362,14 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
+      <c r="L43" s="3">
+        <v>0</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2355,23 +2454,23 @@
         <v>300</v>
       </c>
       <c r="G45" s="3">
-        <v>1400</v>
+        <v>300</v>
       </c>
       <c r="H45" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="I45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J45" s="3">
         <v>1000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
@@ -2390,41 +2489,44 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E46" s="3">
         <v>300</v>
       </c>
       <c r="F46" s="3">
+        <v>300</v>
+      </c>
+      <c r="G46" s="3">
         <v>400</v>
       </c>
-      <c r="G46" s="3">
-        <v>1600</v>
-      </c>
       <c r="H46" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="I46" s="3">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="J46" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K46" s="3">
         <v>3100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>100</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
       <c r="N46" s="3">
         <v>0</v>
       </c>
@@ -2440,8 +2542,11 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2455,7 +2560,7 @@
         <v>400</v>
       </c>
       <c r="G47" s="3">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="H47" s="3">
         <v>800</v>
@@ -2464,11 +2569,11 @@
         <v>800</v>
       </c>
       <c r="J47" s="3">
+        <v>800</v>
+      </c>
+      <c r="K47" s="3">
         <v>400</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2481,8 +2586,8 @@
       <c r="O47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -2490,22 +2595,25 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="E48" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="F48" s="3">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="G48" s="3">
-        <v>100</v>
+        <v>2800</v>
       </c>
       <c r="H48" s="3">
         <v>100</v>
@@ -2520,10 +2628,10 @@
         <v>100</v>
       </c>
       <c r="L48" s="3">
-        <v>0</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>4</v>
@@ -2540,8 +2648,11 @@
       <c r="R48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,41 +2913,44 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3300</v>
+        <v>3800</v>
       </c>
       <c r="E54" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="F54" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="G54" s="3">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="H54" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="I54" s="3">
-        <v>2900</v>
+        <v>2600</v>
       </c>
       <c r="J54" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K54" s="3">
         <v>3500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>200</v>
       </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
       <c r="N54" s="3">
         <v>0</v>
       </c>
@@ -2840,8 +2966,11 @@
       <c r="R54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,34 +3010,35 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F57" s="3">
         <v>1400</v>
       </c>
-      <c r="E57" s="3">
-        <v>1300</v>
-      </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1000</v>
       </c>
-      <c r="G57" s="3">
-        <v>600</v>
-      </c>
       <c r="H57" s="3">
+        <v>700</v>
+      </c>
+      <c r="I57" s="3">
         <v>500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>200</v>
-      </c>
-      <c r="K57" s="3">
-        <v>100</v>
       </c>
       <c r="L57" s="3">
         <v>100</v>
@@ -2925,36 +3056,39 @@
         <v>100</v>
       </c>
       <c r="Q57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G58" s="3">
         <v>1800</v>
       </c>
-      <c r="E58" s="3">
-        <v>1400</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1700</v>
-      </c>
-      <c r="G58" s="3">
-        <v>100</v>
-      </c>
       <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2963,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="N58" s="3">
         <v>300</v>
@@ -2980,34 +3114,37 @@
       <c r="R58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
       </c>
       <c r="J59" s="3">
         <v>0</v>
       </c>
       <c r="K59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L59" s="3">
         <v>100</v>
@@ -3030,40 +3167,43 @@
       <c r="R59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3200</v>
+        <v>4100</v>
       </c>
       <c r="E60" s="3">
-        <v>2700</v>
+        <v>3400</v>
       </c>
       <c r="F60" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="G60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H60" s="3">
         <v>800</v>
       </c>
-      <c r="H60" s="3">
-        <v>500</v>
-      </c>
       <c r="I60" s="3">
+        <v>600</v>
+      </c>
+      <c r="J60" s="3">
         <v>300</v>
-      </c>
-      <c r="J60" s="3">
-        <v>200</v>
       </c>
       <c r="K60" s="3">
         <v>200</v>
       </c>
       <c r="L60" s="3">
+        <v>200</v>
+      </c>
+      <c r="M60" s="3">
         <v>100</v>
-      </c>
-      <c r="M60" s="3">
-        <v>500</v>
       </c>
       <c r="N60" s="3">
         <v>500</v>
@@ -3075,30 +3215,33 @@
         <v>500</v>
       </c>
       <c r="Q60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="R60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E61" s="3">
         <v>900</v>
       </c>
       <c r="F61" s="3">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="G61" s="3">
         <v>400</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -3130,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,40 +3485,43 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4100</v>
+        <v>4900</v>
       </c>
       <c r="E66" s="3">
-        <v>3500</v>
+        <v>4300</v>
       </c>
       <c r="F66" s="3">
-        <v>3100</v>
+        <v>3700</v>
       </c>
       <c r="G66" s="3">
-        <v>1100</v>
+        <v>3300</v>
       </c>
       <c r="H66" s="3">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="I66" s="3">
+        <v>600</v>
+      </c>
+      <c r="J66" s="3">
         <v>300</v>
-      </c>
-      <c r="J66" s="3">
-        <v>200</v>
       </c>
       <c r="K66" s="3">
         <v>200</v>
       </c>
       <c r="L66" s="3">
+        <v>200</v>
+      </c>
+      <c r="M66" s="3">
         <v>100</v>
-      </c>
-      <c r="M66" s="3">
-        <v>500</v>
       </c>
       <c r="N66" s="3">
         <v>500</v>
@@ -3375,13 +3533,16 @@
         <v>500</v>
       </c>
       <c r="Q66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="R66" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,40 +3771,43 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-15700</v>
+        <v>-16400</v>
       </c>
       <c r="E72" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="G72" s="3">
         <v>-14900</v>
       </c>
-      <c r="F72" s="3">
-        <v>-14200</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-12700</v>
-      </c>
       <c r="H72" s="3">
-        <v>-11800</v>
+        <v>-13300</v>
       </c>
       <c r="I72" s="3">
-        <v>-10700</v>
+        <v>-12300</v>
       </c>
       <c r="J72" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-10000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-9800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-7200</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-6600</v>
       </c>
       <c r="N72" s="3">
         <v>-6600</v>
@@ -3642,16 +3816,19 @@
         <v>-6600</v>
       </c>
       <c r="P72" s="3">
-        <v>-6800</v>
+        <v>-6600</v>
       </c>
       <c r="Q72" s="3">
         <v>-6800</v>
       </c>
       <c r="R72" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="S72" s="3">
         <v>-6700</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,46 +3983,49 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-800</v>
+        <v>-1100</v>
       </c>
       <c r="E76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F76" s="3">
         <v>-200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>300</v>
       </c>
-      <c r="G76" s="3">
-        <v>1300</v>
-      </c>
       <c r="H76" s="3">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="I76" s="3">
-        <v>2600</v>
+        <v>2100</v>
       </c>
       <c r="J76" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K76" s="3">
         <v>3300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>400</v>
       </c>
-      <c r="L76" s="3">
-        <v>0</v>
-      </c>
       <c r="M76" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="N76" s="3">
         <v>-500</v>
       </c>
       <c r="O76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="P76" s="3">
         <v>-400</v>
@@ -3850,8 +4036,11 @@
       <c r="R76" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,96 +4089,102 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>-800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
-        <v>-4200</v>
-      </c>
       <c r="G81" s="3">
-        <v>-900</v>
+        <v>-4400</v>
       </c>
       <c r="H81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I81" s="3">
         <v>-1100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
         <v>0</v>
       </c>
@@ -4005,8 +4200,11 @@
       <c r="R81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4054,8 +4253,8 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>4</v>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,41 +4539,44 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
-        <v>-2100</v>
-      </c>
       <c r="G89" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
@@ -4375,8 +4592,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4406,11 +4627,11 @@
       <c r="E91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-1900</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
@@ -4418,14 +4639,14 @@
       <c r="I91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J91" s="3">
-        <v>-100</v>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="L91" s="3">
+        <v>-100</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4557,26 +4787,26 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
-        <v>-2200</v>
+        <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-400</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-800</v>
       </c>
       <c r="J94" s="3">
         <v>-900</v>
       </c>
       <c r="K94" s="3">
+        <v>-900</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,41 +5058,44 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>200</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>100</v>
-      </c>
-      <c r="F100" s="3">
-        <v>2000</v>
-      </c>
       <c r="G100" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>4200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -4865,13 +5111,16 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -4891,8 +5140,8 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>4</v>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>4</v>
@@ -4906,8 +5155,8 @@
       <c r="O101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
+      <c r="P101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
@@ -4915,8 +5164,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4927,29 +5179,29 @@
         <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>-2300</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>-2400</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
@@ -4963,6 +5215,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LVRLF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LVRLF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="92">
   <si>
     <t>LVRLF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
+      <c r="D8" s="3">
+        <v>200</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -795,13 +799,16 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
+      <c r="D9" s="3">
+        <v>100</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>4</v>
@@ -809,8 +816,8 @@
       <c r="F9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
+      <c r="G9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -827,8 +834,8 @@
       <c r="L9" s="3">
         <v>0</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
+      <c r="M9" s="3">
+        <v>0</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>4</v>
@@ -848,13 +855,16 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
+      <c r="D10" s="3">
+        <v>100</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>4</v>
@@ -862,8 +872,8 @@
       <c r="F10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
@@ -880,8 +890,8 @@
       <c r="L10" s="3">
         <v>0</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
+      <c r="M10" s="3">
+        <v>0</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>4</v>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,49 +1045,52 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>300</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
         <v>300</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>300</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
@@ -1078,19 +1098,22 @@
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>4</v>
@@ -1101,11 +1124,11 @@
       <c r="H15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>4</v>
@@ -1113,11 +1136,11 @@
       <c r="L15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>4</v>
+      <c r="M15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>4</v>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,44 +1178,45 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
         <v>700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>600</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
       <c r="O17" s="3">
         <v>0</v>
       </c>
@@ -1205,44 +1232,47 @@
       <c r="S17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-700</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="D18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3">
         <v>-600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-4400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-600</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
         <v>0</v>
       </c>
@@ -1258,8 +1288,11 @@
       <c r="S18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,32 +1312,33 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
+      <c r="D20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1332,41 +1366,44 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="3">
+      <c r="D21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-700</v>
       </c>
-      <c r="F21" s="3">
-        <v>-600</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-4400</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-700</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2700</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1385,13 +1422,16 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
@@ -1400,7 +1440,7 @@
         <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1408,14 +1448,14 @@
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1423,8 +1463,8 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>4</v>
@@ -1432,50 +1472,53 @@
       <c r="Q22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-2100</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-700</v>
       </c>
-      <c r="G23" s="3">
-        <v>-4400</v>
-      </c>
       <c r="H23" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="I23" s="3">
         <v>-1000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
         <v>0</v>
       </c>
@@ -1491,31 +1534,34 @@
       <c r="S23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="E24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,44 +1646,47 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-700</v>
       </c>
-      <c r="G26" s="3">
-        <v>-4400</v>
-      </c>
       <c r="H26" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="I26" s="3">
         <v>-1000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
         <v>0</v>
       </c>
@@ -1650,44 +1702,47 @@
       <c r="S26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
-        <v>-4400</v>
-      </c>
       <c r="H27" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="I27" s="3">
         <v>-1000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
         <v>0</v>
       </c>
@@ -1703,8 +1758,11 @@
       <c r="S27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,32 +1982,35 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
+      <c r="D32" s="3">
+        <v>400</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -1968,44 +2038,47 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
-        <v>-4400</v>
-      </c>
       <c r="H33" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="I33" s="3">
         <v>-1000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
         <v>0</v>
       </c>
@@ -2021,8 +2094,11 @@
       <c r="S33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,44 +2150,47 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
-        <v>-4400</v>
-      </c>
       <c r="H35" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="I35" s="3">
         <v>-1000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
         <v>0</v>
       </c>
@@ -2127,66 +2206,72 @@
       <c r="S35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,22 +2313,23 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>500</v>
+      </c>
+      <c r="E41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
         <v>100</v>
@@ -2251,20 +2338,20 @@
         <v>100</v>
       </c>
       <c r="J41" s="3">
+        <v>100</v>
+      </c>
+      <c r="K41" s="3">
         <v>1100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2280,8 +2367,11 @@
       <c r="S41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2344,20 +2437,20 @@
       <c r="E43" s="3">
         <v>0</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
       </c>
       <c r="J43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2365,14 +2458,14 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
+      <c r="M43" s="3">
+        <v>0</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -2386,31 +2479,34 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -2439,13 +2535,16 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
         <v>300</v>
@@ -2457,23 +2556,23 @@
         <v>300</v>
       </c>
       <c r="H45" s="3">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="I45" s="3">
         <v>1500</v>
       </c>
       <c r="J45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K45" s="3">
         <v>1000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
@@ -2492,44 +2591,47 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>800</v>
+      </c>
+      <c r="E46" s="3">
         <v>400</v>
-      </c>
-      <c r="E46" s="3">
-        <v>300</v>
       </c>
       <c r="F46" s="3">
         <v>300</v>
       </c>
       <c r="G46" s="3">
+        <v>300</v>
+      </c>
+      <c r="H46" s="3">
         <v>400</v>
-      </c>
-      <c r="H46" s="3">
-        <v>1700</v>
       </c>
       <c r="I46" s="3">
         <v>1700</v>
       </c>
       <c r="J46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K46" s="3">
         <v>2100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>100</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
       <c r="O46" s="3">
         <v>0</v>
       </c>
@@ -2545,13 +2647,16 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E47" s="3">
         <v>400</v>
@@ -2563,7 +2668,7 @@
         <v>400</v>
       </c>
       <c r="H47" s="3">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="I47" s="3">
         <v>800</v>
@@ -2572,11 +2677,11 @@
         <v>800</v>
       </c>
       <c r="K47" s="3">
+        <v>800</v>
+      </c>
+      <c r="L47" s="3">
         <v>400</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2589,8 +2694,8 @@
       <c r="P47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -2598,16 +2703,19 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E48" s="3">
         <v>3000</v>
-      </c>
-      <c r="E48" s="3">
-        <v>2800</v>
       </c>
       <c r="F48" s="3">
         <v>2800</v>
@@ -2616,7 +2724,7 @@
         <v>2800</v>
       </c>
       <c r="H48" s="3">
-        <v>100</v>
+        <v>2800</v>
       </c>
       <c r="I48" s="3">
         <v>100</v>
@@ -2631,10 +2739,10 @@
         <v>100</v>
       </c>
       <c r="M48" s="3">
-        <v>0</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>4</v>
@@ -2651,31 +2759,34 @@
       <c r="S48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>4500</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,31 +2927,34 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,44 +3039,47 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E54" s="3">
         <v>3800</v>
-      </c>
-      <c r="E54" s="3">
-        <v>3500</v>
       </c>
       <c r="F54" s="3">
         <v>3500</v>
       </c>
       <c r="G54" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="H54" s="3">
-        <v>2600</v>
+        <v>3600</v>
       </c>
       <c r="I54" s="3">
         <v>2600</v>
       </c>
       <c r="J54" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K54" s="3">
         <v>3000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>200</v>
       </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
       <c r="O54" s="3">
         <v>0</v>
       </c>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,37 +3141,38 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E57" s="3">
         <v>1900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1400</v>
       </c>
-      <c r="G57" s="3">
-        <v>1000</v>
-      </c>
       <c r="H57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I57" s="3">
         <v>700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>200</v>
-      </c>
-      <c r="L57" s="3">
-        <v>100</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
@@ -3059,39 +3190,42 @@
         <v>100</v>
       </c>
       <c r="R57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="E58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F58" s="3">
         <v>1900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -3100,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="O58" s="3">
         <v>300</v>
@@ -3117,37 +3251,40 @@
       <c r="S58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
         <v>0</v>
       </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
+      <c r="E59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
       </c>
       <c r="L59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M59" s="3">
         <v>100</v>
@@ -3170,43 +3307,46 @@
       <c r="S59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="E60" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F60" s="3">
         <v>3400</v>
-      </c>
-      <c r="F60" s="3">
-        <v>2800</v>
       </c>
       <c r="G60" s="3">
         <v>2800</v>
       </c>
       <c r="H60" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I60" s="3">
         <v>800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>300</v>
-      </c>
-      <c r="K60" s="3">
-        <v>200</v>
       </c>
       <c r="L60" s="3">
         <v>200</v>
       </c>
       <c r="M60" s="3">
+        <v>200</v>
+      </c>
+      <c r="N60" s="3">
         <v>100</v>
-      </c>
-      <c r="N60" s="3">
-        <v>500</v>
       </c>
       <c r="O60" s="3">
         <v>500</v>
@@ -3218,33 +3358,36 @@
         <v>500</v>
       </c>
       <c r="R60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="S60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E61" s="3">
         <v>800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G61" s="3">
         <v>900</v>
-      </c>
-      <c r="F61" s="3">
-        <v>900</v>
-      </c>
-      <c r="G61" s="3">
-        <v>400</v>
       </c>
       <c r="H61" s="3">
         <v>400</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,43 +3643,46 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4900</v>
+        <v>7000</v>
       </c>
       <c r="E66" s="3">
-        <v>4300</v>
+        <v>5000</v>
       </c>
       <c r="F66" s="3">
+        <v>4400</v>
+      </c>
+      <c r="G66" s="3">
         <v>3700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>300</v>
-      </c>
-      <c r="K66" s="3">
-        <v>200</v>
       </c>
       <c r="L66" s="3">
         <v>200</v>
       </c>
       <c r="M66" s="3">
+        <v>200</v>
+      </c>
+      <c r="N66" s="3">
         <v>100</v>
-      </c>
-      <c r="N66" s="3">
-        <v>500</v>
       </c>
       <c r="O66" s="3">
         <v>500</v>
@@ -3536,13 +3694,16 @@
         <v>500</v>
       </c>
       <c r="R66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="S66" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,43 +3945,46 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-16400</v>
+        <v>-18600</v>
       </c>
       <c r="E72" s="3">
-        <v>-16400</v>
+        <v>-16600</v>
       </c>
       <c r="F72" s="3">
-        <v>-15600</v>
+        <v>-16600</v>
       </c>
       <c r="G72" s="3">
-        <v>-14900</v>
+        <v>-15800</v>
       </c>
       <c r="H72" s="3">
-        <v>-13300</v>
+        <v>-15100</v>
       </c>
       <c r="I72" s="3">
-        <v>-12300</v>
+        <v>-13400</v>
       </c>
       <c r="J72" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-11200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-10000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-9800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-7200</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-6600</v>
       </c>
       <c r="O72" s="3">
         <v>-6600</v>
@@ -3819,16 +3993,19 @@
         <v>-6600</v>
       </c>
       <c r="Q72" s="3">
-        <v>-6800</v>
+        <v>-6600</v>
       </c>
       <c r="R72" s="3">
         <v>-6800</v>
       </c>
       <c r="S72" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="T72" s="3">
         <v>-6700</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,49 +4169,52 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>400</v>
       </c>
-      <c r="M76" s="3">
-        <v>0</v>
-      </c>
       <c r="N76" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="O76" s="3">
         <v>-500</v>
       </c>
       <c r="P76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="Q76" s="3">
         <v>-400</v>
@@ -4039,8 +4225,11 @@
       <c r="S76" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,102 +4281,108 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
-        <v>-4400</v>
-      </c>
       <c r="H81" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="I81" s="3">
         <v>-1000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
         <v>0</v>
       </c>
@@ -4203,8 +4398,11 @@
       <c r="S81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,13 +4422,14 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -4256,8 +4455,8 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>4</v>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,44 +4756,47 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
-        <v>-2200</v>
-      </c>
       <c r="H89" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4630,26 +4851,26 @@
       <c r="F91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G91" s="3">
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3">
         <v>-1900</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>-100</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
+      <c r="M91" s="3">
+        <v>-100</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>4</v>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,13 +5002,16 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -4790,26 +5020,26 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>-2300</v>
+        <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-400</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-900</v>
       </c>
       <c r="K94" s="3">
         <v>-900</v>
       </c>
       <c r="L94" s="3">
+        <v>-900</v>
+      </c>
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>4</v>
       </c>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,44 +5304,47 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>600</v>
+      </c>
+      <c r="E100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
-        <v>2100</v>
-      </c>
       <c r="H100" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>4200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
@@ -5114,17 +5360,20 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
@@ -5143,8 +5392,8 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>4</v>
+      <c r="L101" s="3">
+        <v>0</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>4</v>
@@ -5158,8 +5407,8 @@
       <c r="P101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
+      <c r="Q101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R101" s="3">
         <v>0</v>
@@ -5167,13 +5416,16 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -5182,29 +5434,29 @@
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-2400</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
@@ -5218,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LVRLF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LVRLF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="92">
   <si>
     <t>LVRLF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,106 +665,113 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F8" s="3">
         <v>200</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -802,28 +809,34 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>900</v>
+      </c>
+      <c r="F9" s="3">
         <v>100</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
+      <c r="H9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
@@ -837,11 +850,11 @@
       <c r="M9" s="3">
         <v>0</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>4</v>
@@ -858,28 +871,34 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>500</v>
+      </c>
+      <c r="F10" s="3">
         <v>100</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
+      <c r="H10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
@@ -893,11 +912,11 @@
       <c r="M10" s="3">
         <v>0</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>4</v>
@@ -914,8 +933,14 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +961,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1019,14 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1081,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1057,55 +1096,61 @@
         <v>100</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F14" s="3">
-        <v>300</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3">
         <v>300</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
         <v>300</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1113,13 +1158,13 @@
         <v>100</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="F15" s="3">
+        <v>100</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>4</v>
@@ -1127,26 +1172,26 @@
       <c r="I15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="3">
-        <v>0</v>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>4</v>
+      <c r="P15" s="3">
+        <v>0</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>4</v>
@@ -1160,8 +1205,14 @@
       <c r="T15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,50 +1230,52 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1600</v>
+        <v>2100</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="F17" s="3">
-        <v>700</v>
+        <v>1700</v>
       </c>
       <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>800</v>
+      </c>
+      <c r="I17" s="3">
         <v>600</v>
       </c>
-      <c r="H17" s="3">
-        <v>4400</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K17" s="3">
         <v>1000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>3500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>600</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
       <c r="Q17" s="3">
         <v>0</v>
       </c>
@@ -1235,50 +1288,56 @@
       <c r="T17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1500</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3">
         <v>-600</v>
       </c>
-      <c r="H18" s="3">
-        <v>-4400</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-3500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-2700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-600</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
         <v>0</v>
       </c>
@@ -1291,8 +1350,14 @@
       <c r="T18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,38 +1378,40 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-400</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-100</v>
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1369,47 +1436,53 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3">
         <v>-600</v>
       </c>
-      <c r="H21" s="3">
-        <v>-4400</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="K21" s="3">
         <v>-1000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-3500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-2700</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1425,8 +1498,14 @@
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1434,97 +1513,103 @@
         <v>200</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>4</v>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2100</v>
+        <v>-400</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="F23" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>-800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="H23" s="3">
-        <v>-4500</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-3500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-2700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-600</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
         <v>0</v>
       </c>
@@ -1537,19 +1622,25 @@
       <c r="T23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>4</v>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>4</v>
@@ -1563,11 +1654,11 @@
       <c r="J24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1593,8 +1684,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,50 +1746,56 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-2000</v>
+        <v>-400</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="F26" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>-800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="H26" s="3">
-        <v>-4500</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-3500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-2700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-600</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
         <v>0</v>
       </c>
@@ -1705,50 +1808,56 @@
       <c r="T26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-2000</v>
+        <v>-500</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="F27" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>-800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="H27" s="3">
-        <v>-4500</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-3500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-2700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
         <v>0</v>
       </c>
@@ -1761,8 +1870,14 @@
       <c r="T27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1932,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,38 +2118,44 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>400</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>200</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2041,50 +2180,56 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-2000</v>
+        <v>-500</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="F33" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="H33" s="3">
-        <v>-4500</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-3500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-2700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
         <v>0</v>
       </c>
@@ -2097,8 +2242,14 @@
       <c r="T33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,50 +2304,56 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-2000</v>
+        <v>-500</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="F35" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="H35" s="3">
-        <v>-4500</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-3500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-2700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
         <v>0</v>
       </c>
@@ -2209,69 +2366,81 @@
       <c r="T35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,50 +2485,52 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>900</v>
+      </c>
+      <c r="F41" s="3">
         <v>500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
         <v>100</v>
       </c>
       <c r="K41" s="3">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
         <v>1100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>2400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>100</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2370,8 +2543,14 @@
       <c r="T41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2605,14 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2440,38 +2625,38 @@
       <c r="F43" s="3">
         <v>0</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
+      <c r="G43" s="3">
+        <v>0</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
-      <c r="I43" s="3">
+      <c r="I43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
@@ -2482,20 +2667,26 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>300</v>
+      </c>
+      <c r="E44" s="3">
+        <v>200</v>
+      </c>
+      <c r="F44" s="3">
         <v>100</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2508,11 +2699,11 @@
       <c r="J44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -2538,8 +2729,14 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2547,10 +2744,10 @@
         <v>200</v>
       </c>
       <c r="E45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G45" s="3">
         <v>300</v>
@@ -2559,26 +2756,26 @@
         <v>300</v>
       </c>
       <c r="I45" s="3">
+        <v>300</v>
+      </c>
+      <c r="J45" s="3">
+        <v>300</v>
+      </c>
+      <c r="K45" s="3">
         <v>1500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
@@ -2594,50 +2791,56 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F46" s="3">
         <v>800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>300</v>
       </c>
-      <c r="G46" s="3">
-        <v>300</v>
-      </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
+        <v>400</v>
+      </c>
+      <c r="K46" s="3">
         <v>1700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>3100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>100</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
       <c r="Q46" s="3">
         <v>0</v>
       </c>
@@ -2650,19 +2853,25 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>400</v>
+      <c r="D47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F47" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G47" s="3">
         <v>400</v>
@@ -2671,23 +2880,23 @@
         <v>400</v>
       </c>
       <c r="I47" s="3">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="J47" s="3">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K47" s="3">
         <v>800</v>
       </c>
       <c r="L47" s="3">
+        <v>800</v>
+      </c>
+      <c r="M47" s="3">
+        <v>800</v>
+      </c>
+      <c r="N47" s="3">
         <v>400</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2697,40 +2906,46 @@
       <c r="Q47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
-      </c>
-      <c r="S47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5800</v>
+        <v>6200</v>
       </c>
       <c r="E48" s="3">
-        <v>3000</v>
+        <v>5900</v>
       </c>
       <c r="F48" s="3">
-        <v>2800</v>
+        <v>6000</v>
       </c>
       <c r="G48" s="3">
-        <v>2800</v>
+        <v>3100</v>
       </c>
       <c r="H48" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="I48" s="3">
-        <v>100</v>
+        <v>2900</v>
       </c>
       <c r="J48" s="3">
-        <v>100</v>
+        <v>2900</v>
       </c>
       <c r="K48" s="3">
         <v>100</v>
@@ -2742,13 +2957,13 @@
         <v>100</v>
       </c>
       <c r="N48" s="3">
-        <v>0</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="O48" s="3">
+        <v>100</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>4</v>
@@ -2762,19 +2977,25 @@
       <c r="T48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4500</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
+        <v>5700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F49" s="3">
+        <v>4600</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>4</v>
@@ -2788,11 +3009,11 @@
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -2818,8 +3039,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,19 +3163,25 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>300</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
+      <c r="E52" s="3">
+        <v>300</v>
+      </c>
+      <c r="F52" s="3">
+        <v>300</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>4</v>
@@ -2956,11 +3195,11 @@
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -2986,8 +3225,14 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,50 +3287,56 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>11300</v>
+        <v>13400</v>
       </c>
       <c r="E54" s="3">
-        <v>3800</v>
+        <v>12000</v>
       </c>
       <c r="F54" s="3">
-        <v>3500</v>
+        <v>11700</v>
       </c>
       <c r="G54" s="3">
-        <v>3600</v>
+        <v>4000</v>
       </c>
       <c r="H54" s="3">
         <v>3600</v>
       </c>
       <c r="I54" s="3">
+        <v>3700</v>
+      </c>
+      <c r="J54" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K54" s="3">
         <v>2600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>3500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>200</v>
       </c>
-      <c r="O54" s="3">
-        <v>0</v>
-      </c>
-      <c r="P54" s="3">
-        <v>0</v>
-      </c>
       <c r="Q54" s="3">
         <v>0</v>
       </c>
@@ -3098,8 +3349,14 @@
       <c r="T54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3401,10 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3151,34 +3412,34 @@
         <v>2200</v>
       </c>
       <c r="E57" s="3">
-        <v>1900</v>
+        <v>2200</v>
       </c>
       <c r="F57" s="3">
-        <v>1500</v>
+        <v>2200</v>
       </c>
       <c r="G57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I57" s="3">
         <v>1400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>200</v>
-      </c>
-      <c r="M57" s="3">
-        <v>100</v>
-      </c>
-      <c r="N57" s="3">
-        <v>100</v>
       </c>
       <c r="O57" s="3">
         <v>100</v>
@@ -3193,54 +3454,60 @@
         <v>100</v>
       </c>
       <c r="S57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G58" s="3">
         <v>2300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J58" s="3">
         <v>1900</v>
       </c>
-      <c r="G58" s="3">
-        <v>1400</v>
-      </c>
-      <c r="H58" s="3">
-        <v>1800</v>
-      </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
       <c r="O58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="P58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="3">
         <v>300</v>
@@ -3254,19 +3521,25 @@
       <c r="T58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>300</v>
+      </c>
+      <c r="V58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
+        <v>800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>400</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>4</v>
@@ -3280,17 +3553,17 @@
       <c r="J59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3">
-        <v>0</v>
+      <c r="K59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O59" s="3">
         <v>100</v>
@@ -3310,49 +3583,55 @@
       <c r="T59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>100</v>
+      </c>
+      <c r="V59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F60" s="3">
+        <v>4400</v>
+      </c>
+      <c r="G60" s="3">
         <v>4300</v>
       </c>
-      <c r="E60" s="3">
-        <v>4200</v>
-      </c>
-      <c r="F60" s="3">
-        <v>3400</v>
-      </c>
-      <c r="G60" s="3">
-        <v>2800</v>
-      </c>
       <c r="H60" s="3">
+        <v>3500</v>
+      </c>
+      <c r="I60" s="3">
         <v>2900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K60" s="3">
         <v>800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>100</v>
-      </c>
-      <c r="O60" s="3">
-        <v>500</v>
-      </c>
-      <c r="P60" s="3">
-        <v>500</v>
       </c>
       <c r="Q60" s="3">
         <v>500</v>
@@ -3361,40 +3640,46 @@
         <v>500</v>
       </c>
       <c r="S60" s="3">
+        <v>500</v>
+      </c>
+      <c r="T60" s="3">
+        <v>500</v>
+      </c>
+      <c r="U60" s="3">
         <v>400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E61" s="3">
         <v>2200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G61" s="3">
         <v>800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>400</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3422,8 +3707,14 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3769,14 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,49 +3955,55 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7000</v>
+        <v>8600</v>
       </c>
       <c r="E66" s="3">
-        <v>5000</v>
+        <v>7400</v>
       </c>
       <c r="F66" s="3">
-        <v>4400</v>
+        <v>7200</v>
       </c>
       <c r="G66" s="3">
-        <v>3700</v>
+        <v>5100</v>
       </c>
       <c r="H66" s="3">
-        <v>3300</v>
+        <v>4500</v>
       </c>
       <c r="I66" s="3">
+        <v>3800</v>
+      </c>
+      <c r="J66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K66" s="3">
         <v>1200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>100</v>
-      </c>
-      <c r="O66" s="3">
-        <v>500</v>
-      </c>
-      <c r="P66" s="3">
-        <v>500</v>
       </c>
       <c r="Q66" s="3">
         <v>500</v>
@@ -3697,13 +4012,19 @@
         <v>500</v>
       </c>
       <c r="S66" s="3">
+        <v>500</v>
+      </c>
+      <c r="T66" s="3">
+        <v>500</v>
+      </c>
+      <c r="U66" s="3">
         <v>400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4289,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-18600</v>
+        <v>-20400</v>
       </c>
       <c r="E72" s="3">
-        <v>-16600</v>
+        <v>-19900</v>
       </c>
       <c r="F72" s="3">
-        <v>-16600</v>
+        <v>-19200</v>
       </c>
       <c r="G72" s="3">
-        <v>-15800</v>
+        <v>-17100</v>
       </c>
       <c r="H72" s="3">
-        <v>-15100</v>
+        <v>-17100</v>
       </c>
       <c r="I72" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-13400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-12500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-11200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-10000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-9800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-7200</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-6600</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-6600</v>
       </c>
       <c r="Q72" s="3">
         <v>-6600</v>
       </c>
       <c r="R72" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="S72" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="T72" s="3">
         <v>-6800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-6800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-6700</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,55 +4537,61 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4300</v>
+        <v>4800</v>
       </c>
       <c r="E76" s="3">
-        <v>-1100</v>
+        <v>4700</v>
       </c>
       <c r="F76" s="3">
+        <v>4500</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H76" s="3">
         <v>-900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>2100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>2700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>3300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>400</v>
       </c>
-      <c r="N76" s="3">
-        <v>0</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-500</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-400</v>
-      </c>
-      <c r="R76" s="3">
-        <v>-400</v>
       </c>
       <c r="S76" s="3">
         <v>-400</v>
@@ -4228,8 +4599,14 @@
       <c r="T76" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V76" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,111 +4661,123 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-2000</v>
+        <v>-500</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="F81" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="H81" s="3">
-        <v>-4500</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-3500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-2700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
         <v>0</v>
       </c>
@@ -4401,8 +4790,14 @@
       <c r="T81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4818,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4432,10 +4829,10 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -4458,11 +4855,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>4</v>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>4</v>
@@ -4479,8 +4876,14 @@
       <c r="T83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,50 +5186,56 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E89" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
         <v>-200</v>
       </c>
       <c r="G89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-2300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
@@ -4815,8 +5248,14 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,16 +5276,18 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-100</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>4</v>
@@ -4854,30 +5295,30 @@
       <c r="G91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H91" s="3">
-        <v>-1900</v>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
+      <c r="J91" s="3">
+        <v>-2000</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
@@ -4893,8 +5334,14 @@
       <c r="T91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,47 +5458,53 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-2400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
@@ -5061,8 +5520,14 @@
       <c r="T94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,50 +5792,56 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
+        <v>600</v>
+      </c>
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>2200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>4200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
@@ -5363,23 +5854,29 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
@@ -5395,11 +5892,11 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N101" s="3" t="s">
-        <v>4</v>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>4</v>
@@ -5410,59 +5907,65 @@
       <c r="Q101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
-      <c r="S101" s="3">
-        <v>0</v>
+      <c r="R101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E102" s="3">
         <v>400</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
       <c r="H102" s="3">
-        <v>-2400</v>
+        <v>0</v>
       </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-1400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>2400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
@@ -5473,6 +5976,12 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LVRLF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LVRLF_QTR_FIN.xlsx
@@ -759,10 +759,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="E8" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="F8" s="3">
         <v>200</v>
@@ -824,7 +824,7 @@
         <v>1300</v>
       </c>
       <c r="E9" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F9" s="3">
         <v>100</v>
@@ -883,7 +883,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E10" s="3">
         <v>500</v>
@@ -1238,13 +1238,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="E17" s="3">
         <v>1700</v>
       </c>
       <c r="F17" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="G17" s="3">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>800</v>
       </c>
       <c r="I17" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J17" s="3">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="K17" s="3">
         <v>1000</v>
@@ -1306,7 +1306,7 @@
         <v>-200</v>
       </c>
       <c r="F18" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>4</v>
@@ -1315,10 +1315,10 @@
         <v>4</v>
       </c>
       <c r="I18" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="J18" s="3">
-        <v>-4500</v>
+        <v>-4700</v>
       </c>
       <c r="K18" s="3">
         <v>-1000</v>
@@ -1454,7 +1454,7 @@
         <v>-200</v>
       </c>
       <c r="F21" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
@@ -1463,10 +1463,10 @@
         <v>4</v>
       </c>
       <c r="I21" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="J21" s="3">
-        <v>-4600</v>
+        <v>-4800</v>
       </c>
       <c r="K21" s="3">
         <v>-1000</v>
@@ -1578,19 +1578,19 @@
         <v>-500</v>
       </c>
       <c r="F23" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="G23" s="3">
         <v>0</v>
       </c>
       <c r="H23" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="I23" s="3">
         <v>-700</v>
       </c>
       <c r="J23" s="3">
-        <v>-4600</v>
+        <v>-4800</v>
       </c>
       <c r="K23" s="3">
         <v>-1000</v>
@@ -1764,19 +1764,19 @@
         <v>-500</v>
       </c>
       <c r="F26" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="G26" s="3">
         <v>0</v>
       </c>
       <c r="H26" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="I26" s="3">
         <v>-700</v>
       </c>
       <c r="J26" s="3">
-        <v>-4600</v>
+        <v>-4800</v>
       </c>
       <c r="K26" s="3">
         <v>-1000</v>
@@ -1826,19 +1826,19 @@
         <v>-600</v>
       </c>
       <c r="F27" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="G27" s="3">
         <v>0</v>
       </c>
       <c r="H27" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="I27" s="3">
         <v>-700</v>
       </c>
       <c r="J27" s="3">
-        <v>-4600</v>
+        <v>-4800</v>
       </c>
       <c r="K27" s="3">
         <v>-1000</v>
@@ -2198,19 +2198,19 @@
         <v>-600</v>
       </c>
       <c r="F33" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="G33" s="3">
         <v>0</v>
       </c>
       <c r="H33" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="I33" s="3">
         <v>-700</v>
       </c>
       <c r="J33" s="3">
-        <v>-4600</v>
+        <v>-4800</v>
       </c>
       <c r="K33" s="3">
         <v>-1000</v>
@@ -2322,19 +2322,19 @@
         <v>-600</v>
       </c>
       <c r="F35" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="G35" s="3">
         <v>0</v>
       </c>
       <c r="H35" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="I35" s="3">
         <v>-700</v>
       </c>
       <c r="J35" s="3">
-        <v>-4600</v>
+        <v>-4800</v>
       </c>
       <c r="K35" s="3">
         <v>-1000</v>
@@ -2741,7 +2741,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E45" s="3">
         <v>200</v>
@@ -2750,7 +2750,7 @@
         <v>200</v>
       </c>
       <c r="G45" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H45" s="3">
         <v>300</v>
@@ -2759,7 +2759,7 @@
         <v>300</v>
       </c>
       <c r="J45" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K45" s="3">
         <v>1500</v>
@@ -2809,13 +2809,13 @@
         <v>1300</v>
       </c>
       <c r="F46" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="G46" s="3">
         <v>400</v>
       </c>
       <c r="H46" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I46" s="3">
         <v>400</v>
@@ -2927,25 +2927,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E48" s="3">
         <v>6200</v>
       </c>
-      <c r="E48" s="3">
-        <v>5900</v>
-      </c>
       <c r="F48" s="3">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="G48" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="H48" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="I48" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="J48" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="K48" s="3">
         <v>100</v>
@@ -2989,13 +2989,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5700</v>
+        <v>6000</v>
       </c>
       <c r="E49" s="3">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="F49" s="3">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>4</v>
@@ -3299,25 +3299,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13400</v>
+        <v>14000</v>
       </c>
       <c r="E54" s="3">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="F54" s="3">
-        <v>11700</v>
+        <v>12200</v>
       </c>
       <c r="G54" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="H54" s="3">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="I54" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="J54" s="3">
-        <v>3700</v>
+        <v>3900</v>
       </c>
       <c r="K54" s="3">
         <v>2600</v>
@@ -3409,13 +3409,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="E57" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="F57" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="G57" s="3">
         <v>2000</v>
@@ -3424,7 +3424,7 @@
         <v>1600</v>
       </c>
       <c r="I57" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="J57" s="3">
         <v>1100</v>
@@ -3471,16 +3471,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="E58" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="F58" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="G58" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="H58" s="3">
         <v>2000</v>
@@ -3489,7 +3489,7 @@
         <v>1500</v>
       </c>
       <c r="J58" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="K58" s="3">
         <v>200</v>
@@ -3595,25 +3595,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="E60" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="F60" s="3">
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="G60" s="3">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="H60" s="3">
-        <v>3500</v>
+        <v>3700</v>
       </c>
       <c r="I60" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="J60" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="K60" s="3">
         <v>800</v>
@@ -3657,25 +3657,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="E61" s="3">
         <v>2200</v>
       </c>
       <c r="F61" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="G61" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="H61" s="3">
         <v>1000</v>
       </c>
       <c r="I61" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="J61" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K61" s="3">
         <v>400</v>
@@ -3967,25 +3967,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8600</v>
+        <v>9000</v>
       </c>
       <c r="E66" s="3">
-        <v>7400</v>
+        <v>7700</v>
       </c>
       <c r="F66" s="3">
-        <v>7200</v>
+        <v>7500</v>
       </c>
       <c r="G66" s="3">
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="H66" s="3">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="I66" s="3">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="J66" s="3">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="K66" s="3">
         <v>1200</v>
@@ -4301,25 +4301,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-20400</v>
+        <v>-21300</v>
       </c>
       <c r="E72" s="3">
-        <v>-19900</v>
+        <v>-20800</v>
       </c>
       <c r="F72" s="3">
-        <v>-19200</v>
+        <v>-20000</v>
       </c>
       <c r="G72" s="3">
-        <v>-17100</v>
+        <v>-17900</v>
       </c>
       <c r="H72" s="3">
-        <v>-17100</v>
+        <v>-17900</v>
       </c>
       <c r="I72" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="J72" s="3">
         <v>-16200</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-15500</v>
       </c>
       <c r="K72" s="3">
         <v>-13400</v>
@@ -4549,13 +4549,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="E76" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F76" s="3">
         <v>4700</v>
-      </c>
-      <c r="F76" s="3">
-        <v>4500</v>
       </c>
       <c r="G76" s="3">
         <v>-1200</v>
@@ -4746,19 +4746,19 @@
         <v>-600</v>
       </c>
       <c r="F81" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="G81" s="3">
         <v>0</v>
       </c>
       <c r="H81" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="I81" s="3">
         <v>-700</v>
       </c>
       <c r="J81" s="3">
-        <v>-4600</v>
+        <v>-4800</v>
       </c>
       <c r="K81" s="3">
         <v>-1000</v>
@@ -5216,7 +5216,7 @@
         <v>-100</v>
       </c>
       <c r="J89" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="K89" s="3">
         <v>-300</v>
@@ -5302,7 +5302,7 @@
         <v>4</v>
       </c>
       <c r="J91" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
@@ -5488,7 +5488,7 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="K94" s="3">
         <v>-100</v>
@@ -5810,7 +5810,7 @@
         <v>600</v>
       </c>
       <c r="F100" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G100" s="3">
         <v>500</v>
@@ -5822,7 +5822,7 @@
         <v>100</v>
       </c>
       <c r="J100" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="K100" s="3">
         <v>400</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>

--- a/AAII_Financials/Quarterly/LVRLF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LVRLF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="92">
   <si>
     <t>LVRLF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,116 +665,120 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="E8" s="3">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="F8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G8" s="3">
         <v>200</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
+      <c r="I8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
@@ -815,31 +819,34 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="E9" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="F9" s="3">
+        <v>900</v>
+      </c>
+      <c r="G9" s="3">
         <v>100</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
+      <c r="J9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
@@ -856,8 +863,8 @@
       <c r="O9" s="3">
         <v>0</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>4</v>
+      <c r="P9" s="3">
+        <v>0</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>4</v>
@@ -877,31 +884,34 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E10" s="3">
+        <v>600</v>
+      </c>
+      <c r="F10" s="3">
         <v>500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>100</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
+      <c r="J10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
@@ -918,8 +928,8 @@
       <c r="O10" s="3">
         <v>0</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
+      <c r="P10" s="3">
+        <v>0</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>4</v>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1102,43 +1122,43 @@
         <v>100</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>300</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
         <v>300</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>300</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
@@ -1146,11 +1166,14 @@
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1164,10 +1187,10 @@
         <v>100</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>4</v>
@@ -1178,11 +1201,11 @@
       <c r="K15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>4</v>
+      <c r="L15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>4</v>
@@ -1190,11 +1213,11 @@
       <c r="O15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>4</v>
+      <c r="P15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>4</v>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,53 +1258,54 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="E17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G17" s="3">
         <v>1700</v>
       </c>
-      <c r="F17" s="3">
-        <v>1800</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
       <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
         <v>800</v>
       </c>
-      <c r="I17" s="3">
-        <v>700</v>
-      </c>
       <c r="J17" s="3">
+        <v>600</v>
+      </c>
+      <c r="K17" s="3">
         <v>4700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>600</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
       <c r="R17" s="3">
         <v>0</v>
       </c>
@@ -1294,53 +1321,56 @@
       <c r="V17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="E18" s="3">
         <v>-200</v>
       </c>
       <c r="F18" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
+        <v>-200</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-1500</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="3">
-        <v>-700</v>
+      <c r="I18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K18" s="3">
         <v>-4700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-600</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
         <v>0</v>
       </c>
@@ -1356,8 +1386,11 @@
       <c r="V18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,28 +1413,29 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
+      <c r="I20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1410,11 +1444,11 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1442,50 +1476,53 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
         <v>-100</v>
       </c>
-      <c r="E21" s="3">
-        <v>-200</v>
-      </c>
       <c r="F21" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
+        <v>-100</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-1700</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="M21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="N21" s="3">
         <v>-700</v>
       </c>
-      <c r="J21" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-700</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-3500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2700</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1504,8 +1541,11 @@
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1516,10 +1556,10 @@
         <v>200</v>
       </c>
       <c r="F22" s="3">
+        <v>200</v>
+      </c>
+      <c r="G22" s="3">
         <v>400</v>
-      </c>
-      <c r="G22" s="3">
-        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
@@ -1531,19 +1571,19 @@
         <v>100</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1551,8 +1591,8 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>4</v>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>4</v>
@@ -1560,59 +1600,62 @@
       <c r="T22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
-        <v>-2300</v>
-      </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>-2100</v>
       </c>
       <c r="H23" s="3">
-        <v>-900</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J23" s="3">
         <v>-700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-600</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
         <v>0</v>
       </c>
@@ -1628,8 +1671,11 @@
       <c r="V23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1642,8 +1688,8 @@
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>4</v>
+      <c r="G24" s="3">
+        <v>0</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>4</v>
@@ -1660,8 +1706,8 @@
       <c r="L24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="M24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,53 +1801,56 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
-        <v>-2200</v>
-      </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>-2100</v>
       </c>
       <c r="H26" s="3">
-        <v>-900</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J26" s="3">
         <v>-700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-600</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
         <v>0</v>
       </c>
@@ -1814,8 +1866,11 @@
       <c r="V26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1823,44 +1878,44 @@
         <v>-500</v>
       </c>
       <c r="E27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-600</v>
       </c>
-      <c r="F27" s="3">
-        <v>-2200</v>
-      </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="H27" s="3">
-        <v>-900</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J27" s="3">
         <v>-700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
         <v>0</v>
       </c>
@@ -1876,8 +1931,11 @@
       <c r="V27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,28 +2191,31 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
+      <c r="I32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -2154,11 +2224,11 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2186,8 +2256,11 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2195,44 +2268,44 @@
         <v>-500</v>
       </c>
       <c r="E33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-600</v>
       </c>
-      <c r="F33" s="3">
-        <v>-2200</v>
-      </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="H33" s="3">
-        <v>-900</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-600</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
         <v>0</v>
       </c>
@@ -2248,8 +2321,11 @@
       <c r="V33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,8 +2386,11 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2319,44 +2398,44 @@
         <v>-500</v>
       </c>
       <c r="E35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-600</v>
       </c>
-      <c r="F35" s="3">
-        <v>-2200</v>
-      </c>
       <c r="G35" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="H35" s="3">
-        <v>-900</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-600</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
         <v>0</v>
       </c>
@@ -2372,75 +2451,81 @@
       <c r="V35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,8 +2573,9 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2496,22 +2583,22 @@
         <v>600</v>
       </c>
       <c r="E41" s="3">
+        <v>600</v>
+      </c>
+      <c r="F41" s="3">
         <v>900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
         <v>100</v>
@@ -2520,20 +2607,20 @@
         <v>100</v>
       </c>
       <c r="M41" s="3">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3">
         <v>1100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2549,8 +2636,11 @@
       <c r="V41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,8 +2701,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2631,20 +2724,20 @@
       <c r="H43" s="3">
         <v>0</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
         <v>100</v>
       </c>
       <c r="M43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2652,14 +2745,14 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
+      <c r="P43" s="3">
+        <v>0</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="R43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -2673,23 +2766,26 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>500</v>
+      </c>
+      <c r="E44" s="3">
         <v>300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>100</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2705,8 +2801,8 @@
       <c r="L44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -2735,13 +2831,16 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E45" s="3">
         <v>200</v>
@@ -2750,7 +2849,7 @@
         <v>200</v>
       </c>
       <c r="G45" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="H45" s="3">
         <v>300</v>
@@ -2759,26 +2858,26 @@
         <v>300</v>
       </c>
       <c r="J45" s="3">
+        <v>300</v>
+      </c>
+      <c r="K45" s="3">
         <v>400</v>
-      </c>
-      <c r="K45" s="3">
-        <v>1500</v>
       </c>
       <c r="L45" s="3">
         <v>1500</v>
       </c>
       <c r="M45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N45" s="3">
         <v>1000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
       <c r="Q45" s="3">
         <v>0</v>
       </c>
@@ -2797,53 +2896,56 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F46" s="3">
         <v>1200</v>
       </c>
-      <c r="E46" s="3">
-        <v>1300</v>
-      </c>
-      <c r="F46" s="3">
-        <v>900</v>
-      </c>
       <c r="G46" s="3">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="H46" s="3">
         <v>400</v>
       </c>
       <c r="I46" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J46" s="3">
         <v>400</v>
       </c>
       <c r="K46" s="3">
-        <v>1700</v>
+        <v>400</v>
       </c>
       <c r="L46" s="3">
         <v>1700</v>
       </c>
       <c r="M46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N46" s="3">
         <v>2100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>100</v>
       </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
       <c r="R46" s="3">
         <v>0</v>
       </c>
@@ -2859,8 +2961,11 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2870,11 +2975,11 @@
       <c r="E47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G47" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H47" s="3">
         <v>400</v>
@@ -2886,7 +2991,7 @@
         <v>400</v>
       </c>
       <c r="K47" s="3">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L47" s="3">
         <v>800</v>
@@ -2895,11 +3000,11 @@
         <v>800</v>
       </c>
       <c r="N47" s="3">
+        <v>800</v>
+      </c>
+      <c r="O47" s="3">
         <v>400</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2912,8 +3017,8 @@
       <c r="S47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T47" s="3">
-        <v>0</v>
+      <c r="T47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U47" s="3">
         <v>0</v>
@@ -2921,34 +3026,37 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6500</v>
+        <v>7200</v>
       </c>
       <c r="E48" s="3">
-        <v>6200</v>
+        <v>6100</v>
       </c>
       <c r="F48" s="3">
-        <v>6200</v>
+        <v>5800</v>
       </c>
       <c r="G48" s="3">
-        <v>3300</v>
+        <v>5900</v>
       </c>
       <c r="H48" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I48" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J48" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K48" s="3">
         <v>3000</v>
-      </c>
-      <c r="I48" s="3">
-        <v>3000</v>
-      </c>
-      <c r="J48" s="3">
-        <v>3000</v>
-      </c>
-      <c r="K48" s="3">
-        <v>100</v>
       </c>
       <c r="L48" s="3">
         <v>100</v>
@@ -2963,10 +3071,10 @@
         <v>100</v>
       </c>
       <c r="P48" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>4</v>
@@ -2983,22 +3091,25 @@
       <c r="V48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6000</v>
+        <v>7300</v>
       </c>
       <c r="E49" s="3">
-        <v>4800</v>
+        <v>5700</v>
       </c>
       <c r="F49" s="3">
-        <v>4800</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
+        <v>4500</v>
+      </c>
+      <c r="G49" s="3">
+        <v>4500</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>4</v>
@@ -3015,8 +3126,8 @@
       <c r="L49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,13 +3286,16 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E52" s="3">
         <v>300</v>
@@ -3183,8 +3303,8 @@
       <c r="F52" s="3">
         <v>300</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
+      <c r="G52" s="3">
+        <v>300</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>4</v>
@@ -3201,8 +3321,8 @@
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,53 +3416,56 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>14000</v>
+        <v>16200</v>
       </c>
       <c r="E54" s="3">
-        <v>12500</v>
+        <v>13100</v>
       </c>
       <c r="F54" s="3">
-        <v>12200</v>
+        <v>11800</v>
       </c>
       <c r="G54" s="3">
-        <v>4100</v>
+        <v>11500</v>
       </c>
       <c r="H54" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="I54" s="3">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="J54" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K54" s="3">
         <v>3900</v>
-      </c>
-      <c r="K54" s="3">
-        <v>2600</v>
       </c>
       <c r="L54" s="3">
         <v>2600</v>
       </c>
       <c r="M54" s="3">
+        <v>2600</v>
+      </c>
+      <c r="N54" s="3">
         <v>3000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>200</v>
       </c>
-      <c r="Q54" s="3">
-        <v>0</v>
-      </c>
       <c r="R54" s="3">
         <v>0</v>
       </c>
@@ -3355,8 +3481,11 @@
       <c r="V54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,46 +3533,47 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="E57" s="3">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="F57" s="3">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="G57" s="3">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="H57" s="3">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="I57" s="3">
         <v>1500</v>
       </c>
       <c r="J57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K57" s="3">
         <v>1100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>200</v>
-      </c>
-      <c r="O57" s="3">
-        <v>100</v>
       </c>
       <c r="P57" s="3">
         <v>100</v>
@@ -3460,48 +3591,51 @@
         <v>100</v>
       </c>
       <c r="U57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F58" s="3">
         <v>2100</v>
       </c>
-      <c r="E58" s="3">
-        <v>2200</v>
-      </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H58" s="3">
         <v>2300</v>
       </c>
-      <c r="G58" s="3">
-        <v>2400</v>
-      </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K58" s="3">
         <v>2000</v>
       </c>
-      <c r="I58" s="3">
-        <v>1500</v>
-      </c>
-      <c r="J58" s="3">
-        <v>2000</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -3510,7 +3644,7 @@
         <v>0</v>
       </c>
       <c r="Q58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="R58" s="3">
         <v>300</v>
@@ -3527,22 +3661,25 @@
       <c r="V58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>100</v>
+      </c>
+      <c r="E59" s="3">
         <v>800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>400</v>
       </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
+      <c r="G59" s="3">
+        <v>0</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>4</v>
@@ -3559,14 +3696,14 @@
       <c r="L59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
+      <c r="M59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
       </c>
       <c r="O59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P59" s="3">
         <v>100</v>
@@ -3589,13 +3726,16 @@
       <c r="V59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5200</v>
+        <v>4700</v>
       </c>
       <c r="E60" s="3">
         <v>4900</v>
@@ -3604,37 +3744,37 @@
         <v>4600</v>
       </c>
       <c r="G60" s="3">
-        <v>4500</v>
+        <v>4300</v>
       </c>
       <c r="H60" s="3">
-        <v>3700</v>
+        <v>4200</v>
       </c>
       <c r="I60" s="3">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="J60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K60" s="3">
         <v>3100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>300</v>
-      </c>
-      <c r="N60" s="3">
-        <v>200</v>
       </c>
       <c r="O60" s="3">
         <v>200</v>
       </c>
       <c r="P60" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q60" s="3">
         <v>100</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>500</v>
       </c>
       <c r="R60" s="3">
         <v>500</v>
@@ -3646,43 +3786,46 @@
         <v>500</v>
       </c>
       <c r="U60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="V60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="E61" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="F61" s="3">
-        <v>2400</v>
+        <v>2100</v>
       </c>
       <c r="G61" s="3">
-        <v>900</v>
+        <v>2300</v>
       </c>
       <c r="H61" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="I61" s="3">
         <v>1000</v>
       </c>
       <c r="J61" s="3">
+        <v>900</v>
+      </c>
+      <c r="K61" s="3">
         <v>500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>400</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3713,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,52 +4116,55 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9000</v>
+        <v>8200</v>
       </c>
       <c r="E66" s="3">
-        <v>7700</v>
+        <v>8400</v>
       </c>
       <c r="F66" s="3">
-        <v>7500</v>
+        <v>7200</v>
       </c>
       <c r="G66" s="3">
-        <v>5300</v>
+        <v>7100</v>
       </c>
       <c r="H66" s="3">
-        <v>4700</v>
+        <v>5000</v>
       </c>
       <c r="I66" s="3">
-        <v>4000</v>
+        <v>4400</v>
       </c>
       <c r="J66" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K66" s="3">
         <v>3600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>300</v>
-      </c>
-      <c r="N66" s="3">
-        <v>200</v>
       </c>
       <c r="O66" s="3">
         <v>200</v>
       </c>
       <c r="P66" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q66" s="3">
         <v>100</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>500</v>
       </c>
       <c r="R66" s="3">
         <v>500</v>
@@ -4018,13 +4176,16 @@
         <v>500</v>
       </c>
       <c r="U66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="V66" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,52 +4466,55 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-21300</v>
+        <v>-20500</v>
       </c>
       <c r="E72" s="3">
-        <v>-20800</v>
+        <v>-20000</v>
       </c>
       <c r="F72" s="3">
-        <v>-20000</v>
+        <v>-19500</v>
       </c>
       <c r="G72" s="3">
-        <v>-17900</v>
+        <v>-18800</v>
       </c>
       <c r="H72" s="3">
-        <v>-17900</v>
+        <v>-16800</v>
       </c>
       <c r="I72" s="3">
-        <v>-17000</v>
+        <v>-16800</v>
       </c>
       <c r="J72" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-16200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-13400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-12500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-11200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-10000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-9800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-7200</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-6600</v>
       </c>
       <c r="R72" s="3">
         <v>-6600</v>
@@ -4349,16 +4523,19 @@
         <v>-6600</v>
       </c>
       <c r="T72" s="3">
-        <v>-6800</v>
+        <v>-6600</v>
       </c>
       <c r="U72" s="3">
         <v>-6800</v>
       </c>
       <c r="V72" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="W72" s="3">
         <v>-6700</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,58 +4726,61 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="E76" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="F76" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="G76" s="3">
-        <v>-1200</v>
+        <v>4400</v>
       </c>
       <c r="H76" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I76" s="3">
         <v>-900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>400</v>
       </c>
-      <c r="P76" s="3">
-        <v>0</v>
-      </c>
       <c r="Q76" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="R76" s="3">
         <v>-500</v>
       </c>
       <c r="S76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="T76" s="3">
         <v>-400</v>
@@ -4605,8 +4791,11 @@
       <c r="V76" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,75 +4856,81 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4743,44 +4938,44 @@
         <v>-500</v>
       </c>
       <c r="E81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-600</v>
       </c>
-      <c r="F81" s="3">
-        <v>-2200</v>
-      </c>
       <c r="G81" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="H81" s="3">
-        <v>-900</v>
+        <v>0</v>
       </c>
       <c r="I81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-600</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
         <v>0</v>
       </c>
@@ -4796,8 +4991,11 @@
       <c r="V81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4835,7 +5034,7 @@
         <v>100</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
@@ -4861,8 +5060,8 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>4</v>
+      <c r="P83" s="3">
+        <v>0</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>4</v>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,8 +5406,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5201,44 +5418,44 @@
         <v>-300</v>
       </c>
       <c r="E89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
@@ -5254,8 +5471,11 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,20 +5498,21 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
       </c>
@@ -5301,26 +5522,26 @@
       <c r="I91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J91" s="3">
+      <c r="J91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2100</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
-        <v>-100</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
+      <c r="P91" s="3">
+        <v>-100</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>4</v>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,13 +5691,16 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>-200</v>
@@ -5479,7 +5709,7 @@
         <v>-100</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
@@ -5488,26 +5718,26 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-400</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-900</v>
       </c>
       <c r="N94" s="3">
         <v>-900</v>
       </c>
       <c r="O94" s="3">
+        <v>-900</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>4</v>
       </c>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,53 +6041,56 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>500</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
+        <v>600</v>
+      </c>
+      <c r="H100" s="3">
+        <v>500</v>
+      </c>
+      <c r="I100" s="3">
+        <v>200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
+        <v>2300</v>
+      </c>
+      <c r="L100" s="3">
+        <v>400</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>4200</v>
+      </c>
+      <c r="P100" s="3">
         <v>700</v>
       </c>
-      <c r="G100" s="3">
-        <v>500</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
-        <v>100</v>
-      </c>
-      <c r="J100" s="3">
-        <v>2300</v>
-      </c>
-      <c r="K100" s="3">
-        <v>400</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>4200</v>
-      </c>
-      <c r="O100" s="3">
-        <v>700</v>
-      </c>
-      <c r="P100" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
@@ -5860,8 +6106,11 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5872,14 +6121,14 @@
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
@@ -5898,8 +6147,8 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>4</v>
+      <c r="O101" s="3">
+        <v>0</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>4</v>
@@ -5913,8 +6162,8 @@
       <c r="S101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
+      <c r="T101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U101" s="3">
         <v>0</v>
@@ -5922,23 +6171,26 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>500</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
@@ -5946,29 +6198,29 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-2600</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
@@ -5982,6 +6234,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LVRLF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LVRLF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="92">
   <si>
     <t>LVRLF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,126 +665,134 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F8" s="3">
         <v>2200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>200</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
+      <c r="J8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -822,37 +830,43 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F9" s="3">
         <v>1400</v>
       </c>
-      <c r="E9" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H9" s="3">
         <v>900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>100</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
+      <c r="K9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M9" s="3">
         <v>0</v>
@@ -866,11 +880,11 @@
       <c r="P9" s="3">
         <v>0</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>4</v>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>4</v>
@@ -887,37 +901,43 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>900</v>
+      </c>
+      <c r="E10" s="3">
         <v>800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
+        <v>800</v>
+      </c>
+      <c r="G10" s="3">
         <v>600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>100</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0</v>
+      <c r="K10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M10" s="3">
         <v>0</v>
@@ -931,11 +951,11 @@
       <c r="P10" s="3">
         <v>0</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>4</v>
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0</v>
       </c>
       <c r="S10" s="3" t="s">
         <v>4</v>
@@ -952,8 +972,14 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +1003,10 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1070,14 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,16 +1141,22 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E14" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F14" s="3">
         <v>100</v>
@@ -1125,63 +1165,69 @@
         <v>100</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I14" s="3">
-        <v>300</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3">
         <v>300</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
         <v>300</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E15" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F15" s="3">
         <v>100</v>
@@ -1190,13 +1236,13 @@
         <v>100</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="I15" s="3">
+        <v>100</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>4</v>
@@ -1204,26 +1250,26 @@
       <c r="L15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>4</v>
+      <c r="O15" s="3">
+        <v>0</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>4</v>
+      <c r="S15" s="3">
+        <v>0</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>4</v>
@@ -1237,8 +1283,14 @@
       <c r="W15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,59 +1311,61 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2500</v>
+        <v>3400</v>
       </c>
       <c r="E17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G17" s="3">
         <v>2100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1700</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>4700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>3500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>600</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
       <c r="T17" s="3">
         <v>0</v>
       </c>
@@ -1324,8 +1378,14 @@
       <c r="W17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1333,50 +1393,50 @@
         <v>-400</v>
       </c>
       <c r="E18" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1500</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="J18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3">
         <v>-600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-4700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-3500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-600</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
       <c r="T18" s="3">
         <v>0</v>
       </c>
@@ -1389,8 +1449,14 @@
       <c r="W18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,47 +1480,49 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
+      <c r="J20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1479,56 +1547,62 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I21" s="3">
         <v>-1700</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3">
         <v>-600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-4800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-1100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-3500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1544,28 +1618,34 @@
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>200</v>
       </c>
       <c r="G22" s="3">
+        <v>200</v>
+      </c>
+      <c r="H22" s="3">
+        <v>200</v>
+      </c>
+      <c r="I22" s="3">
         <v>400</v>
-      </c>
-      <c r="H22" s="3">
-        <v>100</v>
-      </c>
-      <c r="I22" s="3">
-        <v>100</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
@@ -1574,94 +1654,100 @@
         <v>100</v>
       </c>
       <c r="L22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>4</v>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
+      <c r="V22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-2100</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-4800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-3500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-600</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
       <c r="T23" s="3">
         <v>0</v>
       </c>
@@ -1674,8 +1760,14 @@
       <c r="W23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1683,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1691,11 +1783,11 @@
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>4</v>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>4</v>
@@ -1709,11 +1801,11 @@
       <c r="M24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
+      <c r="N24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -1739,8 +1831,14 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,59 +1902,65 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-2100</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-4800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-3500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-600</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
       <c r="T26" s="3">
         <v>0</v>
       </c>
@@ -1869,8 +1973,14 @@
       <c r="W26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1878,50 +1988,50 @@
         <v>-500</v>
       </c>
       <c r="E27" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H27" s="3">
         <v>-600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-2000</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-4800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-3500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-600</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
         <v>0</v>
       </c>
@@ -1934,8 +2044,14 @@
       <c r="W27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2115,14 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2186,14 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2257,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,47 +2328,53 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>500</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
+      <c r="J32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -2259,8 +2399,14 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2268,50 +2414,50 @@
         <v>-500</v>
       </c>
       <c r="E33" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H33" s="3">
         <v>-600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-2000</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-4800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-3500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-600</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
       <c r="T33" s="3">
         <v>0</v>
       </c>
@@ -2324,8 +2470,14 @@
       <c r="W33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,8 +2541,14 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2398,50 +2556,50 @@
         <v>-500</v>
       </c>
       <c r="E35" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H35" s="3">
         <v>-600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-2000</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-4800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-3500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-600</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
       <c r="T35" s="3">
         <v>0</v>
       </c>
@@ -2454,78 +2612,90 @@
       <c r="W35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2719,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,59 +2746,61 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>800</v>
+      </c>
+      <c r="F41" s="3">
         <v>600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
         <v>100</v>
       </c>
       <c r="N41" s="3">
+        <v>100</v>
+      </c>
+      <c r="O41" s="3">
+        <v>100</v>
+      </c>
+      <c r="P41" s="3">
         <v>1100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>2400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>100</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2639,8 +2813,14 @@
       <c r="W41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,8 +2884,14 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2727,38 +2913,38 @@
       <c r="I43" s="3">
         <v>0</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
+      <c r="J43" s="3">
+        <v>0</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>100</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
       <c r="P43" s="3">
         <v>0</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S43" s="3">
-        <v>0</v>
-      </c>
-      <c r="T43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U43" s="3">
         <v>0</v>
@@ -2769,29 +2955,35 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E44" s="3">
+        <v>400</v>
+      </c>
+      <c r="F44" s="3">
+        <v>600</v>
+      </c>
+      <c r="G44" s="3">
         <v>300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>100</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2804,11 +2996,11 @@
       <c r="M44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
-      </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
@@ -2834,56 +3026,62 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E45" s="3">
         <v>400</v>
       </c>
-      <c r="E45" s="3">
-        <v>200</v>
-      </c>
       <c r="F45" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G45" s="3">
         <v>200</v>
       </c>
       <c r="H45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J45" s="3">
         <v>300</v>
       </c>
       <c r="K45" s="3">
+        <v>300</v>
+      </c>
+      <c r="L45" s="3">
+        <v>300</v>
+      </c>
+      <c r="M45" s="3">
         <v>400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>100</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
       <c r="S45" s="3">
         <v>0</v>
       </c>
@@ -2899,59 +3097,65 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="E46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G46" s="3">
         <v>1100</v>
       </c>
-      <c r="F46" s="3">
-        <v>1200</v>
-      </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I46" s="3">
         <v>800</v>
-      </c>
-      <c r="H46" s="3">
-        <v>400</v>
-      </c>
-      <c r="I46" s="3">
-        <v>300</v>
       </c>
       <c r="J46" s="3">
         <v>400</v>
       </c>
       <c r="K46" s="3">
+        <v>300</v>
+      </c>
+      <c r="L46" s="3">
         <v>400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
+        <v>400</v>
+      </c>
+      <c r="N46" s="3">
         <v>1700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>2100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>3100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>100</v>
       </c>
-      <c r="R46" s="3">
-        <v>0</v>
-      </c>
-      <c r="S46" s="3">
-        <v>0</v>
-      </c>
       <c r="T46" s="3">
         <v>0</v>
       </c>
@@ -2964,8 +3168,14 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2978,14 +3188,14 @@
       <c r="F47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>400</v>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I47" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="J47" s="3">
         <v>400</v>
@@ -2994,23 +3204,23 @@
         <v>400</v>
       </c>
       <c r="L47" s="3">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M47" s="3">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="N47" s="3">
         <v>800</v>
       </c>
       <c r="O47" s="3">
+        <v>800</v>
+      </c>
+      <c r="P47" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q47" s="3">
         <v>400</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>4</v>
       </c>
@@ -3020,49 +3230,55 @@
       <c r="T47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U47" s="3">
-        <v>0</v>
-      </c>
-      <c r="V47" s="3">
-        <v>0</v>
+      <c r="U47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E48" s="3">
         <v>7200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
+        <v>7300</v>
+      </c>
+      <c r="G48" s="3">
         <v>6100</v>
       </c>
-      <c r="F48" s="3">
-        <v>5800</v>
-      </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
+        <v>5900</v>
+      </c>
+      <c r="J48" s="3">
         <v>3100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>3000</v>
-      </c>
-      <c r="L48" s="3">
-        <v>100</v>
-      </c>
-      <c r="M48" s="3">
-        <v>100</v>
       </c>
       <c r="N48" s="3">
         <v>100</v>
@@ -3074,13 +3290,13 @@
         <v>100</v>
       </c>
       <c r="Q48" s="3">
-        <v>0</v>
-      </c>
-      <c r="R48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S48" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="R48" s="3">
+        <v>100</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>4</v>
@@ -3094,29 +3310,35 @@
       <c r="W48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7300</v>
+        <v>4500</v>
       </c>
       <c r="E49" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F49" s="3">
+        <v>7400</v>
+      </c>
+      <c r="G49" s="3">
         <v>5700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>4500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>4500</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
@@ -3129,11 +3351,11 @@
       <c r="M49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
-      </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
@@ -3159,8 +3381,14 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3452,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,28 +3523,34 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>100</v>
+      </c>
+      <c r="F52" s="3">
         <v>200</v>
-      </c>
-      <c r="E52" s="3">
-        <v>300</v>
-      </c>
-      <c r="F52" s="3">
-        <v>300</v>
       </c>
       <c r="G52" s="3">
         <v>300</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
+      <c r="H52" s="3">
+        <v>300</v>
+      </c>
+      <c r="I52" s="3">
+        <v>300</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
@@ -3324,11 +3564,11 @@
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -3354,8 +3594,14 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,59 +3665,65 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>16200</v>
+        <v>14000</v>
       </c>
       <c r="E54" s="3">
-        <v>13100</v>
+        <v>13600</v>
       </c>
       <c r="F54" s="3">
-        <v>11800</v>
+        <v>16400</v>
       </c>
       <c r="G54" s="3">
+        <v>13200</v>
+      </c>
+      <c r="H54" s="3">
+        <v>11900</v>
+      </c>
+      <c r="I54" s="3">
         <v>11500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>3900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>3600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>3600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>3000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>3500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>200</v>
       </c>
-      <c r="R54" s="3">
-        <v>0</v>
-      </c>
-      <c r="S54" s="3">
-        <v>0</v>
-      </c>
       <c r="T54" s="3">
         <v>0</v>
       </c>
@@ -3484,8 +3736,14 @@
       <c r="W54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3767,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,52 +3794,54 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F57" s="3">
         <v>2200</v>
-      </c>
-      <c r="E57" s="3">
-        <v>2100</v>
-      </c>
-      <c r="F57" s="3">
-        <v>2100</v>
       </c>
       <c r="G57" s="3">
         <v>2200</v>
       </c>
       <c r="H57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J57" s="3">
         <v>1900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>200</v>
-      </c>
-      <c r="P57" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>100</v>
       </c>
       <c r="R57" s="3">
         <v>100</v>
@@ -3594,63 +3856,69 @@
         <v>100</v>
       </c>
       <c r="V57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E58" s="3">
         <v>2400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G58" s="3">
         <v>2000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>2100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>2100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>2300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>2000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>200</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
       </c>
       <c r="R58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="S58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="T58" s="3">
         <v>300</v>
@@ -3664,28 +3932,34 @@
       <c r="W58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>400</v>
+      </c>
+      <c r="F59" s="3">
         <v>100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>400</v>
       </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
+      <c r="I59" s="3">
+        <v>0</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>4</v>
@@ -3699,17 +3973,17 @@
       <c r="M59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
-      <c r="O59" s="3">
-        <v>0</v>
+      <c r="N59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R59" s="3">
         <v>100</v>
@@ -3729,58 +4003,64 @@
       <c r="W59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F60" s="3">
         <v>4700</v>
       </c>
-      <c r="E60" s="3">
-        <v>4900</v>
-      </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
+        <v>5000</v>
+      </c>
+      <c r="H60" s="3">
         <v>4600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>4300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>4200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>100</v>
-      </c>
-      <c r="R60" s="3">
-        <v>500</v>
-      </c>
-      <c r="S60" s="3">
-        <v>500</v>
       </c>
       <c r="T60" s="3">
         <v>500</v>
@@ -3789,49 +4069,55 @@
         <v>500</v>
       </c>
       <c r="V60" s="3">
+        <v>500</v>
+      </c>
+      <c r="W60" s="3">
+        <v>500</v>
+      </c>
+      <c r="X60" s="3">
         <v>400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2300</v>
+        <v>3900</v>
       </c>
       <c r="E61" s="3">
         <v>2300</v>
       </c>
       <c r="F61" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G61" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H61" s="3">
         <v>2100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>2300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>400</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3859,31 +4145,37 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -3924,8 +4216,14 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4287,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4358,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,58 +4429,64 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8200</v>
+        <v>9000</v>
       </c>
       <c r="E66" s="3">
-        <v>8400</v>
+        <v>8500</v>
       </c>
       <c r="F66" s="3">
-        <v>7200</v>
+        <v>8300</v>
       </c>
       <c r="G66" s="3">
+        <v>8500</v>
+      </c>
+      <c r="H66" s="3">
+        <v>7300</v>
+      </c>
+      <c r="I66" s="3">
         <v>7100</v>
       </c>
-      <c r="H66" s="3">
-        <v>5000</v>
-      </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
+        <v>5100</v>
+      </c>
+      <c r="K66" s="3">
         <v>4400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>100</v>
-      </c>
-      <c r="R66" s="3">
-        <v>500</v>
-      </c>
-      <c r="S66" s="3">
-        <v>500</v>
       </c>
       <c r="T66" s="3">
         <v>500</v>
@@ -4179,13 +4495,19 @@
         <v>500</v>
       </c>
       <c r="V66" s="3">
+        <v>500</v>
+      </c>
+      <c r="W66" s="3">
+        <v>500</v>
+      </c>
+      <c r="X66" s="3">
         <v>400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4531,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4598,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4669,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4740,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4811,85 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-20500</v>
+        <v>-23600</v>
       </c>
       <c r="E72" s="3">
-        <v>-20000</v>
+        <v>-22600</v>
       </c>
       <c r="F72" s="3">
-        <v>-19500</v>
+        <v>-20600</v>
       </c>
       <c r="G72" s="3">
-        <v>-18800</v>
+        <v>-20200</v>
       </c>
       <c r="H72" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-16800</v>
       </c>
-      <c r="I72" s="3">
-        <v>-16800</v>
-      </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-16000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-16200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-13400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-12500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-11200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-10000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-9800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-7200</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-6600</v>
-      </c>
-      <c r="S72" s="3">
-        <v>-6600</v>
       </c>
       <c r="T72" s="3">
         <v>-6600</v>
       </c>
       <c r="U72" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="V72" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="W72" s="3">
         <v>-6800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-6800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-6700</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4953,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +5024,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,64 +5095,70 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="E76" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F76" s="3">
+        <v>8100</v>
+      </c>
+      <c r="G76" s="3">
         <v>4700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>4600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>4400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-1100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>2100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>2700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>3300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>400</v>
       </c>
-      <c r="Q76" s="3">
-        <v>0</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
+        <v>0</v>
+      </c>
+      <c r="T76" s="3">
         <v>-500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-500</v>
-      </c>
-      <c r="T76" s="3">
-        <v>-400</v>
-      </c>
-      <c r="U76" s="3">
-        <v>-400</v>
       </c>
       <c r="V76" s="3">
         <v>-400</v>
@@ -4794,8 +5166,14 @@
       <c r="W76" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Y76" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,78 +5237,90 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4938,50 +5328,50 @@
         <v>-500</v>
       </c>
       <c r="E81" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H81" s="3">
         <v>-600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-2000</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-4800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-3500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-600</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
       <c r="T81" s="3">
         <v>0</v>
       </c>
@@ -4994,8 +5384,14 @@
       <c r="W81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,16 +5415,18 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F83" s="3">
         <v>100</v>
@@ -5037,10 +5435,10 @@
         <v>100</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
@@ -5063,11 +5461,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R83" s="3" t="s">
-        <v>4</v>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>4</v>
@@ -5084,8 +5482,14 @@
       <c r="W83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5553,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5624,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5695,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5766,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,59 +5837,65 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H89" s="3">
         <v>-100</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-400</v>
       </c>
       <c r="I89" s="3">
         <v>-200</v>
       </c>
       <c r="J89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-2400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
         <v>0</v>
       </c>
@@ -5474,8 +5908,14 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5939,10 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5513,11 +5955,11 @@
       <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
+      <c r="G91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-100</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>4</v>
@@ -5525,30 +5967,30 @@
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M91" s="3">
         <v>-2100</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>4</v>
       </c>
@@ -5564,8 +6006,14 @@
       <c r="W91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +6077,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,13 +6148,19 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-100</v>
+        <v>900</v>
       </c>
       <c r="E94" s="3">
         <v>-200</v>
@@ -5709,41 +6169,41 @@
         <v>-100</v>
       </c>
       <c r="G94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-2500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>4</v>
       </c>
@@ -5759,8 +6219,14 @@
       <c r="W94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6250,10 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6317,14 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6388,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6459,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,59 +6530,65 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>2300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>4200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
@@ -6109,32 +6601,38 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
@@ -6150,11 +6648,11 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q101" s="3" t="s">
-        <v>4</v>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
       </c>
       <c r="R101" s="3" t="s">
         <v>4</v>
@@ -6165,68 +6663,74 @@
       <c r="T101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
-      <c r="V101" s="3">
-        <v>0</v>
+      <c r="U101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E102" s="3">
+        <v>200</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>500</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-2600</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-1400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>2400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
         <v>0</v>
       </c>
@@ -6237,6 +6741,12 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LVRLF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LVRLF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
   <si>
     <t>LVRLF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,137 +665,140 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E8" s="3">
         <v>3000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>200</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
+      <c r="L8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -836,40 +839,43 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>100</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
+      <c r="M9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
@@ -886,8 +892,8 @@
       <c r="R9" s="3">
         <v>0</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>4</v>
+      <c r="S9" s="3">
+        <v>0</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>4</v>
@@ -907,40 +913,43 @@
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>700</v>
+      </c>
+      <c r="E10" s="3">
         <v>900</v>
-      </c>
-      <c r="E10" s="3">
-        <v>800</v>
       </c>
       <c r="F10" s="3">
         <v>800</v>
       </c>
       <c r="G10" s="3">
+        <v>800</v>
+      </c>
+      <c r="H10" s="3">
         <v>600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>100</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N10" s="3">
         <v>0</v>
@@ -957,8 +966,8 @@
       <c r="R10" s="3">
         <v>0</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>4</v>
+      <c r="S10" s="3">
+        <v>0</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>4</v>
@@ -978,8 +987,11 @@
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1076,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,19 +1163,22 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3">
         <v>200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>500</v>
-      </c>
-      <c r="F14" s="3">
-        <v>100</v>
       </c>
       <c r="G14" s="3">
         <v>100</v>
@@ -1171,43 +1190,43 @@
         <v>100</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>300</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3">
         <v>300</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>300</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>4</v>
@@ -1215,22 +1234,25 @@
       <c r="X14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>200</v>
+      </c>
+      <c r="E15" s="3">
         <v>300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>400</v>
-      </c>
-      <c r="F15" s="3">
-        <v>100</v>
       </c>
       <c r="G15" s="3">
         <v>100</v>
@@ -1242,10 +1264,10 @@
         <v>100</v>
       </c>
       <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>4</v>
@@ -1256,11 +1278,11 @@
       <c r="N15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>4</v>
+      <c r="O15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>4</v>
@@ -1268,11 +1290,11 @@
       <c r="R15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>4</v>
+      <c r="S15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
       </c>
       <c r="U15" s="3" t="s">
         <v>4</v>
@@ -1289,8 +1311,11 @@
       <c r="Y15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,62 +1338,63 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E17" s="3">
         <v>3400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1700</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
       <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
         <v>800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>600</v>
       </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
       <c r="U17" s="3">
         <v>0</v>
       </c>
@@ -1384,8 +1410,11 @@
       <c r="Y17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1393,53 +1422,53 @@
         <v>-400</v>
       </c>
       <c r="E18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-400</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-200</v>
       </c>
       <c r="H18" s="3">
         <v>-200</v>
       </c>
       <c r="I18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J18" s="3">
         <v>-1500</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3">
         <v>-600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-600</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
       <c r="U18" s="3">
         <v>0</v>
       </c>
@@ -1455,8 +1484,11 @@
       <c r="Y18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,37 +1514,38 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
+      <c r="L20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
@@ -1521,11 +1554,11 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1553,8 +1586,11 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1562,50 +1598,50 @@
         <v>-100</v>
       </c>
       <c r="E21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1800</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
       <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1700</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3">
         <v>-600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-4800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-3500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2700</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1624,8 +1660,11 @@
       <c r="Y21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1636,7 +1675,7 @@
         <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>200</v>
@@ -1645,10 +1684,10 @@
         <v>200</v>
       </c>
       <c r="I22" s="3">
+        <v>200</v>
+      </c>
+      <c r="J22" s="3">
         <v>400</v>
-      </c>
-      <c r="J22" s="3">
-        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
@@ -1660,19 +1699,19 @@
         <v>100</v>
       </c>
       <c r="N22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1680,8 +1719,8 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>4</v>
+      <c r="U22" s="3">
+        <v>0</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>4</v>
@@ -1689,14 +1728,17 @@
       <c r="W22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1704,53 +1746,53 @@
         <v>-500</v>
       </c>
       <c r="E23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2100</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-600</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
       <c r="U23" s="3">
         <v>0</v>
       </c>
@@ -1766,8 +1808,11 @@
       <c r="Y23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1775,11 +1820,11 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -1789,8 +1834,8 @@
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>4</v>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>4</v>
@@ -1807,8 +1852,8 @@
       <c r="O24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="P24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
@@ -1837,8 +1882,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,8 +1956,11 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1917,53 +1968,53 @@
         <v>-500</v>
       </c>
       <c r="E26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2100</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-600</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
       <c r="U26" s="3">
         <v>0</v>
       </c>
@@ -1979,8 +2030,11 @@
       <c r="Y26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1988,53 +2042,53 @@
         <v>-500</v>
       </c>
       <c r="E27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2500</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-500</v>
       </c>
       <c r="G27" s="3">
         <v>-500</v>
       </c>
       <c r="H27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2000</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-600</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
       <c r="U27" s="3">
         <v>0</v>
       </c>
@@ -2050,8 +2104,11 @@
       <c r="Y27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2192,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,37 +2400,40 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
+      <c r="L32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
@@ -2373,11 +2442,11 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -2405,8 +2474,11 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2414,53 +2486,53 @@
         <v>-500</v>
       </c>
       <c r="E33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2500</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-500</v>
       </c>
       <c r="G33" s="3">
         <v>-500</v>
       </c>
       <c r="H33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2000</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-600</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
       <c r="U33" s="3">
         <v>0</v>
       </c>
@@ -2476,8 +2548,11 @@
       <c r="Y33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,8 +2622,11 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2556,53 +2634,53 @@
         <v>-500</v>
       </c>
       <c r="E35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2500</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-500</v>
       </c>
       <c r="G35" s="3">
         <v>-500</v>
       </c>
       <c r="H35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2000</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-600</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
       <c r="U35" s="3">
         <v>0</v>
       </c>
@@ -2618,84 +2696,90 @@
       <c r="Y35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,40 +2833,41 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>700</v>
+      </c>
+      <c r="E41" s="3">
         <v>500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>800</v>
-      </c>
-      <c r="F41" s="3">
-        <v>600</v>
       </c>
       <c r="G41" s="3">
         <v>600</v>
       </c>
       <c r="H41" s="3">
+        <v>600</v>
+      </c>
+      <c r="I41" s="3">
         <v>900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
         <v>100</v>
@@ -2790,20 +2876,20 @@
         <v>100</v>
       </c>
       <c r="P41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
         <v>1100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>100</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2819,8 +2905,11 @@
       <c r="Y41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2890,8 +2979,11 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2919,20 +3011,20 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
         <v>100</v>
       </c>
       <c r="P43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -2940,14 +3032,14 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
+      <c r="S43" s="3">
+        <v>0</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U43" s="3">
-        <v>0</v>
+      <c r="U43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V43" s="3">
         <v>0</v>
@@ -2961,32 +3053,35 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>400</v>
+      </c>
+      <c r="E44" s="3">
         <v>600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>100</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>4</v>
       </c>
@@ -3002,8 +3097,8 @@
       <c r="O44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
+      <c r="P44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
@@ -3032,8 +3127,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3041,13 +3139,13 @@
         <v>1300</v>
       </c>
       <c r="E45" s="3">
-        <v>400</v>
+        <v>1300</v>
       </c>
       <c r="F45" s="3">
         <v>400</v>
       </c>
       <c r="G45" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="H45" s="3">
         <v>200</v>
@@ -3056,7 +3154,7 @@
         <v>200</v>
       </c>
       <c r="J45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K45" s="3">
         <v>300</v>
@@ -3065,26 +3163,26 @@
         <v>300</v>
       </c>
       <c r="M45" s="3">
+        <v>300</v>
+      </c>
+      <c r="N45" s="3">
         <v>400</v>
-      </c>
-      <c r="N45" s="3">
-        <v>1500</v>
       </c>
       <c r="O45" s="3">
         <v>1500</v>
       </c>
       <c r="P45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q45" s="3">
         <v>1000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>100</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
       <c r="T45" s="3">
         <v>0</v>
       </c>
@@ -3103,62 +3201,65 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E46" s="3">
         <v>2400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>300</v>
-      </c>
-      <c r="L46" s="3">
-        <v>400</v>
       </c>
       <c r="M46" s="3">
         <v>400</v>
       </c>
       <c r="N46" s="3">
-        <v>1700</v>
+        <v>400</v>
       </c>
       <c r="O46" s="3">
         <v>1700</v>
       </c>
       <c r="P46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Q46" s="3">
         <v>2100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>100</v>
       </c>
-      <c r="T46" s="3">
-        <v>0</v>
-      </c>
       <c r="U46" s="3">
         <v>0</v>
       </c>
@@ -3174,8 +3275,11 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3194,11 +3298,11 @@
       <c r="H47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I47" s="3">
-        <v>0</v>
+      <c r="I47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J47" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="K47" s="3">
         <v>400</v>
@@ -3210,7 +3314,7 @@
         <v>400</v>
       </c>
       <c r="N47" s="3">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="O47" s="3">
         <v>800</v>
@@ -3219,11 +3323,11 @@
         <v>800</v>
       </c>
       <c r="Q47" s="3">
+        <v>800</v>
+      </c>
+      <c r="R47" s="3">
         <v>400</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S47" s="3" t="s">
         <v>4</v>
       </c>
@@ -3236,8 +3340,8 @@
       <c r="V47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W47" s="3">
-        <v>0</v>
+      <c r="W47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X47" s="3">
         <v>0</v>
@@ -3245,43 +3349,46 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E48" s="3">
         <v>7000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6100</v>
-      </c>
-      <c r="H48" s="3">
-        <v>5900</v>
       </c>
       <c r="I48" s="3">
         <v>5900</v>
       </c>
       <c r="J48" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K48" s="3">
         <v>3100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3000</v>
-      </c>
-      <c r="N48" s="3">
-        <v>100</v>
       </c>
       <c r="O48" s="3">
         <v>100</v>
@@ -3296,10 +3403,10 @@
         <v>100</v>
       </c>
       <c r="S48" s="3">
-        <v>0</v>
-      </c>
-      <c r="T48" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="T48" s="3">
+        <v>0</v>
       </c>
       <c r="U48" s="3" t="s">
         <v>4</v>
@@ -3316,8 +3423,11 @@
       <c r="Y48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3325,22 +3435,22 @@
         <v>4500</v>
       </c>
       <c r="E49" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F49" s="3">
         <v>4600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>7400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>5700</v>
-      </c>
-      <c r="H49" s="3">
-        <v>4500</v>
       </c>
       <c r="I49" s="3">
         <v>4500</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
+      <c r="J49" s="3">
+        <v>4500</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>4</v>
@@ -3357,8 +3467,8 @@
       <c r="O49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="P49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -3387,8 +3497,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,22 +3645,25 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>100</v>
+      <c r="D52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E52" s="3">
         <v>100</v>
       </c>
       <c r="F52" s="3">
+        <v>100</v>
+      </c>
+      <c r="G52" s="3">
         <v>200</v>
-      </c>
-      <c r="G52" s="3">
-        <v>300</v>
       </c>
       <c r="H52" s="3">
         <v>300</v>
@@ -3552,8 +3671,8 @@
       <c r="I52" s="3">
         <v>300</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
+      <c r="J52" s="3">
+        <v>300</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>4</v>
@@ -3570,8 +3689,8 @@
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -3600,8 +3719,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,62 +3793,65 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E54" s="3">
         <v>14000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>13600</v>
       </c>
-      <c r="F54" s="3">
-        <v>16400</v>
-      </c>
       <c r="G54" s="3">
+        <v>16300</v>
+      </c>
+      <c r="H54" s="3">
         <v>13200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>11900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>11500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3900</v>
-      </c>
-      <c r="K54" s="3">
-        <v>3600</v>
       </c>
       <c r="L54" s="3">
         <v>3600</v>
       </c>
       <c r="M54" s="3">
+        <v>3600</v>
+      </c>
+      <c r="N54" s="3">
         <v>3900</v>
-      </c>
-      <c r="N54" s="3">
-        <v>2600</v>
       </c>
       <c r="O54" s="3">
         <v>2600</v>
       </c>
       <c r="P54" s="3">
+        <v>2600</v>
+      </c>
+      <c r="Q54" s="3">
         <v>3000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>200</v>
       </c>
-      <c r="T54" s="3">
-        <v>0</v>
-      </c>
       <c r="U54" s="3">
         <v>0</v>
       </c>
@@ -3742,8 +3867,11 @@
       <c r="Y54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,8 +3925,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3808,7 +3938,7 @@
         <v>2600</v>
       </c>
       <c r="F57" s="3">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="G57" s="3">
         <v>2200</v>
@@ -3820,31 +3950,31 @@
         <v>2200</v>
       </c>
       <c r="J57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K57" s="3">
         <v>1900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>200</v>
-      </c>
-      <c r="R57" s="3">
-        <v>100</v>
       </c>
       <c r="S57" s="3">
         <v>100</v>
@@ -3862,57 +3992,60 @@
         <v>100</v>
       </c>
       <c r="X57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E58" s="3">
         <v>1400</v>
-      </c>
-      <c r="E58" s="3">
-        <v>2400</v>
       </c>
       <c r="F58" s="3">
         <v>2400</v>
       </c>
       <c r="G58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H58" s="3">
         <v>2000</v>
-      </c>
-      <c r="H58" s="3">
-        <v>2100</v>
       </c>
       <c r="I58" s="3">
         <v>2100</v>
       </c>
       <c r="J58" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K58" s="3">
         <v>2300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>200</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -3921,7 +4054,7 @@
         <v>0</v>
       </c>
       <c r="T58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="U58" s="3">
         <v>300</v>
@@ -3938,8 +4071,11 @@
       <c r="Y58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3947,22 +4083,22 @@
         <v>300</v>
       </c>
       <c r="E59" s="3">
+        <v>300</v>
+      </c>
+      <c r="F59" s="3">
         <v>400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>400</v>
       </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
+      <c r="J59" s="3">
+        <v>0</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>4</v>
@@ -3979,14 +4115,14 @@
       <c r="O59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
+      <c r="P59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
       </c>
       <c r="R59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S59" s="3">
         <v>100</v>
@@ -4009,61 +4145,64 @@
       <c r="Y59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E60" s="3">
         <v>4200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4700</v>
       </c>
-      <c r="G60" s="3">
-        <v>5000</v>
-      </c>
       <c r="H60" s="3">
+        <v>4900</v>
+      </c>
+      <c r="I60" s="3">
         <v>4600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>300</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>200</v>
       </c>
       <c r="R60" s="3">
         <v>200</v>
       </c>
       <c r="S60" s="3">
+        <v>200</v>
+      </c>
+      <c r="T60" s="3">
         <v>100</v>
-      </c>
-      <c r="T60" s="3">
-        <v>500</v>
       </c>
       <c r="U60" s="3">
         <v>500</v>
@@ -4075,52 +4214,55 @@
         <v>500</v>
       </c>
       <c r="X60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Y60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E61" s="3">
         <v>3900</v>
-      </c>
-      <c r="E61" s="3">
-        <v>2300</v>
       </c>
       <c r="F61" s="3">
         <v>2300</v>
       </c>
       <c r="G61" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H61" s="3">
         <v>2400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>400</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -4151,8 +4293,11 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4162,8 +4307,8 @@
       <c r="E62" s="3">
         <v>200</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
+      <c r="F62" s="3">
+        <v>200</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>4</v>
@@ -4177,8 +4322,8 @@
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -4222,8 +4367,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,61 +4589,64 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9000</v>
+        <v>9400</v>
       </c>
       <c r="E66" s="3">
+        <v>8900</v>
+      </c>
+      <c r="F66" s="3">
         <v>8500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>300</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>200</v>
       </c>
       <c r="R66" s="3">
         <v>200</v>
       </c>
       <c r="S66" s="3">
+        <v>200</v>
+      </c>
+      <c r="T66" s="3">
         <v>100</v>
-      </c>
-      <c r="T66" s="3">
-        <v>500</v>
       </c>
       <c r="U66" s="3">
         <v>500</v>
@@ -4501,13 +4658,16 @@
         <v>500</v>
       </c>
       <c r="X66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Y66" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,61 +4987,64 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-24200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-23600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-22600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-20600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-20200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-19700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-19000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-16900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-16800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-16000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-16200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-13400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-12500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-11200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-10000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-9800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-7200</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-6600</v>
       </c>
       <c r="U72" s="3">
         <v>-6600</v>
@@ -4880,16 +5053,19 @@
         <v>-6600</v>
       </c>
       <c r="W72" s="3">
-        <v>-6800</v>
+        <v>-6600</v>
       </c>
       <c r="X72" s="3">
         <v>-6800</v>
       </c>
       <c r="Y72" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="Z72" s="3">
         <v>-6700</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,67 +5283,70 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E76" s="3">
         <v>5000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>400</v>
       </c>
-      <c r="S76" s="3">
-        <v>0</v>
-      </c>
       <c r="T76" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="U76" s="3">
         <v>-500</v>
       </c>
       <c r="V76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="W76" s="3">
         <v>-400</v>
@@ -5172,8 +5357,11 @@
       <c r="Y76" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,84 +5431,90 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5328,53 +5522,53 @@
         <v>-500</v>
       </c>
       <c r="E81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2500</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-500</v>
       </c>
       <c r="G81" s="3">
         <v>-500</v>
       </c>
       <c r="H81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2000</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-600</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
       <c r="U81" s="3">
         <v>0</v>
       </c>
@@ -5390,8 +5584,11 @@
       <c r="Y81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,19 +5614,20 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>200</v>
+      </c>
+      <c r="E83" s="3">
         <v>300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>400</v>
-      </c>
-      <c r="F83" s="3">
-        <v>100</v>
       </c>
       <c r="G83" s="3">
         <v>100</v>
@@ -5441,7 +5639,7 @@
         <v>100</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -5467,8 +5665,8 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>4</v>
+      <c r="S83" s="3">
+        <v>0</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>4</v>
@@ -5488,8 +5686,11 @@
       <c r="Y83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,62 +6056,65 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>500</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-300</v>
       </c>
       <c r="G89" s="3">
         <v>-300</v>
       </c>
       <c r="H89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
         <v>0</v>
       </c>
@@ -5914,8 +6130,11 @@
       <c r="Y89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,8 +6160,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5950,20 +6170,20 @@
         <v>-100</v>
       </c>
       <c r="E91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
@@ -5973,26 +6193,26 @@
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N91" s="3">
         <v>-2100</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q91" s="3">
-        <v>-100</v>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
+      <c r="S91" s="3">
+        <v>-100</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>4</v>
@@ -6012,8 +6232,11 @@
       <c r="Y91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,31 +6380,34 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E94" s="3">
         <v>900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-200</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-100</v>
       </c>
       <c r="I94" s="3">
         <v>-100</v>
       </c>
       <c r="J94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -6187,26 +6416,26 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-2500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-400</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-900</v>
       </c>
       <c r="Q94" s="3">
         <v>-900</v>
       </c>
       <c r="R94" s="3">
+        <v>-900</v>
+      </c>
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T94" s="3" t="s">
         <v>4</v>
       </c>
@@ -6225,8 +6454,11 @@
       <c r="Y94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,62 +6778,65 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-400</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
-      </c>
-      <c r="H100" s="3">
-        <v>600</v>
       </c>
       <c r="I100" s="3">
         <v>600</v>
       </c>
       <c r="J100" s="3">
+        <v>600</v>
+      </c>
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>4200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>200</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
@@ -6607,20 +6852,23 @@
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
@@ -6628,14 +6876,14 @@
         <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
@@ -6654,8 +6902,8 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>4</v>
+      <c r="R101" s="3">
+        <v>0</v>
       </c>
       <c r="S101" s="3" t="s">
         <v>4</v>
@@ -6669,8 +6917,8 @@
       <c r="V101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
+      <c r="W101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X101" s="3">
         <v>0</v>
@@ -6678,32 +6926,35 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>200</v>
+      </c>
+      <c r="E102" s="3">
         <v>500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>500</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
@@ -6711,29 +6962,29 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-2600</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>100</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
         <v>0</v>
       </c>
@@ -6747,6 +6998,9 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LVRLF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LVRLF_QTR_FIN.xlsx
@@ -777,16 +777,16 @@
         <v>2700</v>
       </c>
       <c r="E8" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="F8" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="G8" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="H8" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="I8" s="3">
         <v>1400</v>
@@ -857,10 +857,10 @@
         <v>1800</v>
       </c>
       <c r="G9" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="H9" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="I9" s="3">
         <v>900</v>
@@ -1249,7 +1249,7 @@
         <v>200</v>
       </c>
       <c r="E15" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F15" s="3">
         <v>400</v>
@@ -1345,16 +1345,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="E17" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="F17" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="G17" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="H17" s="3">
         <v>2100</v>
@@ -1363,7 +1363,7 @@
         <v>1600</v>
       </c>
       <c r="J17" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="K17" s="3">
         <v>0</v>
@@ -1428,7 +1428,7 @@
         <v>-1700</v>
       </c>
       <c r="G18" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="H18" s="3">
         <v>-200</v>
@@ -1527,7 +1527,7 @@
         <v>100</v>
       </c>
       <c r="F20" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="G20" s="3">
         <v>200</v>
@@ -1601,7 +1601,7 @@
         <v>-100</v>
       </c>
       <c r="F21" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="G21" s="3">
         <v>0</v>
@@ -1610,10 +1610,10 @@
         <v>-100</v>
       </c>
       <c r="I21" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="J21" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
@@ -1971,7 +1971,7 @@
         <v>-500</v>
       </c>
       <c r="F26" s="3">
-        <v>-2600</v>
+        <v>-2500</v>
       </c>
       <c r="G26" s="3">
         <v>-300</v>
@@ -1983,7 +1983,7 @@
         <v>-500</v>
       </c>
       <c r="J26" s="3">
-        <v>-2100</v>
+        <v>-2000</v>
       </c>
       <c r="K26" s="3">
         <v>0</v>
@@ -2045,7 +2045,7 @@
         <v>-500</v>
       </c>
       <c r="F27" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="G27" s="3">
         <v>-500</v>
@@ -2415,7 +2415,7 @@
         <v>-100</v>
       </c>
       <c r="F32" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G32" s="3">
         <v>-200</v>
@@ -2489,7 +2489,7 @@
         <v>-500</v>
       </c>
       <c r="F33" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="G33" s="3">
         <v>-500</v>
@@ -2637,7 +2637,7 @@
         <v>-500</v>
       </c>
       <c r="F35" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="G35" s="3">
         <v>-500</v>
@@ -2855,7 +2855,7 @@
         <v>600</v>
       </c>
       <c r="I41" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="J41" s="3">
         <v>500</v>
@@ -3071,7 +3071,7 @@
         <v>400</v>
       </c>
       <c r="G44" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H44" s="3">
         <v>300</v>
@@ -3136,7 +3136,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="E45" s="3">
         <v>1300</v>
@@ -3210,22 +3210,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="E46" s="3">
         <v>2400</v>
       </c>
       <c r="F46" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="G46" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="H46" s="3">
         <v>1100</v>
       </c>
       <c r="I46" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="J46" s="3">
         <v>800</v>
@@ -3358,25 +3358,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6900</v>
+        <v>6700</v>
       </c>
       <c r="E48" s="3">
-        <v>7000</v>
+        <v>6800</v>
       </c>
       <c r="F48" s="3">
-        <v>7200</v>
+        <v>7100</v>
       </c>
       <c r="G48" s="3">
-        <v>7300</v>
+        <v>7100</v>
       </c>
       <c r="H48" s="3">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="I48" s="3">
-        <v>5900</v>
+        <v>5700</v>
       </c>
       <c r="J48" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="K48" s="3">
         <v>3100</v>
@@ -3432,25 +3432,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E49" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F49" s="3">
         <v>4500</v>
       </c>
-      <c r="E49" s="3">
-        <v>4500</v>
-      </c>
-      <c r="F49" s="3">
-        <v>4600</v>
-      </c>
       <c r="G49" s="3">
-        <v>7400</v>
+        <v>7200</v>
       </c>
       <c r="H49" s="3">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="I49" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="J49" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>4</v>
@@ -3666,10 +3666,10 @@
         <v>200</v>
       </c>
       <c r="H52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J52" s="3">
         <v>300</v>
@@ -3802,25 +3802,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13800</v>
+        <v>13500</v>
       </c>
       <c r="E54" s="3">
-        <v>14000</v>
+        <v>13600</v>
       </c>
       <c r="F54" s="3">
-        <v>13600</v>
+        <v>13200</v>
       </c>
       <c r="G54" s="3">
-        <v>16300</v>
+        <v>16000</v>
       </c>
       <c r="H54" s="3">
-        <v>13200</v>
+        <v>12900</v>
       </c>
       <c r="I54" s="3">
-        <v>11900</v>
+        <v>11600</v>
       </c>
       <c r="J54" s="3">
-        <v>11500</v>
+        <v>11300</v>
       </c>
       <c r="K54" s="3">
         <v>3900</v>
@@ -3932,25 +3932,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="E57" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="F57" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="G57" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="H57" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="I57" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="J57" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="K57" s="3">
         <v>1900</v>
@@ -4009,10 +4009,10 @@
         <v>1900</v>
       </c>
       <c r="E58" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="F58" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="G58" s="3">
         <v>2400</v>
@@ -4021,7 +4021,7 @@
         <v>2000</v>
       </c>
       <c r="I58" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="J58" s="3">
         <v>2100</v>
@@ -4092,7 +4092,7 @@
         <v>100</v>
       </c>
       <c r="H59" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="I59" s="3">
         <v>400</v>
@@ -4154,25 +4154,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F60" s="3">
+        <v>5300</v>
+      </c>
+      <c r="G60" s="3">
+        <v>4600</v>
+      </c>
+      <c r="H60" s="3">
         <v>4800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="I60" s="3">
+        <v>4500</v>
+      </c>
+      <c r="J60" s="3">
         <v>4200</v>
-      </c>
-      <c r="F60" s="3">
-        <v>5400</v>
-      </c>
-      <c r="G60" s="3">
-        <v>4700</v>
-      </c>
-      <c r="H60" s="3">
-        <v>4900</v>
-      </c>
-      <c r="I60" s="3">
-        <v>4600</v>
-      </c>
-      <c r="J60" s="3">
-        <v>4300</v>
       </c>
       <c r="K60" s="3">
         <v>4200</v>
@@ -4228,25 +4228,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E61" s="3">
         <v>3800</v>
       </c>
-      <c r="E61" s="3">
-        <v>3900</v>
-      </c>
       <c r="F61" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="G61" s="3">
         <v>2300</v>
       </c>
       <c r="H61" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="I61" s="3">
         <v>2100</v>
       </c>
       <c r="J61" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="K61" s="3">
         <v>800</v>
@@ -4302,7 +4302,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E62" s="3">
         <v>200</v>
@@ -4598,25 +4598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9400</v>
+        <v>9200</v>
       </c>
       <c r="E66" s="3">
-        <v>8900</v>
+        <v>8700</v>
       </c>
       <c r="F66" s="3">
-        <v>8500</v>
+        <v>8300</v>
       </c>
       <c r="G66" s="3">
+        <v>8100</v>
+      </c>
+      <c r="H66" s="3">
         <v>8300</v>
       </c>
-      <c r="H66" s="3">
-        <v>8500</v>
-      </c>
       <c r="I66" s="3">
-        <v>7300</v>
+        <v>7100</v>
       </c>
       <c r="J66" s="3">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="K66" s="3">
         <v>5100</v>
@@ -4996,25 +4996,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-24200</v>
+        <v>-23600</v>
       </c>
       <c r="E72" s="3">
-        <v>-23600</v>
+        <v>-23100</v>
       </c>
       <c r="F72" s="3">
-        <v>-22600</v>
+        <v>-22100</v>
       </c>
       <c r="G72" s="3">
-        <v>-20600</v>
+        <v>-20100</v>
       </c>
       <c r="H72" s="3">
-        <v>-20200</v>
+        <v>-19700</v>
       </c>
       <c r="I72" s="3">
-        <v>-19700</v>
+        <v>-19200</v>
       </c>
       <c r="J72" s="3">
-        <v>-19000</v>
+        <v>-18500</v>
       </c>
       <c r="K72" s="3">
         <v>-16900</v>
@@ -5292,25 +5292,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="E76" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F76" s="3">
         <v>5000</v>
       </c>
-      <c r="F76" s="3">
-        <v>5100</v>
-      </c>
       <c r="G76" s="3">
-        <v>8100</v>
+        <v>7900</v>
       </c>
       <c r="H76" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="I76" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="J76" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="K76" s="3">
         <v>-1100</v>
@@ -5525,7 +5525,7 @@
         <v>-500</v>
       </c>
       <c r="F81" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="G81" s="3">
         <v>-500</v>
@@ -5624,7 +5624,7 @@
         <v>200</v>
       </c>
       <c r="E83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F83" s="3">
         <v>400</v>
@@ -6077,7 +6077,7 @@
         <v>-300</v>
       </c>
       <c r="H89" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
@@ -6389,10 +6389,10 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="E94" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F94" s="3">
         <v>-200</v>
@@ -6796,7 +6796,7 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H100" s="3">
         <v>200</v>
@@ -6950,10 +6950,10 @@
         <v>-300</v>
       </c>
       <c r="I102" s="3">
+        <v>300</v>
+      </c>
+      <c r="J102" s="3">
         <v>400</v>
-      </c>
-      <c r="J102" s="3">
-        <v>500</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>

--- a/AAII_Financials/Quarterly/LVRLF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LVRLF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="92">
   <si>
     <t>LVRLF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,147 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E8" s="3">
         <v>2700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2900</v>
       </c>
-      <c r="F8" s="3">
-        <v>2500</v>
-      </c>
       <c r="G8" s="3">
-        <v>2100</v>
+        <v>2600</v>
       </c>
       <c r="H8" s="3">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J8" s="3">
         <v>1400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>200</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
+      <c r="M8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -842,43 +846,46 @@
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E9" s="3">
         <v>2000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1800</v>
       </c>
-      <c r="G9" s="3">
-        <v>1300</v>
-      </c>
       <c r="H9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I9" s="3">
         <v>1200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>100</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
+      <c r="N9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O9" s="3">
         <v>0</v>
@@ -895,8 +902,8 @@
       <c r="S9" s="3">
         <v>0</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>4</v>
+      <c r="T9" s="3">
+        <v>0</v>
       </c>
       <c r="U9" s="3" t="s">
         <v>4</v>
@@ -916,43 +923,46 @@
       <c r="Z9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>800</v>
+      </c>
+      <c r="E10" s="3">
         <v>700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>900</v>
-      </c>
-      <c r="F10" s="3">
-        <v>800</v>
       </c>
       <c r="G10" s="3">
         <v>800</v>
       </c>
       <c r="H10" s="3">
+        <v>800</v>
+      </c>
+      <c r="I10" s="3">
         <v>600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>100</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
+      <c r="N10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O10" s="3">
         <v>0</v>
@@ -969,8 +979,8 @@
       <c r="S10" s="3">
         <v>0</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>4</v>
+      <c r="T10" s="3">
+        <v>0</v>
       </c>
       <c r="U10" s="3" t="s">
         <v>4</v>
@@ -990,8 +1000,11 @@
       <c r="Z10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1175,13 +1195,13 @@
         <v>100</v>
       </c>
       <c r="E14" s="3">
+        <v>100</v>
+      </c>
+      <c r="F14" s="3">
         <v>200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>500</v>
-      </c>
-      <c r="G14" s="3">
-        <v>100</v>
       </c>
       <c r="H14" s="3">
         <v>100</v>
@@ -1193,43 +1213,43 @@
         <v>100</v>
       </c>
       <c r="K14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>300</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
         <v>300</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>300</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>4</v>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>4</v>
@@ -1237,25 +1257,28 @@
       <c r="Y14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E15" s="3">
         <v>200</v>
       </c>
       <c r="F15" s="3">
+        <v>300</v>
+      </c>
+      <c r="G15" s="3">
         <v>400</v>
-      </c>
-      <c r="G15" s="3">
-        <v>100</v>
       </c>
       <c r="H15" s="3">
         <v>100</v>
@@ -1267,10 +1290,10 @@
         <v>100</v>
       </c>
       <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>4</v>
@@ -1281,11 +1304,11 @@
       <c r="O15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>4</v>
+      <c r="P15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>4</v>
@@ -1293,11 +1316,11 @@
       <c r="S15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>4</v>
+      <c r="T15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
       </c>
       <c r="V15" s="3" t="s">
         <v>4</v>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,65 +1365,66 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="E17" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F17" s="3">
         <v>3300</v>
       </c>
-      <c r="F17" s="3">
-        <v>4200</v>
-      </c>
       <c r="G17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="H17" s="3">
         <v>2500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2100</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1600</v>
       </c>
       <c r="J17" s="3">
         <v>1600</v>
       </c>
       <c r="K17" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
         <v>800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>600</v>
       </c>
-      <c r="U17" s="3">
-        <v>0</v>
-      </c>
       <c r="V17" s="3">
         <v>0</v>
       </c>
@@ -1413,65 +1440,68 @@
       <c r="Z17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-400</v>
+        <v>-700</v>
       </c>
       <c r="E18" s="3">
         <v>-400</v>
       </c>
       <c r="F18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1700</v>
       </c>
-      <c r="G18" s="3">
-        <v>-300</v>
-      </c>
       <c r="H18" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="I18" s="3">
         <v>-200</v>
       </c>
       <c r="J18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1500</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="3">
         <v>-600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-4700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-600</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
       <c r="V18" s="3">
         <v>0</v>
       </c>
@@ -1487,8 +1517,11 @@
       <c r="Z18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,40 +1548,41 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
+      <c r="M20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
@@ -1557,11 +1591,11 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
@@ -1589,62 +1623,65 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E21" s="3">
         <v>-100</v>
       </c>
       <c r="F21" s="3">
-        <v>-1700</v>
+        <v>-100</v>
       </c>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="H21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I21" s="3">
         <v>-100</v>
       </c>
       <c r="J21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-1600</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3">
         <v>-600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-4800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-3500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2700</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1663,13 +1700,16 @@
       <c r="Z21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
@@ -1678,7 +1718,7 @@
         <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>200</v>
@@ -1687,10 +1727,10 @@
         <v>200</v>
       </c>
       <c r="J22" s="3">
+        <v>200</v>
+      </c>
+      <c r="K22" s="3">
         <v>400</v>
-      </c>
-      <c r="K22" s="3">
-        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
@@ -1702,19 +1742,19 @@
         <v>100</v>
       </c>
       <c r="O22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>4</v>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1722,8 +1762,8 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>4</v>
+      <c r="V22" s="3">
+        <v>0</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>4</v>
@@ -1731,71 +1771,74 @@
       <c r="X22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-500</v>
+        <v>-800</v>
       </c>
       <c r="E23" s="3">
         <v>-500</v>
       </c>
       <c r="F23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G23" s="3">
         <v>-2300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2100</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-600</v>
       </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
       <c r="V23" s="3">
         <v>0</v>
       </c>
@@ -1811,8 +1854,11 @@
       <c r="Z23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1823,11 +1869,11 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -1837,8 +1883,8 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>4</v>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>4</v>
@@ -1855,8 +1901,8 @@
       <c r="P24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
+      <c r="Q24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
@@ -1885,8 +1931,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,65 +2008,68 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-500</v>
+        <v>-800</v>
       </c>
       <c r="E26" s="3">
         <v>-500</v>
       </c>
       <c r="F26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G26" s="3">
         <v>-2500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2000</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-600</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
       <c r="V26" s="3">
         <v>0</v>
       </c>
@@ -2033,65 +2085,68 @@
       <c r="Z26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-500</v>
+        <v>-800</v>
       </c>
       <c r="E27" s="3">
         <v>-500</v>
       </c>
       <c r="F27" s="3">
-        <v>-2400</v>
+        <v>-500</v>
       </c>
       <c r="G27" s="3">
-        <v>-500</v>
+        <v>-2500</v>
       </c>
       <c r="H27" s="3">
         <v>-500</v>
       </c>
       <c r="I27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2000</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-600</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
       <c r="V27" s="3">
         <v>0</v>
       </c>
@@ -2107,8 +2162,11 @@
       <c r="Z27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,40 +2470,43 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
+      <c r="M32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
@@ -2445,11 +2515,11 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
@@ -2477,65 +2547,68 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-500</v>
+        <v>-800</v>
       </c>
       <c r="E33" s="3">
         <v>-500</v>
       </c>
       <c r="F33" s="3">
-        <v>-2400</v>
+        <v>-500</v>
       </c>
       <c r="G33" s="3">
-        <v>-500</v>
+        <v>-2500</v>
       </c>
       <c r="H33" s="3">
         <v>-500</v>
       </c>
       <c r="I33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2000</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-600</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
       <c r="V33" s="3">
         <v>0</v>
       </c>
@@ -2551,8 +2624,11 @@
       <c r="Z33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,65 +2701,68 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-500</v>
+        <v>-800</v>
       </c>
       <c r="E35" s="3">
         <v>-500</v>
       </c>
       <c r="F35" s="3">
-        <v>-2400</v>
+        <v>-500</v>
       </c>
       <c r="G35" s="3">
-        <v>-500</v>
+        <v>-2500</v>
       </c>
       <c r="H35" s="3">
         <v>-500</v>
       </c>
       <c r="I35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2000</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-600</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
       <c r="V35" s="3">
         <v>0</v>
       </c>
@@ -2699,87 +2778,93 @@
       <c r="Z35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,8 +2920,9 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2843,34 +2930,34 @@
         <v>700</v>
       </c>
       <c r="E41" s="3">
+        <v>700</v>
+      </c>
+      <c r="F41" s="3">
         <v>500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>800</v>
-      </c>
-      <c r="G41" s="3">
-        <v>600</v>
       </c>
       <c r="H41" s="3">
         <v>600</v>
       </c>
       <c r="I41" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="J41" s="3">
+        <v>900</v>
+      </c>
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
         <v>100</v>
@@ -2879,20 +2966,20 @@
         <v>100</v>
       </c>
       <c r="Q41" s="3">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3">
         <v>1100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>100</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2908,8 +2995,11 @@
       <c r="Z41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,13 +3072,16 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -3014,20 +3107,20 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P43" s="3">
         <v>100</v>
       </c>
       <c r="Q43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
@@ -3035,14 +3128,14 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>4</v>
+      <c r="T43" s="3">
+        <v>0</v>
       </c>
       <c r="U43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V43" s="3">
-        <v>0</v>
+      <c r="V43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W43" s="3">
         <v>0</v>
@@ -3056,35 +3149,38 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>500</v>
+      </c>
+      <c r="E44" s="3">
         <v>400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>100</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>4</v>
       </c>
@@ -3100,8 +3196,8 @@
       <c r="P44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q44" s="3">
-        <v>0</v>
+      <c r="Q44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
@@ -3130,8 +3226,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3142,13 +3241,13 @@
         <v>1300</v>
       </c>
       <c r="F45" s="3">
-        <v>400</v>
+        <v>1300</v>
       </c>
       <c r="G45" s="3">
         <v>400</v>
       </c>
       <c r="H45" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="I45" s="3">
         <v>200</v>
@@ -3157,7 +3256,7 @@
         <v>200</v>
       </c>
       <c r="K45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L45" s="3">
         <v>300</v>
@@ -3166,26 +3265,26 @@
         <v>300</v>
       </c>
       <c r="N45" s="3">
+        <v>300</v>
+      </c>
+      <c r="O45" s="3">
         <v>400</v>
-      </c>
-      <c r="O45" s="3">
-        <v>1500</v>
       </c>
       <c r="P45" s="3">
         <v>1500</v>
       </c>
       <c r="Q45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R45" s="3">
         <v>1000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>100</v>
       </c>
-      <c r="T45" s="3">
-        <v>0</v>
-      </c>
       <c r="U45" s="3">
         <v>0</v>
       </c>
@@ -3204,65 +3303,68 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="E46" s="3">
         <v>2400</v>
       </c>
       <c r="F46" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G46" s="3">
         <v>1600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>300</v>
-      </c>
-      <c r="M46" s="3">
-        <v>400</v>
       </c>
       <c r="N46" s="3">
         <v>400</v>
       </c>
       <c r="O46" s="3">
-        <v>1700</v>
+        <v>400</v>
       </c>
       <c r="P46" s="3">
         <v>1700</v>
       </c>
       <c r="Q46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="R46" s="3">
         <v>2100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>100</v>
       </c>
-      <c r="U46" s="3">
-        <v>0</v>
-      </c>
       <c r="V46" s="3">
         <v>0</v>
       </c>
@@ -3278,34 +3380,37 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
       </c>
       <c r="K47" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="L47" s="3">
         <v>400</v>
@@ -3317,7 +3422,7 @@
         <v>400</v>
       </c>
       <c r="O47" s="3">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="P47" s="3">
         <v>800</v>
@@ -3326,11 +3431,11 @@
         <v>800</v>
       </c>
       <c r="R47" s="3">
+        <v>800</v>
+      </c>
+      <c r="S47" s="3">
         <v>400</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T47" s="3" t="s">
         <v>4</v>
       </c>
@@ -3343,8 +3448,8 @@
       <c r="W47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X47" s="3">
-        <v>0</v>
+      <c r="X47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y47" s="3">
         <v>0</v>
@@ -3352,46 +3457,49 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6700</v>
+        <v>6300</v>
       </c>
       <c r="E48" s="3">
         <v>6800</v>
       </c>
       <c r="F48" s="3">
-        <v>7100</v>
+        <v>6900</v>
       </c>
       <c r="G48" s="3">
         <v>7100</v>
       </c>
       <c r="H48" s="3">
+        <v>7200</v>
+      </c>
+      <c r="I48" s="3">
         <v>6000</v>
-      </c>
-      <c r="I48" s="3">
-        <v>5700</v>
       </c>
       <c r="J48" s="3">
         <v>5800</v>
       </c>
       <c r="K48" s="3">
+        <v>5800</v>
+      </c>
+      <c r="L48" s="3">
         <v>3100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3000</v>
-      </c>
-      <c r="O48" s="3">
-        <v>100</v>
       </c>
       <c r="P48" s="3">
         <v>100</v>
@@ -3406,10 +3514,10 @@
         <v>100</v>
       </c>
       <c r="T48" s="3">
-        <v>0</v>
-      </c>
-      <c r="U48" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
       </c>
       <c r="V48" s="3" t="s">
         <v>4</v>
@@ -3426,8 +3534,11 @@
       <c r="Z48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3441,20 +3552,20 @@
         <v>4500</v>
       </c>
       <c r="G49" s="3">
-        <v>7200</v>
+        <v>4500</v>
       </c>
       <c r="H49" s="3">
+        <v>7300</v>
+      </c>
+      <c r="I49" s="3">
         <v>5600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K49" s="3">
         <v>4400</v>
       </c>
-      <c r="J49" s="3">
-        <v>4400</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>4</v>
       </c>
@@ -3470,8 +3581,8 @@
       <c r="P49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
@@ -3500,8 +3611,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,35 +3765,38 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="3">
-        <v>100</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F52" s="3">
         <v>100</v>
       </c>
       <c r="G52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H52" s="3">
         <v>200</v>
       </c>
       <c r="I52" s="3">
+        <v>300</v>
+      </c>
+      <c r="J52" s="3">
         <v>200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>300</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3692,8 +3812,8 @@
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -3722,8 +3842,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,65 +3919,68 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13500</v>
+        <v>13200</v>
       </c>
       <c r="E54" s="3">
         <v>13600</v>
       </c>
       <c r="F54" s="3">
-        <v>13200</v>
+        <v>13800</v>
       </c>
       <c r="G54" s="3">
-        <v>16000</v>
+        <v>13400</v>
       </c>
       <c r="H54" s="3">
-        <v>12900</v>
+        <v>16100</v>
       </c>
       <c r="I54" s="3">
-        <v>11600</v>
+        <v>13000</v>
       </c>
       <c r="J54" s="3">
+        <v>11700</v>
+      </c>
+      <c r="K54" s="3">
         <v>11300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3900</v>
-      </c>
-      <c r="L54" s="3">
-        <v>3600</v>
       </c>
       <c r="M54" s="3">
         <v>3600</v>
       </c>
       <c r="N54" s="3">
+        <v>3600</v>
+      </c>
+      <c r="O54" s="3">
         <v>3900</v>
-      </c>
-      <c r="O54" s="3">
-        <v>2600</v>
       </c>
       <c r="P54" s="3">
         <v>2600</v>
       </c>
       <c r="Q54" s="3">
+        <v>2600</v>
+      </c>
+      <c r="R54" s="3">
         <v>3000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>200</v>
       </c>
-      <c r="U54" s="3">
-        <v>0</v>
-      </c>
       <c r="V54" s="3">
         <v>0</v>
       </c>
@@ -3870,8 +3996,11 @@
       <c r="Z54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,25 +4056,26 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="E57" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="F57" s="3">
         <v>2500</v>
       </c>
       <c r="G57" s="3">
-        <v>2100</v>
+        <v>2600</v>
       </c>
       <c r="H57" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="I57" s="3">
         <v>2100</v>
@@ -3953,31 +4084,31 @@
         <v>2100</v>
       </c>
       <c r="K57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="L57" s="3">
         <v>1900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>200</v>
-      </c>
-      <c r="S57" s="3">
-        <v>100</v>
       </c>
       <c r="T57" s="3">
         <v>100</v>
@@ -3995,13 +4126,16 @@
         <v>100</v>
       </c>
       <c r="Y57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4009,46 +4143,46 @@
         <v>1900</v>
       </c>
       <c r="E58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F58" s="3">
         <v>1300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2400</v>
-      </c>
-      <c r="H58" s="3">
-        <v>2000</v>
       </c>
       <c r="I58" s="3">
         <v>2000</v>
       </c>
       <c r="J58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K58" s="3">
         <v>2100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>200</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -4057,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="V58" s="3">
         <v>300</v>
@@ -4074,34 +4208,37 @@
       <c r="Z58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E59" s="3">
         <v>300</v>
       </c>
       <c r="F59" s="3">
+        <v>300</v>
+      </c>
+      <c r="G59" s="3">
         <v>400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>100</v>
       </c>
-      <c r="H59" s="3">
-        <v>700</v>
-      </c>
       <c r="I59" s="3">
+        <v>800</v>
+      </c>
+      <c r="J59" s="3">
         <v>400</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
+      <c r="K59" s="3">
+        <v>0</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>4</v>
@@ -4118,14 +4255,14 @@
       <c r="P59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
       </c>
       <c r="S59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T59" s="3">
         <v>100</v>
@@ -4148,64 +4285,67 @@
       <c r="Z59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E60" s="3">
         <v>4700</v>
       </c>
-      <c r="E60" s="3">
-        <v>4100</v>
-      </c>
       <c r="F60" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G60" s="3">
         <v>5300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4600</v>
       </c>
-      <c r="H60" s="3">
-        <v>4800</v>
-      </c>
       <c r="I60" s="3">
-        <v>4500</v>
+        <v>4900</v>
       </c>
       <c r="J60" s="3">
-        <v>4200</v>
+        <v>4600</v>
       </c>
       <c r="K60" s="3">
         <v>4200</v>
       </c>
       <c r="L60" s="3">
+        <v>4200</v>
+      </c>
+      <c r="M60" s="3">
         <v>3500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>300</v>
-      </c>
-      <c r="R60" s="3">
-        <v>200</v>
       </c>
       <c r="S60" s="3">
         <v>200</v>
       </c>
       <c r="T60" s="3">
+        <v>200</v>
+      </c>
+      <c r="U60" s="3">
         <v>100</v>
-      </c>
-      <c r="U60" s="3">
-        <v>500</v>
       </c>
       <c r="V60" s="3">
         <v>500</v>
@@ -4217,55 +4357,58 @@
         <v>500</v>
       </c>
       <c r="Y60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Z60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E61" s="3">
         <v>3700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2200</v>
-      </c>
-      <c r="G61" s="3">
-        <v>2300</v>
       </c>
       <c r="H61" s="3">
         <v>2300</v>
       </c>
       <c r="I61" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J61" s="3">
         <v>2100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>400</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -4296,8 +4439,11 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4310,8 +4456,8 @@
       <c r="F62" s="3">
         <v>200</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
+      <c r="G62" s="3">
+        <v>200</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>4</v>
@@ -4325,8 +4471,8 @@
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,8 +4747,11 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4601,55 +4759,55 @@
         <v>9200</v>
       </c>
       <c r="E66" s="3">
-        <v>8700</v>
+        <v>9300</v>
       </c>
       <c r="F66" s="3">
+        <v>8800</v>
+      </c>
+      <c r="G66" s="3">
         <v>8300</v>
       </c>
-      <c r="G66" s="3">
-        <v>8100</v>
-      </c>
       <c r="H66" s="3">
-        <v>8300</v>
+        <v>8200</v>
       </c>
       <c r="I66" s="3">
-        <v>7100</v>
+        <v>8400</v>
       </c>
       <c r="J66" s="3">
+        <v>7200</v>
+      </c>
+      <c r="K66" s="3">
         <v>7000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>300</v>
-      </c>
-      <c r="R66" s="3">
-        <v>200</v>
       </c>
       <c r="S66" s="3">
         <v>200</v>
       </c>
       <c r="T66" s="3">
+        <v>200</v>
+      </c>
+      <c r="U66" s="3">
         <v>100</v>
-      </c>
-      <c r="U66" s="3">
-        <v>500</v>
       </c>
       <c r="V66" s="3">
         <v>500</v>
@@ -4661,13 +4819,16 @@
         <v>500</v>
       </c>
       <c r="Y66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Z66" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,64 +5161,67 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-23600</v>
+        <v>-24300</v>
       </c>
       <c r="E72" s="3">
-        <v>-23100</v>
+        <v>-23800</v>
       </c>
       <c r="F72" s="3">
-        <v>-22100</v>
+        <v>-23300</v>
       </c>
       <c r="G72" s="3">
-        <v>-20100</v>
+        <v>-22300</v>
       </c>
       <c r="H72" s="3">
-        <v>-19700</v>
+        <v>-20300</v>
       </c>
       <c r="I72" s="3">
-        <v>-19200</v>
+        <v>-19900</v>
       </c>
       <c r="J72" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-18500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-16900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-16800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-16000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-16200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-13400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-12500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-11200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-10000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-9800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-7200</v>
-      </c>
-      <c r="U72" s="3">
-        <v>-6600</v>
       </c>
       <c r="V72" s="3">
         <v>-6600</v>
@@ -5056,16 +5230,19 @@
         <v>-6600</v>
       </c>
       <c r="X72" s="3">
-        <v>-6800</v>
+        <v>-6600</v>
       </c>
       <c r="Y72" s="3">
         <v>-6800</v>
       </c>
       <c r="Z72" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="AA72" s="3">
         <v>-6700</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,70 +5469,73 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F76" s="3">
+        <v>4900</v>
+      </c>
+      <c r="G76" s="3">
+        <v>5000</v>
+      </c>
+      <c r="H76" s="3">
+        <v>8000</v>
+      </c>
+      <c r="I76" s="3">
+        <v>4700</v>
+      </c>
+      <c r="J76" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K76" s="3">
         <v>4300</v>
       </c>
-      <c r="E76" s="3">
-        <v>4900</v>
-      </c>
-      <c r="F76" s="3">
-        <v>5000</v>
-      </c>
-      <c r="G76" s="3">
-        <v>7900</v>
-      </c>
-      <c r="H76" s="3">
-        <v>4600</v>
-      </c>
-      <c r="I76" s="3">
-        <v>4500</v>
-      </c>
-      <c r="J76" s="3">
-        <v>4300</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>400</v>
       </c>
-      <c r="T76" s="3">
-        <v>0</v>
-      </c>
       <c r="U76" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="V76" s="3">
         <v>-500</v>
       </c>
       <c r="W76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="X76" s="3">
         <v>-400</v>
@@ -5360,8 +5546,11 @@
       <c r="Z76" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,144 +5623,150 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-500</v>
+        <v>-800</v>
       </c>
       <c r="E81" s="3">
         <v>-500</v>
       </c>
       <c r="F81" s="3">
-        <v>-2400</v>
+        <v>-500</v>
       </c>
       <c r="G81" s="3">
-        <v>-500</v>
+        <v>-2500</v>
       </c>
       <c r="H81" s="3">
         <v>-500</v>
       </c>
       <c r="I81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2000</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-600</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
       <c r="V81" s="3">
         <v>0</v>
       </c>
@@ -5587,8 +5782,11 @@
       <c r="Z81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,22 +5813,23 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E83" s="3">
         <v>200</v>
       </c>
       <c r="F83" s="3">
+        <v>300</v>
+      </c>
+      <c r="G83" s="3">
         <v>400</v>
-      </c>
-      <c r="G83" s="3">
-        <v>100</v>
       </c>
       <c r="H83" s="3">
         <v>100</v>
@@ -5642,7 +5841,7 @@
         <v>100</v>
       </c>
       <c r="K83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -5668,8 +5867,8 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>4</v>
+      <c r="T83" s="3">
+        <v>0</v>
       </c>
       <c r="U83" s="3" t="s">
         <v>4</v>
@@ -5689,8 +5888,11 @@
       <c r="Z83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,65 +6273,68 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
       <c r="V89" s="3">
         <v>0</v>
       </c>
@@ -6133,8 +6350,11 @@
       <c r="Z89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,32 +6381,33 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
       </c>
       <c r="F91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
@@ -6196,26 +6417,26 @@
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" s="3">
         <v>-2100</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R91" s="3">
-        <v>-100</v>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>4</v>
+      <c r="T91" s="3">
+        <v>-100</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>4</v>
@@ -6235,8 +6456,11 @@
       <c r="Z91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,34 +6610,37 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F94" s="3">
         <v>800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-200</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-100</v>
       </c>
       <c r="J94" s="3">
         <v>-100</v>
       </c>
       <c r="K94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -6419,26 +6649,26 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-2500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-900</v>
       </c>
       <c r="R94" s="3">
         <v>-900</v>
       </c>
       <c r="S94" s="3">
+        <v>-900</v>
+      </c>
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U94" s="3" t="s">
         <v>4</v>
       </c>
@@ -6457,8 +6687,11 @@
       <c r="Z94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,65 +7024,68 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-400</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>500</v>
+      </c>
+      <c r="I100" s="3">
         <v>200</v>
-      </c>
-      <c r="I100" s="3">
-        <v>600</v>
       </c>
       <c r="J100" s="3">
         <v>600</v>
       </c>
       <c r="K100" s="3">
+        <v>600</v>
+      </c>
+      <c r="L100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>400</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>4200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>200</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
         <v>0</v>
       </c>
@@ -6855,23 +7101,26 @@
       <c r="Z100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
@@ -6879,14 +7128,14 @@
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
@@ -6905,8 +7154,8 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>4</v>
+      <c r="S101" s="3">
+        <v>0</v>
       </c>
       <c r="T101" s="3" t="s">
         <v>4</v>
@@ -6920,8 +7169,8 @@
       <c r="W101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X101" s="3">
-        <v>0</v>
+      <c r="X101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y101" s="3">
         <v>0</v>
@@ -6929,34 +7178,37 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-300</v>
-      </c>
-      <c r="I102" s="3">
-        <v>300</v>
       </c>
       <c r="J102" s="3">
         <v>400</v>
       </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
@@ -6965,29 +7217,29 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-2600</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>100</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
         <v>0</v>
       </c>
@@ -7001,6 +7253,9 @@
         <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LVRLF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LVRLF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="92">
   <si>
     <t>LVRLF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,150 +665,154 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F8" s="3">
         <v>2600</v>
       </c>
-      <c r="E8" s="3">
-        <v>2700</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2900</v>
       </c>
-      <c r="G8" s="3">
-        <v>2600</v>
-      </c>
       <c r="H8" s="3">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="I8" s="3">
-        <v>1900</v>
+        <v>2100</v>
       </c>
       <c r="J8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K8" s="3">
         <v>1400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>200</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
+      <c r="N8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
@@ -849,46 +853,49 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="E9" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G9" s="3">
         <v>2000</v>
       </c>
-      <c r="F9" s="3">
-        <v>2100</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1800</v>
-      </c>
       <c r="H9" s="3">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="I9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J9" s="3">
         <v>1200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>100</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="3">
-        <v>0</v>
+      <c r="O9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P9" s="3">
         <v>0</v>
@@ -905,8 +912,8 @@
       <c r="T9" s="3">
         <v>0</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>4</v>
+      <c r="U9" s="3">
+        <v>0</v>
       </c>
       <c r="V9" s="3" t="s">
         <v>4</v>
@@ -926,19 +933,22 @@
       <c r="AA9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="E10" s="3">
         <v>700</v>
       </c>
       <c r="F10" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="G10" s="3">
         <v>800</v>
@@ -947,25 +957,25 @@
         <v>800</v>
       </c>
       <c r="I10" s="3">
+        <v>800</v>
+      </c>
+      <c r="J10" s="3">
         <v>600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>100</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
+      <c r="O10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P10" s="3">
         <v>0</v>
@@ -982,8 +992,8 @@
       <c r="T10" s="3">
         <v>0</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>4</v>
+      <c r="U10" s="3">
+        <v>0</v>
       </c>
       <c r="V10" s="3" t="s">
         <v>4</v>
@@ -1003,8 +1013,11 @@
       <c r="AA10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1198,13 +1218,13 @@
         <v>100</v>
       </c>
       <c r="F14" s="3">
+        <v>100</v>
+      </c>
+      <c r="G14" s="3">
         <v>200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>500</v>
-      </c>
-      <c r="H14" s="3">
-        <v>100</v>
       </c>
       <c r="I14" s="3">
         <v>100</v>
@@ -1216,43 +1236,43 @@
         <v>100</v>
       </c>
       <c r="L14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>300</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3">
         <v>300</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>300</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>4</v>
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>4</v>
@@ -1260,28 +1280,31 @@
       <c r="Z14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>200</v>
+      </c>
+      <c r="E15" s="3">
         <v>300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>200</v>
       </c>
-      <c r="F15" s="3">
-        <v>300</v>
-      </c>
       <c r="G15" s="3">
+        <v>200</v>
+      </c>
+      <c r="H15" s="3">
         <v>400</v>
-      </c>
-      <c r="H15" s="3">
-        <v>100</v>
       </c>
       <c r="I15" s="3">
         <v>100</v>
@@ -1293,10 +1316,10 @@
         <v>100</v>
       </c>
       <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>4</v>
@@ -1307,11 +1330,11 @@
       <c r="P15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>4</v>
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>4</v>
@@ -1319,11 +1342,11 @@
       <c r="T15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U15" s="3">
-        <v>0</v>
-      </c>
-      <c r="V15" s="3" t="s">
-        <v>4</v>
+      <c r="U15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
       </c>
       <c r="W15" s="3" t="s">
         <v>4</v>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,68 +1392,69 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="E17" s="3">
         <v>3100</v>
       </c>
       <c r="F17" s="3">
-        <v>3300</v>
+        <v>3000</v>
       </c>
       <c r="G17" s="3">
-        <v>4300</v>
+        <v>3200</v>
       </c>
       <c r="H17" s="3">
-        <v>2500</v>
+        <v>4100</v>
       </c>
       <c r="I17" s="3">
-        <v>2100</v>
+        <v>2400</v>
       </c>
       <c r="J17" s="3">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="K17" s="3">
         <v>1600</v>
       </c>
       <c r="L17" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
         <v>800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>600</v>
       </c>
-      <c r="V17" s="3">
-        <v>0</v>
-      </c>
       <c r="W17" s="3">
         <v>0</v>
       </c>
@@ -1443,68 +1470,71 @@
       <c r="AA17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-700</v>
+        <v>-1200</v>
       </c>
       <c r="E18" s="3">
-        <v>-400</v>
+        <v>-600</v>
       </c>
       <c r="F18" s="3">
         <v>-400</v>
       </c>
       <c r="G18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H18" s="3">
         <v>-1700</v>
       </c>
-      <c r="H18" s="3">
-        <v>-400</v>
-      </c>
       <c r="I18" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="J18" s="3">
         <v>-200</v>
       </c>
       <c r="K18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L18" s="3">
         <v>-1500</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="3">
         <v>-600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-4700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-3500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-600</v>
       </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
       <c r="W18" s="3">
         <v>0</v>
       </c>
@@ -1520,8 +1550,11 @@
       <c r="AA18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1558,34 +1592,34 @@
         <v>100</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
+      <c r="N20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
@@ -1594,11 +1628,11 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
@@ -1626,65 +1660,68 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-300</v>
-      </c>
-      <c r="E21" s="3">
-        <v>-100</v>
       </c>
       <c r="F21" s="3">
         <v>-100</v>
       </c>
       <c r="G21" s="3">
-        <v>-1800</v>
+        <v>-100</v>
       </c>
       <c r="H21" s="3">
-        <v>0</v>
+        <v>-1700</v>
       </c>
       <c r="I21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J21" s="3">
         <v>-100</v>
       </c>
       <c r="K21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L21" s="3">
         <v>-1600</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3">
         <v>-600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-4800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-3500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-2700</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1703,8 +1740,11 @@
       <c r="AA21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1712,7 +1752,7 @@
         <v>200</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
@@ -1721,7 +1761,7 @@
         <v>100</v>
       </c>
       <c r="H22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>200</v>
@@ -1730,10 +1770,10 @@
         <v>200</v>
       </c>
       <c r="K22" s="3">
+        <v>200</v>
+      </c>
+      <c r="L22" s="3">
         <v>400</v>
-      </c>
-      <c r="L22" s="3">
-        <v>100</v>
       </c>
       <c r="M22" s="3">
         <v>100</v>
@@ -1745,19 +1785,19 @@
         <v>100</v>
       </c>
       <c r="P22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>4</v>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
+      <c r="T22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
@@ -1765,8 +1805,8 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>4</v>
+      <c r="W22" s="3">
+        <v>0</v>
       </c>
       <c r="X22" s="3" t="s">
         <v>4</v>
@@ -1774,74 +1814,77 @@
       <c r="Y22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-800</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-500</v>
       </c>
       <c r="F23" s="3">
         <v>-500</v>
       </c>
       <c r="G23" s="3">
-        <v>-2300</v>
+        <v>-500</v>
       </c>
       <c r="H23" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2100</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-3500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-600</v>
       </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
       <c r="W23" s="3">
         <v>0</v>
       </c>
@@ -1857,8 +1900,11 @@
       <c r="AA23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1872,11 +1918,11 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
@@ -1886,8 +1932,8 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>4</v>
+      <c r="L24" s="3">
+        <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>4</v>
@@ -1904,8 +1950,8 @@
       <c r="Q24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
+      <c r="R24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,68 +2060,71 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-800</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-500</v>
       </c>
       <c r="F26" s="3">
         <v>-500</v>
       </c>
       <c r="G26" s="3">
-        <v>-2500</v>
+        <v>-500</v>
       </c>
       <c r="H26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2000</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-3500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-600</v>
       </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
       <c r="W26" s="3">
         <v>0</v>
       </c>
@@ -2088,68 +2140,71 @@
       <c r="AA26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-800</v>
+        <v>-1200</v>
       </c>
       <c r="E27" s="3">
-        <v>-500</v>
+        <v>-700</v>
       </c>
       <c r="F27" s="3">
         <v>-500</v>
       </c>
       <c r="G27" s="3">
-        <v>-2500</v>
+        <v>-500</v>
       </c>
       <c r="H27" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2000</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-3500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-600</v>
       </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
       <c r="W27" s="3">
         <v>0</v>
       </c>
@@ -2165,8 +2220,11 @@
       <c r="AA27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2482,34 +2552,34 @@
         <v>-100</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
+      <c r="N32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
@@ -2518,11 +2588,11 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
@@ -2550,68 +2620,71 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-800</v>
+        <v>-1200</v>
       </c>
       <c r="E33" s="3">
-        <v>-500</v>
+        <v>-700</v>
       </c>
       <c r="F33" s="3">
         <v>-500</v>
       </c>
       <c r="G33" s="3">
-        <v>-2500</v>
+        <v>-500</v>
       </c>
       <c r="H33" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2000</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-3500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-600</v>
       </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
       <c r="W33" s="3">
         <v>0</v>
       </c>
@@ -2627,8 +2700,11 @@
       <c r="AA33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,68 +2780,71 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-800</v>
+        <v>-1200</v>
       </c>
       <c r="E35" s="3">
-        <v>-500</v>
+        <v>-700</v>
       </c>
       <c r="F35" s="3">
         <v>-500</v>
       </c>
       <c r="G35" s="3">
-        <v>-2500</v>
+        <v>-500</v>
       </c>
       <c r="H35" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2000</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-3500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-600</v>
       </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
       <c r="W35" s="3">
         <v>0</v>
       </c>
@@ -2781,90 +2860,96 @@
       <c r="AA35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,46 +3007,47 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E41" s="3">
         <v>700</v>
       </c>
       <c r="F41" s="3">
+        <v>700</v>
+      </c>
+      <c r="G41" s="3">
         <v>500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>800</v>
-      </c>
-      <c r="H41" s="3">
-        <v>600</v>
       </c>
       <c r="I41" s="3">
         <v>600</v>
       </c>
       <c r="J41" s="3">
+        <v>600</v>
+      </c>
+      <c r="K41" s="3">
         <v>900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
         <v>100</v>
@@ -2969,20 +3056,20 @@
         <v>100</v>
       </c>
       <c r="R41" s="3">
+        <v>100</v>
+      </c>
+      <c r="S41" s="3">
         <v>1100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>100</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2998,8 +3085,11 @@
       <c r="AA41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,17 +3165,20 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
       <c r="F43" s="3">
         <v>0</v>
       </c>
@@ -3110,20 +3203,20 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="3">
         <v>100</v>
       </c>
       <c r="R43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -3131,14 +3224,14 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>4</v>
+      <c r="U43" s="3">
+        <v>0</v>
       </c>
       <c r="V43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W43" s="3">
-        <v>0</v>
+      <c r="W43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X43" s="3">
         <v>0</v>
@@ -3152,8 +3245,11 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3161,29 +3257,29 @@
         <v>500</v>
       </c>
       <c r="E44" s="3">
+        <v>500</v>
+      </c>
+      <c r="F44" s="3">
         <v>400</v>
       </c>
-      <c r="F44" s="3">
-        <v>600</v>
-      </c>
       <c r="G44" s="3">
+        <v>500</v>
+      </c>
+      <c r="H44" s="3">
         <v>400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>100</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>4</v>
       </c>
@@ -3199,8 +3295,8 @@
       <c r="Q44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R44" s="3">
-        <v>0</v>
+      <c r="R44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
@@ -3229,28 +3325,31 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E45" s="3">
         <v>1200</v>
       </c>
-      <c r="E45" s="3">
-        <v>1300</v>
-      </c>
       <c r="F45" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="G45" s="3">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="H45" s="3">
         <v>400</v>
       </c>
       <c r="I45" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="J45" s="3">
         <v>200</v>
@@ -3259,7 +3358,7 @@
         <v>200</v>
       </c>
       <c r="L45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M45" s="3">
         <v>300</v>
@@ -3268,26 +3367,26 @@
         <v>300</v>
       </c>
       <c r="O45" s="3">
+        <v>300</v>
+      </c>
+      <c r="P45" s="3">
         <v>400</v>
-      </c>
-      <c r="P45" s="3">
-        <v>1500</v>
       </c>
       <c r="Q45" s="3">
         <v>1500</v>
       </c>
       <c r="R45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="S45" s="3">
         <v>1000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>100</v>
       </c>
-      <c r="U45" s="3">
-        <v>0</v>
-      </c>
       <c r="V45" s="3">
         <v>0</v>
       </c>
@@ -3306,13 +3405,16 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="E46" s="3">
         <v>2400</v>
@@ -3321,53 +3423,53 @@
         <v>2400</v>
       </c>
       <c r="G46" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H46" s="3">
         <v>1600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>300</v>
-      </c>
-      <c r="N46" s="3">
-        <v>400</v>
       </c>
       <c r="O46" s="3">
         <v>400</v>
       </c>
       <c r="P46" s="3">
-        <v>1700</v>
+        <v>400</v>
       </c>
       <c r="Q46" s="3">
         <v>1700</v>
       </c>
       <c r="R46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="S46" s="3">
         <v>2100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>100</v>
       </c>
-      <c r="V46" s="3">
-        <v>0</v>
-      </c>
       <c r="W46" s="3">
         <v>0</v>
       </c>
@@ -3383,8 +3485,11 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3413,7 +3518,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="M47" s="3">
         <v>400</v>
@@ -3425,7 +3530,7 @@
         <v>400</v>
       </c>
       <c r="P47" s="3">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="Q47" s="3">
         <v>800</v>
@@ -3434,11 +3539,11 @@
         <v>800</v>
       </c>
       <c r="S47" s="3">
+        <v>800</v>
+      </c>
+      <c r="T47" s="3">
         <v>400</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U47" s="3" t="s">
         <v>4</v>
       </c>
@@ -3451,8 +3556,8 @@
       <c r="X47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y47" s="3">
-        <v>0</v>
+      <c r="Y47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z47" s="3">
         <v>0</v>
@@ -3460,49 +3565,52 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6300</v>
+        <v>5900</v>
       </c>
       <c r="E48" s="3">
-        <v>6800</v>
+        <v>6200</v>
       </c>
       <c r="F48" s="3">
+        <v>6600</v>
+      </c>
+      <c r="G48" s="3">
+        <v>6700</v>
+      </c>
+      <c r="H48" s="3">
         <v>6900</v>
       </c>
-      <c r="G48" s="3">
-        <v>7100</v>
-      </c>
-      <c r="H48" s="3">
-        <v>7200</v>
-      </c>
       <c r="I48" s="3">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="J48" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="K48" s="3">
         <v>5800</v>
       </c>
       <c r="L48" s="3">
+        <v>5800</v>
+      </c>
+      <c r="M48" s="3">
         <v>3100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3000</v>
-      </c>
-      <c r="P48" s="3">
-        <v>100</v>
       </c>
       <c r="Q48" s="3">
         <v>100</v>
@@ -3517,10 +3625,10 @@
         <v>100</v>
       </c>
       <c r="U48" s="3">
-        <v>0</v>
-      </c>
-      <c r="V48" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
       </c>
       <c r="W48" s="3" t="s">
         <v>4</v>
@@ -3537,38 +3645,41 @@
       <c r="AA48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E49" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F49" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G49" s="3">
+        <v>4300</v>
+      </c>
+      <c r="H49" s="3">
         <v>4400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="I49" s="3">
+        <v>7000</v>
+      </c>
+      <c r="J49" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K49" s="3">
+        <v>4500</v>
+      </c>
+      <c r="L49" s="3">
         <v>4400</v>
       </c>
-      <c r="F49" s="3">
-        <v>4500</v>
-      </c>
-      <c r="G49" s="3">
-        <v>4500</v>
-      </c>
-      <c r="H49" s="3">
-        <v>7300</v>
-      </c>
-      <c r="I49" s="3">
-        <v>5600</v>
-      </c>
-      <c r="J49" s="3">
-        <v>4500</v>
-      </c>
-      <c r="K49" s="3">
-        <v>4400</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>4</v>
       </c>
@@ -3584,8 +3695,8 @@
       <c r="Q49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="R49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,38 +3885,41 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>0</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3">
-        <v>100</v>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G52" s="3">
         <v>100</v>
       </c>
       <c r="H52" s="3">
+        <v>100</v>
+      </c>
+      <c r="I52" s="3">
         <v>200</v>
-      </c>
-      <c r="I52" s="3">
-        <v>300</v>
       </c>
       <c r="J52" s="3">
         <v>200</v>
       </c>
       <c r="K52" s="3">
+        <v>200</v>
+      </c>
+      <c r="L52" s="3">
         <v>300</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3815,8 +3935,8 @@
       <c r="Q52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="R52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,68 +4045,71 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>12800</v>
+      </c>
+      <c r="F54" s="3">
         <v>13200</v>
       </c>
-      <c r="E54" s="3">
-        <v>13600</v>
-      </c>
-      <c r="F54" s="3">
-        <v>13800</v>
-      </c>
       <c r="G54" s="3">
-        <v>13400</v>
+        <v>13300</v>
       </c>
       <c r="H54" s="3">
-        <v>16100</v>
+        <v>13000</v>
       </c>
       <c r="I54" s="3">
-        <v>13000</v>
+        <v>15600</v>
       </c>
       <c r="J54" s="3">
+        <v>12600</v>
+      </c>
+      <c r="K54" s="3">
         <v>11700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>11300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3900</v>
-      </c>
-      <c r="M54" s="3">
-        <v>3600</v>
       </c>
       <c r="N54" s="3">
         <v>3600</v>
       </c>
       <c r="O54" s="3">
+        <v>3600</v>
+      </c>
+      <c r="P54" s="3">
         <v>3900</v>
-      </c>
-      <c r="P54" s="3">
-        <v>2600</v>
       </c>
       <c r="Q54" s="3">
         <v>2600</v>
       </c>
       <c r="R54" s="3">
+        <v>2600</v>
+      </c>
+      <c r="S54" s="3">
         <v>3000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>200</v>
       </c>
-      <c r="V54" s="3">
-        <v>0</v>
-      </c>
       <c r="W54" s="3">
         <v>0</v>
       </c>
@@ -3999,8 +4125,11 @@
       <c r="AA54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,8 +4187,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4072,10 +4203,10 @@
         <v>2500</v>
       </c>
       <c r="G57" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="H57" s="3">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="I57" s="3">
         <v>2100</v>
@@ -4087,31 +4218,31 @@
         <v>2100</v>
       </c>
       <c r="L57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M57" s="3">
         <v>1900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>200</v>
-      </c>
-      <c r="T57" s="3">
-        <v>100</v>
       </c>
       <c r="U57" s="3">
         <v>100</v>
@@ -4129,63 +4260,66 @@
         <v>100</v>
       </c>
       <c r="Z57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1900</v>
+        <v>1300</v>
       </c>
       <c r="E58" s="3">
         <v>1900</v>
       </c>
       <c r="F58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G58" s="3">
         <v>1300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2300</v>
       </c>
-      <c r="H58" s="3">
-        <v>2400</v>
-      </c>
       <c r="I58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K58" s="3">
         <v>2000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="N58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="O58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P58" s="3">
         <v>2000</v>
       </c>
-      <c r="K58" s="3">
-        <v>2100</v>
-      </c>
-      <c r="L58" s="3">
-        <v>2300</v>
-      </c>
-      <c r="M58" s="3">
-        <v>1900</v>
-      </c>
-      <c r="N58" s="3">
-        <v>1400</v>
-      </c>
-      <c r="O58" s="3">
-        <v>2000</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>200</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -4194,7 +4328,7 @@
         <v>0</v>
       </c>
       <c r="V58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="W58" s="3">
         <v>300</v>
@@ -4211,37 +4345,40 @@
       <c r="AA58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>300</v>
+      </c>
+      <c r="E59" s="3">
         <v>200</v>
-      </c>
-      <c r="E59" s="3">
-        <v>300</v>
       </c>
       <c r="F59" s="3">
         <v>300</v>
       </c>
       <c r="G59" s="3">
+        <v>300</v>
+      </c>
+      <c r="H59" s="3">
         <v>400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>100</v>
       </c>
-      <c r="I59" s="3">
-        <v>800</v>
-      </c>
       <c r="J59" s="3">
+        <v>700</v>
+      </c>
+      <c r="K59" s="3">
         <v>400</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
+      <c r="L59" s="3">
+        <v>0</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>4</v>
@@ -4258,14 +4395,14 @@
       <c r="Q59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
+      <c r="R59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
       </c>
       <c r="T59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U59" s="3">
         <v>100</v>
@@ -4288,67 +4425,70 @@
       <c r="AA59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4900</v>
+        <v>4300</v>
       </c>
       <c r="E60" s="3">
         <v>4700</v>
       </c>
       <c r="F60" s="3">
-        <v>4200</v>
+        <v>4600</v>
       </c>
       <c r="G60" s="3">
-        <v>5300</v>
+        <v>4100</v>
       </c>
       <c r="H60" s="3">
+        <v>5100</v>
+      </c>
+      <c r="I60" s="3">
+        <v>4500</v>
+      </c>
+      <c r="J60" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K60" s="3">
         <v>4600</v>
-      </c>
-      <c r="I60" s="3">
-        <v>4900</v>
-      </c>
-      <c r="J60" s="3">
-        <v>4600</v>
-      </c>
-      <c r="K60" s="3">
-        <v>4200</v>
       </c>
       <c r="L60" s="3">
         <v>4200</v>
       </c>
       <c r="M60" s="3">
+        <v>4200</v>
+      </c>
+      <c r="N60" s="3">
         <v>3500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>300</v>
-      </c>
-      <c r="S60" s="3">
-        <v>200</v>
       </c>
       <c r="T60" s="3">
         <v>200</v>
       </c>
       <c r="U60" s="3">
+        <v>200</v>
+      </c>
+      <c r="V60" s="3">
         <v>100</v>
-      </c>
-      <c r="V60" s="3">
-        <v>500</v>
       </c>
       <c r="W60" s="3">
         <v>500</v>
@@ -4360,58 +4500,61 @@
         <v>500</v>
       </c>
       <c r="Z60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AA60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E61" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F61" s="3">
         <v>3600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>3700</v>
       </c>
-      <c r="F61" s="3">
-        <v>3800</v>
-      </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J61" s="3">
         <v>2300</v>
       </c>
-      <c r="I61" s="3">
-        <v>2300</v>
-      </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>400</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -4442,8 +4585,11 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4451,16 +4597,16 @@
         <v>100</v>
       </c>
       <c r="E62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G62" s="3">
         <v>200</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
+      <c r="H62" s="3">
+        <v>200</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>4</v>
@@ -4474,8 +4620,8 @@
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,67 +4905,70 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9200</v>
+        <v>8200</v>
       </c>
       <c r="E66" s="3">
-        <v>9300</v>
+        <v>8900</v>
       </c>
       <c r="F66" s="3">
-        <v>8800</v>
+        <v>9000</v>
       </c>
       <c r="G66" s="3">
-        <v>8300</v>
+        <v>8600</v>
       </c>
       <c r="H66" s="3">
-        <v>8200</v>
+        <v>8100</v>
       </c>
       <c r="I66" s="3">
-        <v>8400</v>
+        <v>7900</v>
       </c>
       <c r="J66" s="3">
+        <v>8100</v>
+      </c>
+      <c r="K66" s="3">
         <v>7200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>300</v>
-      </c>
-      <c r="S66" s="3">
-        <v>200</v>
       </c>
       <c r="T66" s="3">
         <v>200</v>
       </c>
       <c r="U66" s="3">
+        <v>200</v>
+      </c>
+      <c r="V66" s="3">
         <v>100</v>
-      </c>
-      <c r="V66" s="3">
-        <v>500</v>
       </c>
       <c r="W66" s="3">
         <v>500</v>
@@ -4822,13 +4980,16 @@
         <v>500</v>
       </c>
       <c r="Z66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AA66" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,67 +5335,70 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-24300</v>
+        <v>-25100</v>
       </c>
       <c r="E72" s="3">
-        <v>-23800</v>
+        <v>-23600</v>
       </c>
       <c r="F72" s="3">
-        <v>-23300</v>
+        <v>-23100</v>
       </c>
       <c r="G72" s="3">
-        <v>-22300</v>
+        <v>-22600</v>
       </c>
       <c r="H72" s="3">
-        <v>-20300</v>
+        <v>-21600</v>
       </c>
       <c r="I72" s="3">
-        <v>-19900</v>
+        <v>-19700</v>
       </c>
       <c r="J72" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-19400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-18500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-16900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-16800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-16000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-16200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-13400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-12500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-11200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-10000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-9800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-7200</v>
-      </c>
-      <c r="V72" s="3">
-        <v>-6600</v>
       </c>
       <c r="W72" s="3">
         <v>-6600</v>
@@ -5233,16 +5407,19 @@
         <v>-6600</v>
       </c>
       <c r="Y72" s="3">
-        <v>-6800</v>
+        <v>-6600</v>
       </c>
       <c r="Z72" s="3">
         <v>-6800</v>
       </c>
       <c r="AA72" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="AB72" s="3">
         <v>-6700</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,73 +5655,76 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4000</v>
+        <v>4400</v>
       </c>
       <c r="E76" s="3">
-        <v>4400</v>
+        <v>3900</v>
       </c>
       <c r="F76" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G76" s="3">
+        <v>4800</v>
+      </c>
+      <c r="H76" s="3">
         <v>4900</v>
       </c>
-      <c r="G76" s="3">
-        <v>5000</v>
-      </c>
-      <c r="H76" s="3">
-        <v>8000</v>
-      </c>
       <c r="I76" s="3">
-        <v>4700</v>
+        <v>7700</v>
       </c>
       <c r="J76" s="3">
         <v>4500</v>
       </c>
       <c r="K76" s="3">
+        <v>4500</v>
+      </c>
+      <c r="L76" s="3">
         <v>4300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>400</v>
       </c>
-      <c r="U76" s="3">
-        <v>0</v>
-      </c>
       <c r="V76" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="W76" s="3">
         <v>-500</v>
       </c>
       <c r="X76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="Y76" s="3">
         <v>-400</v>
@@ -5549,8 +5735,11 @@
       <c r="AA76" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,150 +5815,156 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-800</v>
+        <v>-1200</v>
       </c>
       <c r="E81" s="3">
-        <v>-500</v>
+        <v>-700</v>
       </c>
       <c r="F81" s="3">
         <v>-500</v>
       </c>
       <c r="G81" s="3">
-        <v>-2500</v>
+        <v>-500</v>
       </c>
       <c r="H81" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2000</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-3500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-600</v>
       </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
       <c r="W81" s="3">
         <v>0</v>
       </c>
@@ -5785,8 +5980,11 @@
       <c r="AA81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,25 +6012,26 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>200</v>
+      </c>
+      <c r="E83" s="3">
         <v>300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>200</v>
       </c>
-      <c r="F83" s="3">
-        <v>300</v>
-      </c>
       <c r="G83" s="3">
+        <v>200</v>
+      </c>
+      <c r="H83" s="3">
         <v>400</v>
-      </c>
-      <c r="H83" s="3">
-        <v>100</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
@@ -5844,7 +6043,7 @@
         <v>100</v>
       </c>
       <c r="L83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -5870,8 +6069,8 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>4</v>
+      <c r="U83" s="3">
+        <v>0</v>
       </c>
       <c r="V83" s="3" t="s">
         <v>4</v>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,68 +6490,71 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
       <c r="W89" s="3">
         <v>0</v>
       </c>
@@ -6353,8 +6570,11 @@
       <c r="AA89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,35 +6602,36 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
       </c>
       <c r="G91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
@@ -6420,26 +6641,26 @@
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P91" s="3">
         <v>-2100</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S91" s="3">
-        <v>-100</v>
+      <c r="S91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>4</v>
+      <c r="U91" s="3">
+        <v>-100</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>4</v>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,37 +6840,40 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E94" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>900</v>
+      </c>
+      <c r="G94" s="3">
         <v>800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-200</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-100</v>
       </c>
       <c r="K94" s="3">
         <v>-100</v>
       </c>
       <c r="L94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -6652,26 +6882,26 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-2500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-400</v>
-      </c>
-      <c r="R94" s="3">
-        <v>-900</v>
       </c>
       <c r="S94" s="3">
         <v>-900</v>
       </c>
       <c r="T94" s="3">
+        <v>-900</v>
+      </c>
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V94" s="3" t="s">
         <v>4</v>
       </c>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,68 +7270,71 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-400</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>400</v>
+      </c>
+      <c r="J100" s="3">
         <v>200</v>
-      </c>
-      <c r="J100" s="3">
-        <v>600</v>
       </c>
       <c r="K100" s="3">
         <v>600</v>
       </c>
       <c r="L100" s="3">
+        <v>600</v>
+      </c>
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>4200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>200</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
         <v>0</v>
       </c>
@@ -7104,26 +7350,29 @@
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E101" s="3">
         <v>200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
@@ -7131,14 +7380,14 @@
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
@@ -7157,8 +7406,8 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>4</v>
+      <c r="T101" s="3">
+        <v>0</v>
       </c>
       <c r="U101" s="3" t="s">
         <v>4</v>
@@ -7172,8 +7421,8 @@
       <c r="X101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y101" s="3">
-        <v>0</v>
+      <c r="Y101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z101" s="3">
         <v>0</v>
@@ -7181,37 +7430,40 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-300</v>
-      </c>
-      <c r="J102" s="3">
-        <v>400</v>
       </c>
       <c r="K102" s="3">
         <v>400</v>
       </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
@@ -7220,29 +7472,29 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-2600</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>100</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
         <v>0</v>
       </c>
@@ -7256,6 +7508,9 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LVRLF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LVRLF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="92">
   <si>
     <t>LVRLF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,160 +665,167 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="E8" s="3">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="F8" s="3">
-        <v>2600</v>
+        <v>2100</v>
       </c>
       <c r="G8" s="3">
-        <v>2900</v>
+        <v>2400</v>
       </c>
       <c r="H8" s="3">
         <v>2500</v>
       </c>
       <c r="I8" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K8" s="3">
         <v>2100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>200</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
+      <c r="O8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
@@ -856,52 +863,58 @@
       <c r="AB8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G9" s="3">
         <v>1700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="H9" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J9" s="3">
         <v>1700</v>
       </c>
-      <c r="F9" s="3">
-        <v>1900</v>
-      </c>
-      <c r="G9" s="3">
-        <v>2000</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1700</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>100</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>0</v>
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R9" s="3">
         <v>0</v>
@@ -915,11 +928,11 @@
       <c r="U9" s="3">
         <v>0</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W9" s="3" t="s">
-        <v>4</v>
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3">
+        <v>0</v>
       </c>
       <c r="X9" s="3" t="s">
         <v>4</v>
@@ -936,52 +949,58 @@
       <c r="AB9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E10" s="3">
         <v>700</v>
       </c>
       <c r="F10" s="3">
+        <v>500</v>
+      </c>
+      <c r="G10" s="3">
         <v>700</v>
       </c>
-      <c r="G10" s="3">
-        <v>800</v>
-      </c>
       <c r="H10" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="I10" s="3">
         <v>800</v>
       </c>
       <c r="J10" s="3">
+        <v>700</v>
+      </c>
+      <c r="K10" s="3">
+        <v>800</v>
+      </c>
+      <c r="L10" s="3">
         <v>600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>100</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>0</v>
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R10" s="3">
         <v>0</v>
@@ -995,11 +1014,11 @@
       <c r="U10" s="3">
         <v>0</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W10" s="3" t="s">
-        <v>4</v>
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3">
+        <v>0</v>
       </c>
       <c r="X10" s="3" t="s">
         <v>4</v>
@@ -1016,8 +1035,14 @@
       <c r="AB10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1071,10 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,8 +1153,14 @@
       <c r="AB12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1239,14 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1221,16 +1260,16 @@
         <v>100</v>
       </c>
       <c r="G14" s="3">
+        <v>100</v>
+      </c>
+      <c r="H14" s="3">
+        <v>100</v>
+      </c>
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>500</v>
-      </c>
-      <c r="I14" s="3">
-        <v>100</v>
-      </c>
-      <c r="J14" s="3">
-        <v>100</v>
       </c>
       <c r="K14" s="3">
         <v>100</v>
@@ -1239,55 +1278,61 @@
         <v>100</v>
       </c>
       <c r="M14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N14" s="3">
-        <v>300</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3">
         <v>300</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3">
         <v>300</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>4</v>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>4</v>
+      <c r="Z14" s="3">
+        <v>0</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1295,22 +1340,22 @@
         <v>200</v>
       </c>
       <c r="E15" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F15" s="3">
         <v>200</v>
       </c>
       <c r="G15" s="3">
+        <v>300</v>
+      </c>
+      <c r="H15" s="3">
         <v>200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
+        <v>200</v>
+      </c>
+      <c r="J15" s="3">
         <v>400</v>
-      </c>
-      <c r="I15" s="3">
-        <v>100</v>
-      </c>
-      <c r="J15" s="3">
-        <v>100</v>
       </c>
       <c r="K15" s="3">
         <v>100</v>
@@ -1319,13 +1364,13 @@
         <v>100</v>
       </c>
       <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="N15" s="3">
+        <v>100</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>4</v>
@@ -1333,26 +1378,26 @@
       <c r="Q15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
+      <c r="R15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>4</v>
+      <c r="T15" s="3">
+        <v>0</v>
       </c>
       <c r="U15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
+      <c r="V15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X15" s="3" t="s">
-        <v>4</v>
+      <c r="X15" s="3">
+        <v>0</v>
       </c>
       <c r="Y15" s="3" t="s">
         <v>4</v>
@@ -1366,8 +1411,14 @@
       <c r="AB15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,74 +1444,76 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3400</v>
+        <v>2900</v>
       </c>
       <c r="E17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="G17" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H17" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I17" s="3">
         <v>3100</v>
       </c>
-      <c r="F17" s="3">
-        <v>3000</v>
-      </c>
-      <c r="G17" s="3">
-        <v>3200</v>
-      </c>
-      <c r="H17" s="3">
-        <v>4100</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
+        <v>4000</v>
+      </c>
+      <c r="K17" s="3">
         <v>2400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1600</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
         <v>800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>4700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>3500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>2700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>600</v>
       </c>
-      <c r="W17" s="3">
-        <v>0</v>
-      </c>
-      <c r="X17" s="3">
-        <v>0</v>
-      </c>
       <c r="Y17" s="3">
         <v>0</v>
       </c>
@@ -1473,74 +1526,80 @@
       <c r="AB17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="S18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="T18" s="3">
         <v>-1200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="U18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="V18" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="W18" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="X18" s="3">
         <v>-600</v>
       </c>
-      <c r="F18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-600</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-800</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="V18" s="3">
-        <v>-600</v>
-      </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
-      <c r="X18" s="3">
-        <v>0</v>
-      </c>
       <c r="Y18" s="3">
         <v>0</v>
       </c>
@@ -1553,8 +1612,14 @@
       <c r="AB18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,8 +1648,10 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1595,50 +1662,50 @@
         <v>100</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>100</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>100</v>
+      </c>
+      <c r="J20" s="3">
         <v>-400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
+      <c r="O20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
@@ -1663,71 +1730,77 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-900</v>
+        <v>-200</v>
       </c>
       <c r="E21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
       <c r="J21" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1600</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-1000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-1100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-3500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-2700</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1743,43 +1816,49 @@
       <c r="AB21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E22" s="3">
         <v>200</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
       </c>
       <c r="I22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>200</v>
       </c>
       <c r="L22" s="3">
+        <v>200</v>
+      </c>
+      <c r="M22" s="3">
+        <v>200</v>
+      </c>
+      <c r="N22" s="3">
         <v>400</v>
-      </c>
-      <c r="M22" s="3">
-        <v>100</v>
-      </c>
-      <c r="N22" s="3">
-        <v>100</v>
       </c>
       <c r="O22" s="3">
         <v>100</v>
@@ -1788,109 +1867,115 @@
         <v>100</v>
       </c>
       <c r="Q22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R22" s="3">
-        <v>0</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
-      <c r="V22" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y22" s="3" t="s">
-        <v>4</v>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
       </c>
       <c r="Z22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA22" s="3">
-        <v>0</v>
+      <c r="AA22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1300</v>
+        <v>-700</v>
       </c>
       <c r="E23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G23" s="3">
         <v>-800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="H23" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-2100</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-1000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-1100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-3500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-2700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-600</v>
       </c>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
-      <c r="X23" s="3">
-        <v>0</v>
-      </c>
       <c r="Y23" s="3">
         <v>0</v>
       </c>
@@ -1903,8 +1988,14 @@
       <c r="AB23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1921,25 +2012,25 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>4</v>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>4</v>
@@ -1953,11 +2044,11 @@
       <c r="R24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
-      <c r="T24" s="3">
-        <v>0</v>
+      <c r="S24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U24" s="3">
         <v>0</v>
@@ -1983,8 +2074,14 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,74 +2160,80 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1300</v>
+        <v>-700</v>
       </c>
       <c r="E26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-800</v>
       </c>
-      <c r="F26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-800</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-1000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-1100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-3500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-2700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-600</v>
       </c>
-      <c r="W26" s="3">
-        <v>0</v>
-      </c>
-      <c r="X26" s="3">
-        <v>0</v>
-      </c>
       <c r="Y26" s="3">
         <v>0</v>
       </c>
@@ -2143,74 +2246,80 @@
       <c r="AB26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-500</v>
       </c>
-      <c r="H27" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-2000</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-1000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-1100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-3500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-2700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-600</v>
       </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
-      <c r="X27" s="3">
-        <v>0</v>
-      </c>
       <c r="Y27" s="3">
         <v>0</v>
       </c>
@@ -2223,8 +2332,14 @@
       <c r="AB27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2418,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2504,14 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2590,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,8 +2676,14 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2555,50 +2694,50 @@
         <v>-100</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G32" s="3">
         <v>-100</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J32" s="3">
         <v>400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
+      <c r="O32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
@@ -2623,74 +2762,80 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-500</v>
       </c>
-      <c r="H33" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-2000</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-1000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-1100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-3500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-2700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-600</v>
       </c>
-      <c r="W33" s="3">
-        <v>0</v>
-      </c>
-      <c r="X33" s="3">
-        <v>0</v>
-      </c>
       <c r="Y33" s="3">
         <v>0</v>
       </c>
@@ -2703,8 +2848,14 @@
       <c r="AB33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,74 +2934,80 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-500</v>
       </c>
-      <c r="H35" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-2000</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-1000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-1100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-3500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-2700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-600</v>
       </c>
-      <c r="W35" s="3">
-        <v>0</v>
-      </c>
-      <c r="X35" s="3">
-        <v>0</v>
-      </c>
       <c r="Y35" s="3">
         <v>0</v>
       </c>
@@ -2863,93 +3020,105 @@
       <c r="AB35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3147,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,74 +3179,76 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>300</v>
+      </c>
+      <c r="E41" s="3">
         <v>500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
+        <v>500</v>
+      </c>
+      <c r="G41" s="3">
         <v>700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
         <v>100</v>
       </c>
       <c r="S41" s="3">
+        <v>100</v>
+      </c>
+      <c r="T41" s="3">
+        <v>100</v>
+      </c>
+      <c r="U41" s="3">
         <v>1100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>2400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>100</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y41" s="3" t="s">
         <v>4</v>
       </c>
@@ -3088,8 +3261,14 @@
       <c r="AB41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,23 +3347,29 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>300</v>
+      </c>
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
@@ -3206,38 +3391,38 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
+      <c r="O43" s="3">
+        <v>0</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
         <v>100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>100</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
-      </c>
-      <c r="T43" s="3">
-        <v>0</v>
-      </c>
       <c r="U43" s="3">
         <v>0</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="3">
-        <v>0</v>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z43" s="3">
         <v>0</v>
@@ -3248,19 +3433,25 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>600</v>
+      </c>
+      <c r="E44" s="3">
+        <v>600</v>
+      </c>
+      <c r="F44" s="3">
         <v>500</v>
-      </c>
-      <c r="E44" s="3">
-        <v>500</v>
-      </c>
-      <c r="F44" s="3">
-        <v>400</v>
       </c>
       <c r="G44" s="3">
         <v>500</v>
@@ -3272,20 +3463,20 @@
         <v>500</v>
       </c>
       <c r="J44" s="3">
+        <v>400</v>
+      </c>
+      <c r="K44" s="3">
+        <v>500</v>
+      </c>
+      <c r="L44" s="3">
         <v>300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>100</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>4</v>
       </c>
@@ -3298,11 +3489,11 @@
       <c r="R44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S44" s="3">
-        <v>0</v>
-      </c>
-      <c r="T44" s="3">
-        <v>0</v>
+      <c r="S44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U44" s="3">
         <v>0</v>
@@ -3328,71 +3519,77 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>900</v>
+      </c>
+      <c r="E45" s="3">
         <v>1100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H45" s="3">
         <v>1200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="I45" s="3">
         <v>1200</v>
       </c>
-      <c r="G45" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>400</v>
-      </c>
-      <c r="J45" s="3">
-        <v>200</v>
-      </c>
-      <c r="K45" s="3">
-        <v>200</v>
       </c>
       <c r="L45" s="3">
         <v>200</v>
       </c>
       <c r="M45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O45" s="3">
         <v>300</v>
       </c>
       <c r="P45" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>300</v>
+      </c>
+      <c r="R45" s="3">
         <v>400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>1500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>1500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>1000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>100</v>
       </c>
-      <c r="V45" s="3">
-        <v>0</v>
-      </c>
-      <c r="W45" s="3">
-        <v>0</v>
-      </c>
       <c r="X45" s="3">
         <v>0</v>
       </c>
@@ -3408,74 +3605,80 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2400</v>
+        <v>2100</v>
       </c>
       <c r="E46" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="F46" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="G46" s="3">
         <v>2300</v>
       </c>
       <c r="H46" s="3">
-        <v>1600</v>
+        <v>2300</v>
       </c>
       <c r="I46" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J46" s="3">
         <v>1500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L46" s="3">
         <v>1100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>800</v>
-      </c>
-      <c r="M46" s="3">
-        <v>400</v>
-      </c>
-      <c r="N46" s="3">
-        <v>300</v>
       </c>
       <c r="O46" s="3">
         <v>400</v>
       </c>
       <c r="P46" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q46" s="3">
         <v>400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
+        <v>400</v>
+      </c>
+      <c r="S46" s="3">
         <v>1700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>2100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>3100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>100</v>
       </c>
-      <c r="W46" s="3">
-        <v>0</v>
-      </c>
-      <c r="X46" s="3">
-        <v>0</v>
-      </c>
       <c r="Y46" s="3">
         <v>0</v>
       </c>
@@ -3488,8 +3691,14 @@
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3521,10 +3730,10 @@
         <v>0</v>
       </c>
       <c r="M47" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="N47" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="O47" s="3">
         <v>400</v>
@@ -3533,23 +3742,23 @@
         <v>400</v>
       </c>
       <c r="Q47" s="3">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="R47" s="3">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="S47" s="3">
         <v>800</v>
       </c>
       <c r="T47" s="3">
+        <v>800</v>
+      </c>
+      <c r="U47" s="3">
+        <v>800</v>
+      </c>
+      <c r="V47" s="3">
         <v>400</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W47" s="3" t="s">
         <v>4</v>
       </c>
@@ -3559,64 +3768,70 @@
       <c r="Y47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z47" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA47" s="3">
-        <v>0</v>
+      <c r="Z47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F48" s="3">
+        <v>5700</v>
+      </c>
+      <c r="G48" s="3">
         <v>5900</v>
       </c>
-      <c r="E48" s="3">
-        <v>6200</v>
-      </c>
-      <c r="F48" s="3">
-        <v>6600</v>
-      </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
+        <v>6300</v>
+      </c>
+      <c r="I48" s="3">
+        <v>6400</v>
+      </c>
+      <c r="J48" s="3">
         <v>6700</v>
       </c>
-      <c r="H48" s="3">
-        <v>6900</v>
-      </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>7000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>5900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>5800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>5800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>3100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>2900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>3000</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>100</v>
-      </c>
-      <c r="R48" s="3">
-        <v>100</v>
       </c>
       <c r="S48" s="3">
         <v>100</v>
@@ -3628,13 +3843,13 @@
         <v>100</v>
       </c>
       <c r="V48" s="3">
-        <v>0</v>
-      </c>
-      <c r="W48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X48" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="W48" s="3">
+        <v>100</v>
+      </c>
+      <c r="X48" s="3">
+        <v>0</v>
       </c>
       <c r="Y48" s="3" t="s">
         <v>4</v>
@@ -3648,44 +3863,50 @@
       <c r="AB48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F49" s="3">
+        <v>4100</v>
+      </c>
+      <c r="G49" s="3">
+        <v>4100</v>
+      </c>
+      <c r="H49" s="3">
+        <v>4100</v>
+      </c>
+      <c r="I49" s="3">
         <v>4200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="J49" s="3">
         <v>4200</v>
       </c>
-      <c r="F49" s="3">
-        <v>4300</v>
-      </c>
-      <c r="G49" s="3">
-        <v>4300</v>
-      </c>
-      <c r="H49" s="3">
+      <c r="K49" s="3">
+        <v>7000</v>
+      </c>
+      <c r="L49" s="3">
+        <v>5400</v>
+      </c>
+      <c r="M49" s="3">
+        <v>4500</v>
+      </c>
+      <c r="N49" s="3">
         <v>4400</v>
       </c>
-      <c r="I49" s="3">
-        <v>7000</v>
-      </c>
-      <c r="J49" s="3">
-        <v>5400</v>
-      </c>
-      <c r="K49" s="3">
-        <v>4500</v>
-      </c>
-      <c r="L49" s="3">
-        <v>4400</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>4</v>
       </c>
@@ -3698,11 +3919,11 @@
       <c r="R49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S49" s="3">
-        <v>0</v>
-      </c>
-      <c r="T49" s="3">
-        <v>0</v>
+      <c r="S49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U49" s="3">
         <v>0</v>
@@ -3728,8 +3949,14 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4035,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,44 +4121,50 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
       </c>
       <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3">
         <v>100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>100</v>
-      </c>
-      <c r="I52" s="3">
-        <v>200</v>
-      </c>
-      <c r="J52" s="3">
-        <v>200</v>
       </c>
       <c r="K52" s="3">
         <v>200</v>
       </c>
       <c r="L52" s="3">
+        <v>200</v>
+      </c>
+      <c r="M52" s="3">
+        <v>200</v>
+      </c>
+      <c r="N52" s="3">
         <v>300</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3938,11 +4177,11 @@
       <c r="R52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
-      </c>
-      <c r="T52" s="3">
-        <v>0</v>
+      <c r="S52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U52" s="3">
         <v>0</v>
@@ -3968,8 +4207,14 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,74 +4293,80 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>12300</v>
+      </c>
+      <c r="F54" s="3">
+        <v>12100</v>
+      </c>
+      <c r="G54" s="3">
+        <v>12400</v>
+      </c>
+      <c r="H54" s="3">
+        <v>12700</v>
+      </c>
+      <c r="I54" s="3">
+        <v>12900</v>
+      </c>
+      <c r="J54" s="3">
+        <v>12500</v>
+      </c>
+      <c r="K54" s="3">
+        <v>15600</v>
+      </c>
+      <c r="L54" s="3">
         <v>12600</v>
       </c>
-      <c r="E54" s="3">
-        <v>12800</v>
-      </c>
-      <c r="F54" s="3">
-        <v>13200</v>
-      </c>
-      <c r="G54" s="3">
-        <v>13300</v>
-      </c>
-      <c r="H54" s="3">
-        <v>13000</v>
-      </c>
-      <c r="I54" s="3">
-        <v>15600</v>
-      </c>
-      <c r="J54" s="3">
-        <v>12600</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>11700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>11300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>3900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>3600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>3600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>3900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>2600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>2600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>3000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>3500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>200</v>
       </c>
-      <c r="W54" s="3">
-        <v>0</v>
-      </c>
-      <c r="X54" s="3">
-        <v>0</v>
-      </c>
       <c r="Y54" s="3">
         <v>0</v>
       </c>
@@ -4128,8 +4379,14 @@
       <c r="AB54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4415,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,31 +4447,33 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="E57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F57" s="3">
         <v>2600</v>
-      </c>
-      <c r="F57" s="3">
-        <v>2500</v>
       </c>
       <c r="G57" s="3">
         <v>2500</v>
       </c>
       <c r="H57" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="I57" s="3">
-        <v>2100</v>
+        <v>2400</v>
       </c>
       <c r="J57" s="3">
-        <v>2100</v>
+        <v>2400</v>
       </c>
       <c r="K57" s="3">
         <v>2100</v>
@@ -4221,34 +4482,34 @@
         <v>2100</v>
       </c>
       <c r="M57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="N57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="O57" s="3">
         <v>1900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>200</v>
-      </c>
-      <c r="U57" s="3">
-        <v>100</v>
-      </c>
-      <c r="V57" s="3">
-        <v>100</v>
       </c>
       <c r="W57" s="3">
         <v>100</v>
@@ -4263,78 +4524,84 @@
         <v>100</v>
       </c>
       <c r="AA57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F58" s="3">
         <v>1300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="L58" s="3">
         <v>1900</v>
       </c>
-      <c r="F58" s="3">
-        <v>1800</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1300</v>
-      </c>
-      <c r="H58" s="3">
+      <c r="M58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N58" s="3">
+        <v>2100</v>
+      </c>
+      <c r="O58" s="3">
         <v>2300</v>
       </c>
-      <c r="I58" s="3">
-        <v>2300</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="P58" s="3">
         <v>1900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="Q58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R58" s="3">
         <v>2000</v>
       </c>
-      <c r="L58" s="3">
-        <v>2100</v>
-      </c>
-      <c r="M58" s="3">
-        <v>2300</v>
-      </c>
-      <c r="N58" s="3">
-        <v>1900</v>
-      </c>
-      <c r="O58" s="3">
-        <v>1400</v>
-      </c>
-      <c r="P58" s="3">
-        <v>2000</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>200</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T58" s="3">
         <v>0</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="U58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
       </c>
       <c r="W58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="X58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Y58" s="3">
         <v>300</v>
@@ -4348,13 +4615,19 @@
       <c r="AB58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E59" s="3">
         <v>200</v>
@@ -4363,28 +4636,28 @@
         <v>300</v>
       </c>
       <c r="G59" s="3">
+        <v>200</v>
+      </c>
+      <c r="H59" s="3">
         <v>300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
+        <v>300</v>
+      </c>
+      <c r="J59" s="3">
         <v>400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>400</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
+      <c r="N59" s="3">
+        <v>0</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>4</v>
@@ -4398,17 +4671,17 @@
       <c r="R59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S59" s="3">
-        <v>0</v>
-      </c>
-      <c r="T59" s="3">
-        <v>0</v>
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W59" s="3">
         <v>100</v>
@@ -4428,73 +4701,79 @@
       <c r="AB59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4300</v>
+        <v>4600</v>
       </c>
       <c r="E60" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F60" s="3">
+        <v>4100</v>
+      </c>
+      <c r="G60" s="3">
+        <v>4600</v>
+      </c>
+      <c r="H60" s="3">
+        <v>4400</v>
+      </c>
+      <c r="I60" s="3">
+        <v>3900</v>
+      </c>
+      <c r="J60" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K60" s="3">
+        <v>4500</v>
+      </c>
+      <c r="L60" s="3">
         <v>4700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="M60" s="3">
         <v>4600</v>
       </c>
-      <c r="G60" s="3">
-        <v>4100</v>
-      </c>
-      <c r="H60" s="3">
-        <v>5100</v>
-      </c>
-      <c r="I60" s="3">
-        <v>4500</v>
-      </c>
-      <c r="J60" s="3">
-        <v>4700</v>
-      </c>
-      <c r="K60" s="3">
-        <v>4600</v>
-      </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>4200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>4200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>3500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>3100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>100</v>
-      </c>
-      <c r="W60" s="3">
-        <v>500</v>
-      </c>
-      <c r="X60" s="3">
-        <v>500</v>
       </c>
       <c r="Y60" s="3">
         <v>500</v>
@@ -4503,64 +4782,70 @@
         <v>500</v>
       </c>
       <c r="AA60" s="3">
+        <v>500</v>
+      </c>
+      <c r="AB60" s="3">
+        <v>500</v>
+      </c>
+      <c r="AC60" s="3">
         <v>400</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3200</v>
+        <v>2900</v>
       </c>
       <c r="E61" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F61" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G61" s="3">
+        <v>3300</v>
+      </c>
+      <c r="H61" s="3">
         <v>3500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="I61" s="3">
         <v>3600</v>
       </c>
-      <c r="G61" s="3">
-        <v>3700</v>
-      </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K61" s="3">
         <v>2200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="L61" s="3">
+        <v>2300</v>
+      </c>
+      <c r="M61" s="3">
+        <v>2100</v>
+      </c>
+      <c r="N61" s="3">
         <v>2200</v>
       </c>
-      <c r="J61" s="3">
-        <v>2300</v>
-      </c>
-      <c r="K61" s="3">
-        <v>2100</v>
-      </c>
-      <c r="L61" s="3">
-        <v>2200</v>
-      </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>400</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -4588,13 +4873,19 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="E62" s="3">
         <v>100</v>
@@ -4603,17 +4894,17 @@
         <v>100</v>
       </c>
       <c r="G62" s="3">
+        <v>100</v>
+      </c>
+      <c r="H62" s="3">
+        <v>100</v>
+      </c>
+      <c r="I62" s="3">
+        <v>100</v>
+      </c>
+      <c r="J62" s="3">
         <v>200</v>
       </c>
-      <c r="H62" s="3">
-        <v>200</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4623,11 +4914,11 @@
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -4668,8 +4959,14 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5045,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5131,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,73 +5217,79 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8200</v>
+        <v>8800</v>
       </c>
       <c r="E66" s="3">
-        <v>8900</v>
+        <v>8600</v>
       </c>
       <c r="F66" s="3">
-        <v>9000</v>
+        <v>7900</v>
       </c>
       <c r="G66" s="3">
         <v>8600</v>
       </c>
       <c r="H66" s="3">
+        <v>8700</v>
+      </c>
+      <c r="I66" s="3">
+        <v>8200</v>
+      </c>
+      <c r="J66" s="3">
+        <v>7800</v>
+      </c>
+      <c r="K66" s="3">
+        <v>7900</v>
+      </c>
+      <c r="L66" s="3">
         <v>8100</v>
       </c>
-      <c r="I66" s="3">
-        <v>7900</v>
-      </c>
-      <c r="J66" s="3">
-        <v>8100</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>7200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>7000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>5100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>4400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>3800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>3600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>100</v>
-      </c>
-      <c r="W66" s="3">
-        <v>500</v>
-      </c>
-      <c r="X66" s="3">
-        <v>500</v>
       </c>
       <c r="Y66" s="3">
         <v>500</v>
@@ -4983,13 +5298,19 @@
         <v>500</v>
       </c>
       <c r="AA66" s="3">
+        <v>500</v>
+      </c>
+      <c r="AB66" s="3">
+        <v>500</v>
+      </c>
+      <c r="AC66" s="3">
         <v>400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5339,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5421,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5507,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5593,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5679,100 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-25100</v>
+        <v>-25400</v>
       </c>
       <c r="E72" s="3">
-        <v>-23600</v>
+        <v>-24700</v>
       </c>
       <c r="F72" s="3">
-        <v>-23100</v>
+        <v>-24200</v>
       </c>
       <c r="G72" s="3">
-        <v>-22600</v>
+        <v>-22700</v>
       </c>
       <c r="H72" s="3">
-        <v>-21600</v>
+        <v>-22300</v>
       </c>
       <c r="I72" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-19700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-19300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-19400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-18500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-16900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-16800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-16000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-16200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-13400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-12500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-11200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-10000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-9800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-7200</v>
-      </c>
-      <c r="W72" s="3">
-        <v>-6600</v>
-      </c>
-      <c r="X72" s="3">
-        <v>-6600</v>
       </c>
       <c r="Y72" s="3">
         <v>-6600</v>
       </c>
       <c r="Z72" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="AA72" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="AB72" s="3">
         <v>-6800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-6800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-6700</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5851,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5937,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,79 +6023,85 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4400</v>
+        <v>3000</v>
       </c>
       <c r="E76" s="3">
-        <v>3900</v>
+        <v>3600</v>
       </c>
       <c r="F76" s="3">
         <v>4200</v>
       </c>
       <c r="G76" s="3">
-        <v>4800</v>
+        <v>3700</v>
       </c>
       <c r="H76" s="3">
-        <v>4900</v>
+        <v>4100</v>
       </c>
       <c r="I76" s="3">
+        <v>4600</v>
+      </c>
+      <c r="J76" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K76" s="3">
         <v>7700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>4500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>4500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>4300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-1100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>2100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>2700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>3300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>400</v>
       </c>
-      <c r="V76" s="3">
-        <v>0</v>
-      </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y76" s="3">
         <v>-500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-500</v>
-      </c>
-      <c r="Y76" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Z76" s="3">
-        <v>-400</v>
       </c>
       <c r="AA76" s="3">
         <v>-400</v>
@@ -5738,8 +6109,14 @@
       <c r="AB76" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AD76" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,159 +6195,171 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-500</v>
       </c>
-      <c r="H81" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-2000</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-1000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-1100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-3500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-2700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-600</v>
       </c>
-      <c r="W81" s="3">
-        <v>0</v>
-      </c>
-      <c r="X81" s="3">
-        <v>0</v>
-      </c>
       <c r="Y81" s="3">
         <v>0</v>
       </c>
@@ -5983,8 +6372,14 @@
       <c r="AB81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6408,10 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6022,22 +6419,22 @@
         <v>200</v>
       </c>
       <c r="E83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F83" s="3">
         <v>200</v>
       </c>
       <c r="G83" s="3">
+        <v>300</v>
+      </c>
+      <c r="H83" s="3">
         <v>200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
+        <v>200</v>
+      </c>
+      <c r="J83" s="3">
         <v>400</v>
-      </c>
-      <c r="I83" s="3">
-        <v>100</v>
-      </c>
-      <c r="J83" s="3">
-        <v>100</v>
       </c>
       <c r="K83" s="3">
         <v>100</v>
@@ -6046,10 +6443,10 @@
         <v>100</v>
       </c>
       <c r="M83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -6072,11 +6469,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W83" s="3" t="s">
-        <v>4</v>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
+        <v>0</v>
       </c>
       <c r="X83" s="3" t="s">
         <v>4</v>
@@ -6093,8 +6490,14 @@
       <c r="AB83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6576,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6662,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6748,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6834,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,74 +6920,80 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>-200</v>
       </c>
       <c r="M89" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="N89" s="3">
         <v>-200</v>
       </c>
       <c r="O89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
-      <c r="X89" s="3">
-        <v>0</v>
-      </c>
       <c r="Y89" s="3">
         <v>0</v>
       </c>
@@ -6573,8 +7006,14 @@
       <c r="AB89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,25 +7042,27 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-200</v>
       </c>
       <c r="I91" s="3">
         <v>-100</v>
@@ -6632,11 +7073,11 @@
       <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
+      <c r="L91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-100</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>4</v>
@@ -6644,30 +7085,30 @@
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R91" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-100</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X91" s="3" t="s">
         <v>4</v>
       </c>
@@ -6683,8 +7124,14 @@
       <c r="AB91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7210,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,28 +7296,34 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>800</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-100</v>
       </c>
       <c r="J94" s="3">
         <v>-200</v>
@@ -6873,41 +7332,41 @@
         <v>-100</v>
       </c>
       <c r="L94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-100</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X94" s="3" t="s">
         <v>4</v>
       </c>
@@ -6923,8 +7382,14 @@
       <c r="AB94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7418,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7500,14 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7586,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7672,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,74 +7758,80 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
         <v>200</v>
       </c>
       <c r="F100" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G100" s="3">
+        <v>200</v>
+      </c>
+      <c r="H100" s="3">
         <v>-300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-400</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>2300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>400</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>4200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>200</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
       <c r="Y100" s="3">
         <v>0</v>
       </c>
@@ -7353,47 +7844,53 @@
       <c r="AB100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F101" s="3">
         <v>-200</v>
-      </c>
-      <c r="E101" s="3">
-        <v>200</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-100</v>
       </c>
       <c r="G101" s="3">
         <v>100</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>100</v>
+      </c>
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
@@ -7409,11 +7906,11 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V101" s="3" t="s">
-        <v>4</v>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
       </c>
       <c r="W101" s="3" t="s">
         <v>4</v>
@@ -7424,83 +7921,89 @@
       <c r="Y101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z101" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA101" s="3">
-        <v>0</v>
+      <c r="Z101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>200</v>
-      </c>
       <c r="G102" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="H102" s="3">
         <v>200</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="J102" s="3">
+        <v>200</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>400</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-1400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>2400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>100</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
       <c r="Y102" s="3">
         <v>0</v>
       </c>
@@ -7511,6 +8014,12 @@
         <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LVRLF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LVRLF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
   <si>
     <t>LVRLF</t>
   </si>
@@ -801,10 +801,10 @@
         <v>2400</v>
       </c>
       <c r="H8" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="I8" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="J8" s="3">
         <v>2400</v>
@@ -878,7 +878,7 @@
         <v>1800</v>
       </c>
       <c r="E9" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="F9" s="3">
         <v>1600</v>
@@ -887,10 +887,10 @@
         <v>1700</v>
       </c>
       <c r="H9" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="I9" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="J9" s="3">
         <v>1700</v>
@@ -964,7 +964,7 @@
         <v>700</v>
       </c>
       <c r="E10" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F10" s="3">
         <v>500</v>
@@ -1452,25 +1452,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="E17" s="3">
         <v>3200</v>
       </c>
       <c r="F17" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="G17" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="H17" s="3">
         <v>2900</v>
       </c>
       <c r="I17" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="J17" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="K17" s="3">
         <v>2400</v>
@@ -1544,7 +1544,7 @@
         <v>-500</v>
       </c>
       <c r="F18" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="G18" s="3">
         <v>-600</v>
@@ -1748,7 +1748,7 @@
         <v>-100</v>
       </c>
       <c r="F21" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="G21" s="3">
         <v>-300</v>
@@ -1760,7 +1760,7 @@
         <v>-100</v>
       </c>
       <c r="J21" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="K21" s="3">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>-500</v>
       </c>
       <c r="F23" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="G23" s="3">
         <v>-800</v>
@@ -1932,7 +1932,7 @@
         <v>-400</v>
       </c>
       <c r="J23" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="K23" s="3">
         <v>-300</v>
@@ -2178,10 +2178,10 @@
         <v>-500</v>
       </c>
       <c r="F26" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="G26" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="H26" s="3">
         <v>-500</v>
@@ -2261,7 +2261,7 @@
         <v>-700</v>
       </c>
       <c r="E27" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="F27" s="3">
         <v>-1200</v>
@@ -2276,7 +2276,7 @@
         <v>-500</v>
       </c>
       <c r="J27" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="K27" s="3">
         <v>-400</v>
@@ -2777,7 +2777,7 @@
         <v>-700</v>
       </c>
       <c r="E33" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="F33" s="3">
         <v>-1200</v>
@@ -2792,7 +2792,7 @@
         <v>-500</v>
       </c>
       <c r="J33" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="K33" s="3">
         <v>-400</v>
@@ -2949,7 +2949,7 @@
         <v>-700</v>
       </c>
       <c r="E35" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="F35" s="3">
         <v>-1200</v>
@@ -2964,7 +2964,7 @@
         <v>-500</v>
       </c>
       <c r="J35" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="K35" s="3">
         <v>-400</v>
@@ -3534,7 +3534,7 @@
         <v>900</v>
       </c>
       <c r="E45" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="F45" s="3">
         <v>1100</v>
@@ -3617,25 +3617,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="E46" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="F46" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="G46" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="H46" s="3">
         <v>2300</v>
       </c>
       <c r="I46" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="J46" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K46" s="3">
         <v>1500</v>
@@ -3789,25 +3789,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="E48" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="F48" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="G48" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="H48" s="3">
-        <v>6300</v>
+        <v>6500</v>
       </c>
       <c r="I48" s="3">
-        <v>6400</v>
+        <v>6600</v>
       </c>
       <c r="J48" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="K48" s="3">
         <v>7000</v>
@@ -3875,25 +3875,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="E49" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="F49" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="G49" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="H49" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="I49" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="J49" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="K49" s="3">
         <v>7000</v>
@@ -4305,25 +4305,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>11800</v>
+        <v>12100</v>
       </c>
       <c r="E54" s="3">
-        <v>12300</v>
+        <v>12500</v>
       </c>
       <c r="F54" s="3">
-        <v>12100</v>
+        <v>12400</v>
       </c>
       <c r="G54" s="3">
-        <v>12400</v>
+        <v>12700</v>
       </c>
       <c r="H54" s="3">
-        <v>12700</v>
+        <v>13000</v>
       </c>
       <c r="I54" s="3">
-        <v>12900</v>
+        <v>13200</v>
       </c>
       <c r="J54" s="3">
-        <v>12500</v>
+        <v>12800</v>
       </c>
       <c r="K54" s="3">
         <v>15600</v>
@@ -4455,7 +4455,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="E57" s="3">
         <v>2900</v>
@@ -4464,16 +4464,16 @@
         <v>2600</v>
       </c>
       <c r="G57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H57" s="3">
         <v>2500</v>
-      </c>
-      <c r="H57" s="3">
-        <v>2400</v>
       </c>
       <c r="I57" s="3">
         <v>2400</v>
       </c>
       <c r="J57" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="K57" s="3">
         <v>2100</v>
@@ -4550,7 +4550,7 @@
         <v>1300</v>
       </c>
       <c r="G58" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="H58" s="3">
         <v>1800</v>
@@ -4630,7 +4630,7 @@
         <v>200</v>
       </c>
       <c r="E59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F59" s="3">
         <v>300</v>
@@ -4713,25 +4713,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="E60" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="F60" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="G60" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="H60" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="I60" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="J60" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="K60" s="3">
         <v>4500</v>
@@ -4799,22 +4799,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="E61" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="F61" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="G61" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="H61" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="I61" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="J61" s="3">
         <v>2100</v>
@@ -4900,7 +4900,7 @@
         <v>100</v>
       </c>
       <c r="I62" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J62" s="3">
         <v>200</v>
@@ -5229,25 +5229,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E66" s="3">
         <v>8800</v>
       </c>
-      <c r="E66" s="3">
-        <v>8600</v>
-      </c>
       <c r="F66" s="3">
-        <v>7900</v>
+        <v>8100</v>
       </c>
       <c r="G66" s="3">
-        <v>8600</v>
+        <v>8800</v>
       </c>
       <c r="H66" s="3">
-        <v>8700</v>
+        <v>8900</v>
       </c>
       <c r="I66" s="3">
-        <v>8200</v>
+        <v>8400</v>
       </c>
       <c r="J66" s="3">
-        <v>7800</v>
+        <v>8000</v>
       </c>
       <c r="K66" s="3">
         <v>7900</v>
@@ -5691,25 +5691,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-25400</v>
+        <v>-26000</v>
       </c>
       <c r="E72" s="3">
+        <v>-25300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-24700</v>
       </c>
-      <c r="F72" s="3">
-        <v>-24200</v>
-      </c>
       <c r="G72" s="3">
-        <v>-22700</v>
+        <v>-23200</v>
       </c>
       <c r="H72" s="3">
+        <v>-22800</v>
+      </c>
+      <c r="I72" s="3">
         <v>-22300</v>
       </c>
-      <c r="I72" s="3">
-        <v>-21800</v>
-      </c>
       <c r="J72" s="3">
-        <v>-20800</v>
+        <v>-21300</v>
       </c>
       <c r="K72" s="3">
         <v>-19700</v>
@@ -6035,25 +6035,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="E76" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="F76" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G76" s="3">
+        <v>3800</v>
+      </c>
+      <c r="H76" s="3">
         <v>4200</v>
       </c>
-      <c r="G76" s="3">
-        <v>3700</v>
-      </c>
-      <c r="H76" s="3">
-        <v>4100</v>
-      </c>
       <c r="I76" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="J76" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="K76" s="3">
         <v>7700</v>
@@ -6301,7 +6301,7 @@
         <v>-700</v>
       </c>
       <c r="E81" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="F81" s="3">
         <v>-1200</v>
@@ -6316,7 +6316,7 @@
         <v>-500</v>
       </c>
       <c r="J81" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="K81" s="3">
         <v>-400</v>
@@ -7049,23 +7049,23 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-100</v>
-      </c>
       <c r="I91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="J91" s="3">
         <v>-200</v>
@@ -7311,7 +7311,7 @@
         <v>-300</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F94" s="3">
         <v>-200</v>

--- a/AAII_Financials/Quarterly/LVRLF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LVRLF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="92">
   <si>
     <t>LVRLF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,170 +665,174 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E8" s="3">
         <v>2500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>200</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
+      <c r="Q8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
@@ -869,55 +873,58 @@
       <c r="AD8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E9" s="3">
         <v>1800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>100</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R9" s="3">
-        <v>0</v>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S9" s="3">
         <v>0</v>
@@ -934,8 +941,8 @@
       <c r="W9" s="3">
         <v>0</v>
       </c>
-      <c r="X9" s="3" t="s">
-        <v>4</v>
+      <c r="X9" s="3">
+        <v>0</v>
       </c>
       <c r="Y9" s="3" t="s">
         <v>4</v>
@@ -955,8 +962,11 @@
       <c r="AD9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,46 +974,46 @@
         <v>700</v>
       </c>
       <c r="E10" s="3">
+        <v>700</v>
+      </c>
+      <c r="F10" s="3">
         <v>800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>500</v>
-      </c>
-      <c r="G10" s="3">
-        <v>700</v>
       </c>
       <c r="H10" s="3">
         <v>700</v>
       </c>
       <c r="I10" s="3">
+        <v>700</v>
+      </c>
+      <c r="J10" s="3">
         <v>800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>100</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R10" s="3">
-        <v>0</v>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S10" s="3">
         <v>0</v>
@@ -1020,8 +1030,8 @@
       <c r="W10" s="3">
         <v>0</v>
       </c>
-      <c r="X10" s="3" t="s">
-        <v>4</v>
+      <c r="X10" s="3">
+        <v>0</v>
       </c>
       <c r="Y10" s="3" t="s">
         <v>4</v>
@@ -1041,8 +1051,11 @@
       <c r="AD10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,13 +1262,16 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
         <v>100</v>
@@ -1266,13 +1286,13 @@
         <v>100</v>
       </c>
       <c r="I14" s="3">
+        <v>100</v>
+      </c>
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>500</v>
-      </c>
-      <c r="K14" s="3">
-        <v>100</v>
       </c>
       <c r="L14" s="3">
         <v>100</v>
@@ -1284,43 +1304,43 @@
         <v>100</v>
       </c>
       <c r="O14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>300</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
         <v>300</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>300</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="3" t="s">
-        <v>4</v>
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
       </c>
       <c r="AB14" s="3" t="s">
         <v>4</v>
@@ -1328,11 +1348,14 @@
       <c r="AC14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AD14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1346,19 +1369,19 @@
         <v>200</v>
       </c>
       <c r="G15" s="3">
+        <v>200</v>
+      </c>
+      <c r="H15" s="3">
         <v>300</v>
-      </c>
-      <c r="H15" s="3">
-        <v>200</v>
       </c>
       <c r="I15" s="3">
         <v>200</v>
       </c>
       <c r="J15" s="3">
+        <v>200</v>
+      </c>
+      <c r="K15" s="3">
         <v>400</v>
-      </c>
-      <c r="K15" s="3">
-        <v>100</v>
       </c>
       <c r="L15" s="3">
         <v>100</v>
@@ -1370,10 +1393,10 @@
         <v>100</v>
       </c>
       <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>4</v>
@@ -1384,11 +1407,11 @@
       <c r="S15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>4</v>
+      <c r="T15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
       </c>
       <c r="V15" s="3" t="s">
         <v>4</v>
@@ -1396,11 +1419,11 @@
       <c r="W15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="3" t="s">
-        <v>4</v>
+      <c r="X15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
       </c>
       <c r="Z15" s="3" t="s">
         <v>4</v>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,77 +1472,78 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E17" s="3">
         <v>3000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2000</v>
-      </c>
-      <c r="M17" s="3">
-        <v>1600</v>
       </c>
       <c r="N17" s="3">
         <v>1600</v>
       </c>
       <c r="O17" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
         <v>800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>600</v>
       </c>
-      <c r="Y17" s="3">
-        <v>0</v>
-      </c>
       <c r="Z17" s="3">
         <v>0</v>
       </c>
@@ -1532,77 +1559,80 @@
       <c r="AD17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="E18" s="3">
         <v>-500</v>
       </c>
       <c r="F18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-300</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-200</v>
       </c>
       <c r="M18" s="3">
         <v>-200</v>
       </c>
       <c r="N18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O18" s="3">
         <v>-1500</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R18" s="3">
         <v>-600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-4700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-3500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-2700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-600</v>
       </c>
-      <c r="Y18" s="3">
-        <v>0</v>
-      </c>
       <c r="Z18" s="3">
         <v>0</v>
       </c>
@@ -1618,8 +1648,11 @@
       <c r="AD18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,13 +1683,14 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>100</v>
@@ -1668,34 +1702,34 @@
         <v>100</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
@@ -1704,11 +1738,11 @@
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
@@ -1736,8 +1770,11 @@
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1745,65 +1782,65 @@
         <v>-200</v>
       </c>
       <c r="E21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-300</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-100</v>
       </c>
       <c r="I21" s="3">
         <v>-100</v>
       </c>
       <c r="J21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-1700</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
       <c r="L21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M21" s="3">
         <v>-100</v>
       </c>
       <c r="N21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O21" s="3">
         <v>-1600</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3">
         <v>-600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-4800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-3500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-2700</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1822,16 +1859,19 @@
       <c r="AD21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
         <v>300</v>
-      </c>
-      <c r="E22" s="3">
-        <v>200</v>
       </c>
       <c r="F22" s="3">
         <v>200</v>
@@ -1840,7 +1880,7 @@
         <v>200</v>
       </c>
       <c r="H22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
@@ -1849,7 +1889,7 @@
         <v>100</v>
       </c>
       <c r="K22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>200</v>
@@ -1858,10 +1898,10 @@
         <v>200</v>
       </c>
       <c r="N22" s="3">
+        <v>200</v>
+      </c>
+      <c r="O22" s="3">
         <v>400</v>
-      </c>
-      <c r="O22" s="3">
-        <v>100</v>
       </c>
       <c r="P22" s="3">
         <v>100</v>
@@ -1873,19 +1913,19 @@
         <v>100</v>
       </c>
       <c r="S22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>4</v>
+      <c r="U22" s="3">
+        <v>0</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
+      <c r="W22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X22" s="3">
         <v>0</v>
@@ -1893,8 +1933,8 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-      <c r="Z22" s="3" t="s">
-        <v>4</v>
+      <c r="Z22" s="3">
+        <v>0</v>
       </c>
       <c r="AA22" s="3" t="s">
         <v>4</v>
@@ -1902,83 +1942,86 @@
       <c r="AB22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2100</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-4800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-3500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-2700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-600</v>
       </c>
-      <c r="Y23" s="3">
-        <v>0</v>
-      </c>
       <c r="Z23" s="3">
         <v>0</v>
       </c>
@@ -1994,8 +2037,11 @@
       <c r="AD23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2018,11 +2064,11 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
@@ -2032,8 +2078,8 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>4</v>
+      <c r="O24" s="3">
+        <v>0</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>4</v>
@@ -2050,8 +2096,8 @@
       <c r="T24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
+      <c r="U24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V24" s="3">
         <v>0</v>
@@ -2080,8 +2126,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,77 +2215,80 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-800</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-500</v>
       </c>
       <c r="I26" s="3">
         <v>-500</v>
       </c>
       <c r="J26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-2400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2000</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-4800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-3500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-2700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-600</v>
       </c>
-      <c r="Y26" s="3">
-        <v>0</v>
-      </c>
       <c r="Z26" s="3">
         <v>0</v>
       </c>
@@ -2252,77 +2304,80 @@
       <c r="AD26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-700</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-500</v>
       </c>
       <c r="I27" s="3">
         <v>-500</v>
       </c>
       <c r="J27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-2400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2000</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-4800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-3500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-2700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-600</v>
       </c>
-      <c r="Y27" s="3">
-        <v>0</v>
-      </c>
       <c r="Z27" s="3">
         <v>0</v>
       </c>
@@ -2338,8 +2393,11 @@
       <c r="AD27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,13 +2749,16 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>-100</v>
@@ -2700,34 +2770,34 @@
         <v>-100</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
@@ -2736,11 +2806,11 @@
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
@@ -2768,77 +2838,80 @@
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-700</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-500</v>
       </c>
       <c r="I33" s="3">
         <v>-500</v>
       </c>
       <c r="J33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-2400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2000</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-4800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-3500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-2700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-600</v>
       </c>
-      <c r="Y33" s="3">
-        <v>0</v>
-      </c>
       <c r="Z33" s="3">
         <v>0</v>
       </c>
@@ -2854,8 +2927,11 @@
       <c r="AD33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,77 +3016,80 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-700</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-500</v>
       </c>
       <c r="I35" s="3">
         <v>-500</v>
       </c>
       <c r="J35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-2400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2000</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-4800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-3500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-2700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-600</v>
       </c>
-      <c r="Y35" s="3">
-        <v>0</v>
-      </c>
       <c r="Z35" s="3">
         <v>0</v>
       </c>
@@ -3026,99 +3105,105 @@
       <c r="AD35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,55 +3267,56 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
-      </c>
-      <c r="E41" s="3">
-        <v>500</v>
       </c>
       <c r="F41" s="3">
         <v>500</v>
       </c>
       <c r="G41" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="H41" s="3">
         <v>700</v>
       </c>
       <c r="I41" s="3">
+        <v>700</v>
+      </c>
+      <c r="J41" s="3">
         <v>500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>800</v>
-      </c>
-      <c r="K41" s="3">
-        <v>600</v>
       </c>
       <c r="L41" s="3">
         <v>600</v>
       </c>
       <c r="M41" s="3">
+        <v>600</v>
+      </c>
+      <c r="N41" s="3">
         <v>900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
       <c r="R41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S41" s="3">
         <v>100</v>
@@ -3238,20 +3325,20 @@
         <v>100</v>
       </c>
       <c r="U41" s="3">
+        <v>100</v>
+      </c>
+      <c r="V41" s="3">
         <v>1100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>100</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z41" s="3" t="s">
         <v>4</v>
       </c>
@@ -3267,8 +3354,11 @@
       <c r="AD41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3353,8 +3443,11 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3365,14 +3458,14 @@
         <v>300</v>
       </c>
       <c r="F43" s="3">
+        <v>300</v>
+      </c>
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
       <c r="I43" s="3">
         <v>0</v>
       </c>
@@ -3397,20 +3490,20 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T43" s="3">
         <v>100</v>
       </c>
       <c r="U43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V43" s="3">
         <v>0</v>
@@ -3418,14 +3511,14 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>4</v>
+      <c r="X43" s="3">
+        <v>0</v>
       </c>
       <c r="Y43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z43" s="3">
-        <v>0</v>
+      <c r="Z43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA43" s="3">
         <v>0</v>
@@ -3439,47 +3532,50 @@
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E44" s="3">
         <v>600</v>
       </c>
       <c r="F44" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G44" s="3">
         <v>500</v>
       </c>
       <c r="H44" s="3">
+        <v>500</v>
+      </c>
+      <c r="I44" s="3">
         <v>400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>100</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P44" s="3" t="s">
         <v>4</v>
       </c>
@@ -3495,8 +3591,8 @@
       <c r="T44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U44" s="3">
-        <v>0</v>
+      <c r="U44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V44" s="3">
         <v>0</v>
@@ -3525,37 +3621,40 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>600</v>
+      </c>
+      <c r="E45" s="3">
         <v>900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1200</v>
-      </c>
-      <c r="F45" s="3">
-        <v>1100</v>
       </c>
       <c r="G45" s="3">
         <v>1100</v>
       </c>
       <c r="H45" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="I45" s="3">
         <v>1200</v>
       </c>
       <c r="J45" s="3">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="K45" s="3">
         <v>400</v>
       </c>
       <c r="L45" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="M45" s="3">
         <v>200</v>
@@ -3564,7 +3663,7 @@
         <v>200</v>
       </c>
       <c r="O45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P45" s="3">
         <v>300</v>
@@ -3573,26 +3672,26 @@
         <v>300</v>
       </c>
       <c r="R45" s="3">
+        <v>300</v>
+      </c>
+      <c r="S45" s="3">
         <v>400</v>
-      </c>
-      <c r="S45" s="3">
-        <v>1500</v>
       </c>
       <c r="T45" s="3">
         <v>1500</v>
       </c>
       <c r="U45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="V45" s="3">
         <v>1000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>100</v>
       </c>
-      <c r="X45" s="3">
-        <v>0</v>
-      </c>
       <c r="Y45" s="3">
         <v>0</v>
       </c>
@@ -3611,77 +3710,80 @@
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E46" s="3">
         <v>2200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2600</v>
-      </c>
-      <c r="F46" s="3">
-        <v>2400</v>
       </c>
       <c r="G46" s="3">
         <v>2400</v>
       </c>
       <c r="H46" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="I46" s="3">
         <v>2300</v>
       </c>
       <c r="J46" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K46" s="3">
         <v>1600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>300</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>400</v>
       </c>
       <c r="R46" s="3">
         <v>400</v>
       </c>
       <c r="S46" s="3">
-        <v>1700</v>
+        <v>400</v>
       </c>
       <c r="T46" s="3">
         <v>1700</v>
       </c>
       <c r="U46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="V46" s="3">
         <v>2100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>100</v>
       </c>
-      <c r="Y46" s="3">
-        <v>0</v>
-      </c>
       <c r="Z46" s="3">
         <v>0</v>
       </c>
@@ -3697,8 +3799,11 @@
       <c r="AD46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3736,7 +3841,7 @@
         <v>0</v>
       </c>
       <c r="O47" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="P47" s="3">
         <v>400</v>
@@ -3748,7 +3853,7 @@
         <v>400</v>
       </c>
       <c r="S47" s="3">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="T47" s="3">
         <v>800</v>
@@ -3757,11 +3862,11 @@
         <v>800</v>
       </c>
       <c r="V47" s="3">
+        <v>800</v>
+      </c>
+      <c r="W47" s="3">
         <v>400</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X47" s="3" t="s">
         <v>4</v>
       </c>
@@ -3774,8 +3879,8 @@
       <c r="AA47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB47" s="3">
-        <v>0</v>
+      <c r="AB47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AC47" s="3">
         <v>0</v>
@@ -3783,13 +3888,16 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="E48" s="3">
         <v>5800</v>
@@ -3798,43 +3906,43 @@
         <v>5800</v>
       </c>
       <c r="G48" s="3">
+        <v>5800</v>
+      </c>
+      <c r="H48" s="3">
         <v>6100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>6800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5900</v>
-      </c>
-      <c r="M48" s="3">
-        <v>5800</v>
       </c>
       <c r="N48" s="3">
         <v>5800</v>
       </c>
       <c r="O48" s="3">
+        <v>5800</v>
+      </c>
+      <c r="P48" s="3">
         <v>3100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3000</v>
-      </c>
-      <c r="S48" s="3">
-        <v>100</v>
       </c>
       <c r="T48" s="3">
         <v>100</v>
@@ -3849,10 +3957,10 @@
         <v>100</v>
       </c>
       <c r="X48" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y48" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>0</v>
       </c>
       <c r="Z48" s="3" t="s">
         <v>4</v>
@@ -3869,8 +3977,11 @@
       <c r="AD48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3878,7 +3989,7 @@
         <v>4100</v>
       </c>
       <c r="E49" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="F49" s="3">
         <v>4200</v>
@@ -3890,26 +4001,26 @@
         <v>4200</v>
       </c>
       <c r="I49" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="J49" s="3">
         <v>4300</v>
       </c>
       <c r="K49" s="3">
+        <v>4300</v>
+      </c>
+      <c r="L49" s="3">
         <v>7000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4400</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>4</v>
       </c>
@@ -3925,8 +4036,8 @@
       <c r="T49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U49" s="3">
-        <v>0</v>
+      <c r="U49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V49" s="3">
         <v>0</v>
@@ -3955,8 +4066,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,8 +4244,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4138,23 +4258,23 @@
       <c r="E52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="3">
-        <v>100</v>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J52" s="3">
         <v>100</v>
       </c>
       <c r="K52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L52" s="3">
         <v>200</v>
@@ -4163,11 +4283,11 @@
         <v>200</v>
       </c>
       <c r="N52" s="3">
+        <v>200</v>
+      </c>
+      <c r="O52" s="3">
         <v>300</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
@@ -4183,8 +4303,8 @@
       <c r="T52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U52" s="3">
-        <v>0</v>
+      <c r="U52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V52" s="3">
         <v>0</v>
@@ -4213,8 +4333,11 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,77 +4422,80 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E54" s="3">
         <v>12100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>12500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>12400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>12700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>13000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>13200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>12800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>15600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>12600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>11700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>11300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3900</v>
-      </c>
-      <c r="P54" s="3">
-        <v>3600</v>
       </c>
       <c r="Q54" s="3">
         <v>3600</v>
       </c>
       <c r="R54" s="3">
+        <v>3600</v>
+      </c>
+      <c r="S54" s="3">
         <v>3900</v>
-      </c>
-      <c r="S54" s="3">
-        <v>2600</v>
       </c>
       <c r="T54" s="3">
         <v>2600</v>
       </c>
       <c r="U54" s="3">
+        <v>2600</v>
+      </c>
+      <c r="V54" s="3">
         <v>3000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>200</v>
       </c>
-      <c r="Y54" s="3">
-        <v>0</v>
-      </c>
       <c r="Z54" s="3">
         <v>0</v>
       </c>
@@ -4385,8 +4511,11 @@
       <c r="AD54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,34 +4579,35 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="E57" s="3">
         <v>2900</v>
       </c>
       <c r="F57" s="3">
-        <v>2600</v>
+        <v>2900</v>
       </c>
       <c r="G57" s="3">
         <v>2600</v>
       </c>
       <c r="H57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I57" s="3">
         <v>2500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2500</v>
-      </c>
-      <c r="K57" s="3">
-        <v>2100</v>
       </c>
       <c r="L57" s="3">
         <v>2100</v>
@@ -4488,31 +4619,31 @@
         <v>2100</v>
       </c>
       <c r="O57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="P57" s="3">
         <v>1900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>200</v>
-      </c>
-      <c r="W57" s="3">
-        <v>100</v>
       </c>
       <c r="X57" s="3">
         <v>100</v>
@@ -4530,72 +4661,75 @@
         <v>100</v>
       </c>
       <c r="AC57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E58" s="3">
         <v>1500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>200</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
-      </c>
-      <c r="U58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V58" s="3">
-        <v>0</v>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W58" s="3">
         <v>0</v>
@@ -4604,7 +4738,7 @@
         <v>0</v>
       </c>
       <c r="Y58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Z58" s="3">
         <v>300</v>
@@ -4621,46 +4755,49 @@
       <c r="AD58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>100</v>
+      </c>
+      <c r="E59" s="3">
         <v>200</v>
-      </c>
-      <c r="E59" s="3">
-        <v>300</v>
       </c>
       <c r="F59" s="3">
         <v>300</v>
       </c>
       <c r="G59" s="3">
+        <v>300</v>
+      </c>
+      <c r="H59" s="3">
         <v>200</v>
-      </c>
-      <c r="H59" s="3">
-        <v>300</v>
       </c>
       <c r="I59" s="3">
         <v>300</v>
       </c>
       <c r="J59" s="3">
+        <v>300</v>
+      </c>
+      <c r="K59" s="3">
         <v>400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>400</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
+      <c r="O59" s="3">
+        <v>0</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>4</v>
@@ -4677,14 +4814,14 @@
       <c r="T59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U59" s="3">
-        <v>0</v>
+      <c r="U59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V59" s="3">
         <v>0</v>
       </c>
       <c r="W59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X59" s="3">
         <v>100</v>
@@ -4707,76 +4844,79 @@
       <c r="AD59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E60" s="3">
         <v>4700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4600</v>
-      </c>
-      <c r="N60" s="3">
-        <v>4200</v>
       </c>
       <c r="O60" s="3">
         <v>4200</v>
       </c>
       <c r="P60" s="3">
+        <v>4200</v>
+      </c>
+      <c r="Q60" s="3">
         <v>3500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>300</v>
-      </c>
-      <c r="V60" s="3">
-        <v>200</v>
       </c>
       <c r="W60" s="3">
         <v>200</v>
       </c>
       <c r="X60" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y60" s="3">
         <v>100</v>
-      </c>
-      <c r="Y60" s="3">
-        <v>500</v>
       </c>
       <c r="Z60" s="3">
         <v>500</v>
@@ -4788,67 +4928,70 @@
         <v>500</v>
       </c>
       <c r="AC60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AD60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E61" s="3">
         <v>3000</v>
-      </c>
-      <c r="E61" s="3">
-        <v>3200</v>
       </c>
       <c r="F61" s="3">
         <v>3200</v>
       </c>
       <c r="G61" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H61" s="3">
         <v>3400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>400</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
@@ -4879,8 +5022,11 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4888,7 +5034,7 @@
         <v>800</v>
       </c>
       <c r="E62" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="F62" s="3">
         <v>100</v>
@@ -4900,13 +5046,13 @@
         <v>100</v>
       </c>
       <c r="I62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J62" s="3">
         <v>200</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
+      <c r="K62" s="3">
+        <v>200</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>4</v>
@@ -4920,8 +5066,8 @@
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -4965,8 +5111,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,8 +5378,11 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -5232,67 +5390,67 @@
         <v>9100</v>
       </c>
       <c r="E66" s="3">
+        <v>9100</v>
+      </c>
+      <c r="F66" s="3">
         <v>8800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>300</v>
-      </c>
-      <c r="V66" s="3">
-        <v>200</v>
       </c>
       <c r="W66" s="3">
         <v>200</v>
       </c>
       <c r="X66" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y66" s="3">
         <v>100</v>
-      </c>
-      <c r="Y66" s="3">
-        <v>500</v>
       </c>
       <c r="Z66" s="3">
         <v>500</v>
@@ -5304,13 +5462,16 @@
         <v>500</v>
       </c>
       <c r="AC66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AD66" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,76 +5856,79 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-26000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-25300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-24700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-23200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-22800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-22300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-21300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-19700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-19300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-19400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-18500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-16900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-16800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-16000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-16200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-13400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-12500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-11200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-10000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-9800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-7200</v>
-      </c>
-      <c r="Y72" s="3">
-        <v>-6600</v>
       </c>
       <c r="Z72" s="3">
         <v>-6600</v>
@@ -5763,16 +5937,19 @@
         <v>-6600</v>
       </c>
       <c r="AB72" s="3">
-        <v>-6800</v>
+        <v>-6600</v>
       </c>
       <c r="AC72" s="3">
         <v>-6800</v>
       </c>
       <c r="AD72" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="AE72" s="3">
         <v>-6700</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,82 +6212,85 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E76" s="3">
         <v>3100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7700</v>
-      </c>
-      <c r="L76" s="3">
-        <v>4500</v>
       </c>
       <c r="M76" s="3">
         <v>4500</v>
       </c>
       <c r="N76" s="3">
+        <v>4500</v>
+      </c>
+      <c r="O76" s="3">
         <v>4300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>400</v>
       </c>
-      <c r="X76" s="3">
-        <v>0</v>
-      </c>
       <c r="Y76" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="Z76" s="3">
         <v>-500</v>
       </c>
       <c r="AA76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="AB76" s="3">
         <v>-400</v>
@@ -6115,8 +6301,11 @@
       <c r="AD76" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE76" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,168 +6390,174 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-700</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-500</v>
       </c>
       <c r="I81" s="3">
         <v>-500</v>
       </c>
       <c r="J81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-2400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2000</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-4800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-3500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-2700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-600</v>
       </c>
-      <c r="Y81" s="3">
-        <v>0</v>
-      </c>
       <c r="Z81" s="3">
         <v>0</v>
       </c>
@@ -6378,8 +6573,11 @@
       <c r="AD81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6425,19 +6624,19 @@
         <v>200</v>
       </c>
       <c r="G83" s="3">
+        <v>200</v>
+      </c>
+      <c r="H83" s="3">
         <v>300</v>
-      </c>
-      <c r="H83" s="3">
-        <v>200</v>
       </c>
       <c r="I83" s="3">
         <v>200</v>
       </c>
       <c r="J83" s="3">
+        <v>200</v>
+      </c>
+      <c r="K83" s="3">
         <v>400</v>
-      </c>
-      <c r="K83" s="3">
-        <v>100</v>
       </c>
       <c r="L83" s="3">
         <v>100</v>
@@ -6449,7 +6648,7 @@
         <v>100</v>
       </c>
       <c r="O83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -6475,8 +6674,8 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>4</v>
+      <c r="X83" s="3">
+        <v>0</v>
       </c>
       <c r="Y83" s="3" t="s">
         <v>4</v>
@@ -6496,8 +6695,11 @@
       <c r="AD83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,77 +7140,80 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-2400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-100</v>
       </c>
-      <c r="Y89" s="3">
-        <v>0</v>
-      </c>
       <c r="Z89" s="3">
         <v>0</v>
       </c>
@@ -7012,8 +7229,11 @@
       <c r="AD89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,8 +7264,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7053,16 +7274,16 @@
         <v>-300</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I91" s="3">
         <v>-200</v>
@@ -7071,17 +7292,17 @@
         <v>-200</v>
       </c>
       <c r="K91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
@@ -7091,26 +7312,26 @@
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S91" s="3">
         <v>-2100</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T91" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V91" s="3">
-        <v>-100</v>
+      <c r="V91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W91" s="3">
         <v>-100</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>4</v>
+      <c r="X91" s="3">
+        <v>-100</v>
       </c>
       <c r="Y91" s="3" t="s">
         <v>4</v>
@@ -7130,8 +7351,11 @@
       <c r="AD91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,8 +7529,11 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7311,37 +7541,37 @@
         <v>-300</v>
       </c>
       <c r="E94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-100</v>
       </c>
       <c r="N94" s="3">
         <v>-100</v>
       </c>
       <c r="O94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -7350,26 +7580,26 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-2500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-400</v>
-      </c>
-      <c r="U94" s="3">
-        <v>-900</v>
       </c>
       <c r="V94" s="3">
         <v>-900</v>
       </c>
       <c r="W94" s="3">
+        <v>-900</v>
+      </c>
+      <c r="X94" s="3">
         <v>-100</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y94" s="3" t="s">
         <v>4</v>
       </c>
@@ -7388,8 +7618,11 @@
       <c r="AD94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,77 +8007,80 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-400</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
-      </c>
-      <c r="M100" s="3">
-        <v>600</v>
       </c>
       <c r="N100" s="3">
         <v>600</v>
       </c>
       <c r="O100" s="3">
+        <v>600</v>
+      </c>
+      <c r="P100" s="3">
         <v>500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>400</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>4200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>200</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
       <c r="Z100" s="3">
         <v>0</v>
       </c>
@@ -7850,35 +8096,38 @@
       <c r="AD100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
@@ -7886,14 +8135,14 @@
         <v>0</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
@@ -7912,8 +8161,8 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-      <c r="W101" s="3" t="s">
-        <v>4</v>
+      <c r="W101" s="3">
+        <v>0</v>
       </c>
       <c r="X101" s="3" t="s">
         <v>4</v>
@@ -7927,8 +8176,8 @@
       <c r="AA101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB101" s="3">
-        <v>0</v>
+      <c r="AB101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AC101" s="3">
         <v>0</v>
@@ -7936,46 +8185,49 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-300</v>
-      </c>
-      <c r="M102" s="3">
-        <v>400</v>
       </c>
       <c r="N102" s="3">
         <v>400</v>
       </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="P102" s="3">
         <v>0</v>
@@ -7984,29 +8236,29 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-2600</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>2400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>100</v>
       </c>
-      <c r="Y102" s="3">
-        <v>0</v>
-      </c>
       <c r="Z102" s="3">
         <v>0</v>
       </c>
@@ -8020,6 +8272,9 @@
         <v>0</v>
       </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LVRLF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LVRLF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="92">
   <si>
     <t>LVRLF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,130 +665,134 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -796,46 +800,46 @@
         <v>2400</v>
       </c>
       <c r="E8" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F8" s="3">
         <v>2500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2400</v>
       </c>
-      <c r="I8" s="3">
-        <v>2600</v>
-      </c>
       <c r="J8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K8" s="3">
         <v>2800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>200</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
+      <c r="R8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S8" s="3">
         <v>0</v>
@@ -876,8 +880,11 @@
       <c r="AE8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -885,49 +892,49 @@
         <v>1700</v>
       </c>
       <c r="E9" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F9" s="3">
         <v>1800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K9" s="3">
         <v>2000</v>
       </c>
-      <c r="G9" s="3">
-        <v>1600</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="L9" s="3">
         <v>1700</v>
       </c>
-      <c r="I9" s="3">
-        <v>1900</v>
-      </c>
-      <c r="J9" s="3">
-        <v>2000</v>
-      </c>
-      <c r="K9" s="3">
-        <v>1700</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>100</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S9" s="3">
-        <v>0</v>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T9" s="3">
         <v>0</v>
@@ -944,8 +951,8 @@
       <c r="X9" s="3">
         <v>0</v>
       </c>
-      <c r="Y9" s="3" t="s">
-        <v>4</v>
+      <c r="Y9" s="3">
+        <v>0</v>
       </c>
       <c r="Z9" s="3" t="s">
         <v>4</v>
@@ -965,8 +972,11 @@
       <c r="AE9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,46 +987,46 @@
         <v>700</v>
       </c>
       <c r="F10" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G10" s="3">
+        <v>700</v>
+      </c>
+      <c r="H10" s="3">
         <v>500</v>
-      </c>
-      <c r="H10" s="3">
-        <v>700</v>
       </c>
       <c r="I10" s="3">
         <v>700</v>
       </c>
       <c r="J10" s="3">
+        <v>700</v>
+      </c>
+      <c r="K10" s="3">
         <v>800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>100</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S10" s="3">
-        <v>0</v>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T10" s="3">
         <v>0</v>
@@ -1033,8 +1043,8 @@
       <c r="X10" s="3">
         <v>0</v>
       </c>
-      <c r="Y10" s="3" t="s">
-        <v>4</v>
+      <c r="Y10" s="3">
+        <v>0</v>
       </c>
       <c r="Z10" s="3" t="s">
         <v>4</v>
@@ -1054,8 +1064,11 @@
       <c r="AE10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,16 +1282,19 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="E14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
         <v>100</v>
@@ -1289,13 +1309,13 @@
         <v>100</v>
       </c>
       <c r="J14" s="3">
+        <v>100</v>
+      </c>
+      <c r="K14" s="3">
         <v>200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>500</v>
-      </c>
-      <c r="L14" s="3">
-        <v>100</v>
       </c>
       <c r="M14" s="3">
         <v>100</v>
@@ -1307,43 +1327,43 @@
         <v>100</v>
       </c>
       <c r="P14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>300</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3">
         <v>300</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
+      <c r="X14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>300</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="3" t="s">
-        <v>4</v>
+      <c r="AA14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
       </c>
       <c r="AC14" s="3" t="s">
         <v>4</v>
@@ -1351,11 +1371,14 @@
       <c r="AD14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AE14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1372,19 +1395,19 @@
         <v>200</v>
       </c>
       <c r="H15" s="3">
+        <v>200</v>
+      </c>
+      <c r="I15" s="3">
         <v>300</v>
-      </c>
-      <c r="I15" s="3">
-        <v>200</v>
       </c>
       <c r="J15" s="3">
         <v>200</v>
       </c>
       <c r="K15" s="3">
+        <v>200</v>
+      </c>
+      <c r="L15" s="3">
         <v>400</v>
-      </c>
-      <c r="L15" s="3">
-        <v>100</v>
       </c>
       <c r="M15" s="3">
         <v>100</v>
@@ -1396,10 +1419,10 @@
         <v>100</v>
       </c>
       <c r="P15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>4</v>
@@ -1410,11 +1433,11 @@
       <c r="T15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U15" s="3">
-        <v>0</v>
-      </c>
-      <c r="V15" s="3" t="s">
-        <v>4</v>
+      <c r="U15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
       </c>
       <c r="W15" s="3" t="s">
         <v>4</v>
@@ -1422,11 +1445,11 @@
       <c r="X15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="3" t="s">
-        <v>4</v>
+      <c r="Y15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
       </c>
       <c r="AA15" s="3" t="s">
         <v>4</v>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,80 +1499,81 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2800</v>
+        <v>5300</v>
       </c>
       <c r="E17" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F17" s="3">
         <v>3000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3200</v>
       </c>
-      <c r="G17" s="3">
-        <v>3300</v>
-      </c>
       <c r="H17" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="I17" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J17" s="3">
         <v>2900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2000</v>
-      </c>
-      <c r="N17" s="3">
-        <v>1600</v>
       </c>
       <c r="O17" s="3">
         <v>1600</v>
       </c>
       <c r="P17" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
         <v>800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>600</v>
       </c>
-      <c r="Z17" s="3">
-        <v>0</v>
-      </c>
       <c r="AA17" s="3">
         <v>0</v>
       </c>
@@ -1562,80 +1589,83 @@
       <c r="AE17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-400</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-500</v>
       </c>
       <c r="F18" s="3">
         <v>-500</v>
       </c>
       <c r="G18" s="3">
-        <v>-1200</v>
+        <v>-500</v>
       </c>
       <c r="H18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-200</v>
       </c>
       <c r="N18" s="3">
         <v>-200</v>
       </c>
       <c r="O18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P18" s="3">
         <v>-1500</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S18" s="3">
         <v>-600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-4700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-3500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-2700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-600</v>
       </c>
-      <c r="Z18" s="3">
-        <v>0</v>
-      </c>
       <c r="AA18" s="3">
         <v>0</v>
       </c>
@@ -1651,8 +1681,11 @@
       <c r="AE18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,16 +1717,17 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
@@ -1705,34 +1739,34 @@
         <v>100</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
+      <c r="R20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
@@ -1741,11 +1775,11 @@
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>100</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
@@ -1773,77 +1807,80 @@
       <c r="AE20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-200</v>
+        <v>-2900</v>
       </c>
       <c r="E21" s="3">
         <v>-200</v>
       </c>
       <c r="F21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
-        <v>-900</v>
-      </c>
       <c r="H21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I21" s="3">
         <v>-300</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-100</v>
       </c>
       <c r="J21" s="3">
         <v>-100</v>
       </c>
       <c r="K21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L21" s="3">
         <v>-1700</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
       <c r="M21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N21" s="3">
         <v>-100</v>
       </c>
       <c r="O21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P21" s="3">
         <v>-1600</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3">
         <v>-600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-4800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-1100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-3500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-2700</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1862,19 +1899,22 @@
       <c r="AE21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>300</v>
-      </c>
-      <c r="F22" s="3">
-        <v>200</v>
       </c>
       <c r="G22" s="3">
         <v>200</v>
@@ -1883,7 +1923,7 @@
         <v>200</v>
       </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
@@ -1892,7 +1932,7 @@
         <v>100</v>
       </c>
       <c r="L22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M22" s="3">
         <v>200</v>
@@ -1901,10 +1941,10 @@
         <v>200</v>
       </c>
       <c r="O22" s="3">
+        <v>200</v>
+      </c>
+      <c r="P22" s="3">
         <v>400</v>
-      </c>
-      <c r="P22" s="3">
-        <v>100</v>
       </c>
       <c r="Q22" s="3">
         <v>100</v>
@@ -1916,19 +1956,19 @@
         <v>100</v>
       </c>
       <c r="T22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>4</v>
+      <c r="V22" s="3">
+        <v>0</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X22" s="3">
-        <v>0</v>
+      <c r="X22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y22" s="3">
         <v>0</v>
@@ -1936,8 +1976,8 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-      <c r="AA22" s="3" t="s">
-        <v>4</v>
+      <c r="AA22" s="3">
+        <v>0</v>
       </c>
       <c r="AB22" s="3" t="s">
         <v>4</v>
@@ -1945,86 +1985,89 @@
       <c r="AC22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AD22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
-        <v>-1300</v>
-      </c>
       <c r="H23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="I23" s="3">
         <v>-800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2100</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-4800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-3500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-2700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-600</v>
       </c>
-      <c r="Z23" s="3">
-        <v>0</v>
-      </c>
       <c r="AA23" s="3">
         <v>0</v>
       </c>
@@ -2040,8 +2083,11 @@
       <c r="AE23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2067,11 +2113,11 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
@@ -2081,8 +2127,8 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>4</v>
+      <c r="P24" s="3">
+        <v>0</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>4</v>
@@ -2099,8 +2145,8 @@
       <c r="U24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
+      <c r="V24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W24" s="3">
         <v>0</v>
@@ -2129,8 +2175,11 @@
       <c r="AE24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,80 +2267,83 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
-        <v>-1300</v>
-      </c>
       <c r="H26" s="3">
-        <v>-800</v>
+        <v>-1200</v>
       </c>
       <c r="I26" s="3">
-        <v>-500</v>
+        <v>-700</v>
       </c>
       <c r="J26" s="3">
         <v>-500</v>
       </c>
       <c r="K26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L26" s="3">
         <v>-2400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2000</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-4800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-3500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-2700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-600</v>
       </c>
-      <c r="Z26" s="3">
-        <v>0</v>
-      </c>
       <c r="AA26" s="3">
         <v>0</v>
       </c>
@@ -2307,80 +2359,83 @@
       <c r="AE26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-500</v>
       </c>
       <c r="J27" s="3">
         <v>-500</v>
       </c>
       <c r="K27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L27" s="3">
         <v>-2400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2000</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-4800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-3500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-2700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-600</v>
       </c>
-      <c r="Z27" s="3">
-        <v>0</v>
-      </c>
       <c r="AA27" s="3">
         <v>0</v>
       </c>
@@ -2396,8 +2451,11 @@
       <c r="AE27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,16 +2819,19 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>-100</v>
@@ -2773,34 +2843,34 @@
         <v>-100</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
+      <c r="R32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
@@ -2809,11 +2879,11 @@
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
@@ -2841,80 +2911,83 @@
       <c r="AE32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-500</v>
       </c>
       <c r="J33" s="3">
         <v>-500</v>
       </c>
       <c r="K33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L33" s="3">
         <v>-2400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2000</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-4800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-3500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-2700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-600</v>
       </c>
-      <c r="Z33" s="3">
-        <v>0</v>
-      </c>
       <c r="AA33" s="3">
         <v>0</v>
       </c>
@@ -2930,8 +3003,11 @@
       <c r="AE33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,80 +3095,83 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-500</v>
       </c>
       <c r="J35" s="3">
         <v>-500</v>
       </c>
       <c r="K35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L35" s="3">
         <v>-2400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2000</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-4800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-3500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-2700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-600</v>
       </c>
-      <c r="Z35" s="3">
-        <v>0</v>
-      </c>
       <c r="AA35" s="3">
         <v>0</v>
       </c>
@@ -3108,102 +3187,108 @@
       <c r="AE35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,58 +3354,59 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>300</v>
-      </c>
-      <c r="F41" s="3">
-        <v>500</v>
       </c>
       <c r="G41" s="3">
         <v>500</v>
       </c>
       <c r="H41" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="I41" s="3">
         <v>700</v>
       </c>
       <c r="J41" s="3">
+        <v>700</v>
+      </c>
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>800</v>
-      </c>
-      <c r="L41" s="3">
-        <v>600</v>
       </c>
       <c r="M41" s="3">
         <v>600</v>
       </c>
       <c r="N41" s="3">
+        <v>600</v>
+      </c>
+      <c r="O41" s="3">
         <v>900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
       <c r="S41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T41" s="3">
         <v>100</v>
@@ -3328,20 +3415,20 @@
         <v>100</v>
       </c>
       <c r="V41" s="3">
+        <v>100</v>
+      </c>
+      <c r="W41" s="3">
         <v>1100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>100</v>
       </c>
-      <c r="Z41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA41" s="3" t="s">
         <v>4</v>
       </c>
@@ -3357,8 +3444,11 @@
       <c r="AE41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3446,13 +3536,16 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
         <v>300</v>
@@ -3461,14 +3554,14 @@
         <v>300</v>
       </c>
       <c r="G43" s="3">
+        <v>300</v>
+      </c>
+      <c r="H43" s="3">
         <v>200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
       <c r="J43" s="3">
         <v>0</v>
       </c>
@@ -3493,20 +3586,20 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S43" s="3">
-        <v>0</v>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U43" s="3">
         <v>100</v>
       </c>
       <c r="V43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W43" s="3">
         <v>0</v>
@@ -3514,14 +3607,14 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>4</v>
+      <c r="Y43" s="3">
+        <v>0</v>
       </c>
       <c r="Z43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA43" s="3">
-        <v>0</v>
+      <c r="AA43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB43" s="3">
         <v>0</v>
@@ -3535,8 +3628,11 @@
       <c r="AE43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3544,41 +3640,41 @@
         <v>700</v>
       </c>
       <c r="E44" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F44" s="3">
         <v>600</v>
       </c>
       <c r="G44" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H44" s="3">
         <v>500</v>
       </c>
       <c r="I44" s="3">
+        <v>500</v>
+      </c>
+      <c r="J44" s="3">
         <v>400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>100</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q44" s="3" t="s">
         <v>4</v>
       </c>
@@ -3594,8 +3690,8 @@
       <c r="U44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V44" s="3">
-        <v>0</v>
+      <c r="V44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W44" s="3">
         <v>0</v>
@@ -3624,19 +3720,22 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>300</v>
+      </c>
+      <c r="E45" s="3">
         <v>600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>900</v>
-      </c>
-      <c r="F45" s="3">
-        <v>1200</v>
       </c>
       <c r="G45" s="3">
         <v>1100</v>
@@ -3645,19 +3744,19 @@
         <v>1100</v>
       </c>
       <c r="I45" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="J45" s="3">
         <v>1200</v>
       </c>
       <c r="K45" s="3">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="L45" s="3">
         <v>400</v>
       </c>
       <c r="M45" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N45" s="3">
         <v>200</v>
@@ -3666,7 +3765,7 @@
         <v>200</v>
       </c>
       <c r="P45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q45" s="3">
         <v>300</v>
@@ -3675,26 +3774,26 @@
         <v>300</v>
       </c>
       <c r="S45" s="3">
+        <v>300</v>
+      </c>
+      <c r="T45" s="3">
         <v>400</v>
-      </c>
-      <c r="T45" s="3">
-        <v>1500</v>
       </c>
       <c r="U45" s="3">
         <v>1500</v>
       </c>
       <c r="V45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="W45" s="3">
         <v>1000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>100</v>
       </c>
-      <c r="Y45" s="3">
-        <v>0</v>
-      </c>
       <c r="Z45" s="3">
         <v>0</v>
       </c>
@@ -3713,80 +3812,83 @@
       <c r="AE45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1700</v>
+        <v>1200</v>
       </c>
       <c r="E46" s="3">
-        <v>2200</v>
+        <v>1600</v>
       </c>
       <c r="F46" s="3">
-        <v>2600</v>
+        <v>2100</v>
       </c>
       <c r="G46" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H46" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I46" s="3">
         <v>2400</v>
-      </c>
-      <c r="H46" s="3">
-        <v>2400</v>
-      </c>
-      <c r="I46" s="3">
-        <v>2300</v>
       </c>
       <c r="J46" s="3">
         <v>2300</v>
       </c>
       <c r="K46" s="3">
+        <v>2300</v>
+      </c>
+      <c r="L46" s="3">
         <v>1600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>300</v>
-      </c>
-      <c r="R46" s="3">
-        <v>400</v>
       </c>
       <c r="S46" s="3">
         <v>400</v>
       </c>
       <c r="T46" s="3">
-        <v>1700</v>
+        <v>400</v>
       </c>
       <c r="U46" s="3">
         <v>1700</v>
       </c>
       <c r="V46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="W46" s="3">
         <v>2100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>100</v>
       </c>
-      <c r="Z46" s="3">
-        <v>0</v>
-      </c>
       <c r="AA46" s="3">
         <v>0</v>
       </c>
@@ -3802,8 +3904,11 @@
       <c r="AE46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3844,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="P47" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="3">
         <v>400</v>
@@ -3856,7 +3961,7 @@
         <v>400</v>
       </c>
       <c r="T47" s="3">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="U47" s="3">
         <v>800</v>
@@ -3865,11 +3970,11 @@
         <v>800</v>
       </c>
       <c r="W47" s="3">
+        <v>800</v>
+      </c>
+      <c r="X47" s="3">
         <v>400</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y47" s="3" t="s">
         <v>4</v>
       </c>
@@ -3882,8 +3987,8 @@
       <c r="AB47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC47" s="3">
-        <v>0</v>
+      <c r="AC47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AD47" s="3">
         <v>0</v>
@@ -3891,61 +3996,64 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5900</v>
+        <v>3800</v>
       </c>
       <c r="E48" s="3">
         <v>5800</v>
       </c>
       <c r="F48" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="G48" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="H48" s="3">
-        <v>6100</v>
+        <v>5700</v>
       </c>
       <c r="I48" s="3">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="J48" s="3">
+        <v>6400</v>
+      </c>
+      <c r="K48" s="3">
         <v>6600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5900</v>
-      </c>
-      <c r="N48" s="3">
-        <v>5800</v>
       </c>
       <c r="O48" s="3">
         <v>5800</v>
       </c>
       <c r="P48" s="3">
+        <v>5800</v>
+      </c>
+      <c r="Q48" s="3">
         <v>3100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3000</v>
-      </c>
-      <c r="T48" s="3">
-        <v>100</v>
       </c>
       <c r="U48" s="3">
         <v>100</v>
@@ -3960,10 +4068,10 @@
         <v>100</v>
       </c>
       <c r="Y48" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z48" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>0</v>
       </c>
       <c r="AA48" s="3" t="s">
         <v>4</v>
@@ -3980,50 +4088,53 @@
       <c r="AE48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E49" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F49" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G49" s="3">
         <v>4100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="H49" s="3">
         <v>4100</v>
       </c>
-      <c r="F49" s="3">
-        <v>4200</v>
-      </c>
-      <c r="G49" s="3">
-        <v>4200</v>
-      </c>
-      <c r="H49" s="3">
-        <v>4200</v>
-      </c>
       <c r="I49" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="J49" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="K49" s="3">
         <v>4300</v>
       </c>
       <c r="L49" s="3">
+        <v>4300</v>
+      </c>
+      <c r="M49" s="3">
         <v>7000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4400</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>4</v>
       </c>
@@ -4039,8 +4150,8 @@
       <c r="U49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V49" s="3">
-        <v>0</v>
+      <c r="V49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W49" s="3">
         <v>0</v>
@@ -4069,8 +4180,11 @@
       <c r="AE49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,8 +4364,11 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4261,23 +4381,23 @@
       <c r="F52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J52" s="3">
-        <v>100</v>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K52" s="3">
         <v>100</v>
       </c>
       <c r="L52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M52" s="3">
         <v>200</v>
@@ -4286,11 +4406,11 @@
         <v>200</v>
       </c>
       <c r="O52" s="3">
+        <v>200</v>
+      </c>
+      <c r="P52" s="3">
         <v>300</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>4</v>
       </c>
@@ -4306,8 +4426,8 @@
       <c r="U52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V52" s="3">
-        <v>0</v>
+      <c r="V52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W52" s="3">
         <v>0</v>
@@ -4336,8 +4456,11 @@
       <c r="AE52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,80 +4548,83 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>11400</v>
+      </c>
+      <c r="F54" s="3">
+        <v>11900</v>
+      </c>
+      <c r="G54" s="3">
+        <v>12300</v>
+      </c>
+      <c r="H54" s="3">
+        <v>12200</v>
+      </c>
+      <c r="I54" s="3">
+        <v>12400</v>
+      </c>
+      <c r="J54" s="3">
+        <v>12800</v>
+      </c>
+      <c r="K54" s="3">
+        <v>13200</v>
+      </c>
+      <c r="L54" s="3">
+        <v>12800</v>
+      </c>
+      <c r="M54" s="3">
+        <v>15600</v>
+      </c>
+      <c r="N54" s="3">
+        <v>12600</v>
+      </c>
+      <c r="O54" s="3">
         <v>11700</v>
       </c>
-      <c r="E54" s="3">
-        <v>12100</v>
-      </c>
-      <c r="F54" s="3">
-        <v>12500</v>
-      </c>
-      <c r="G54" s="3">
-        <v>12400</v>
-      </c>
-      <c r="H54" s="3">
-        <v>12700</v>
-      </c>
-      <c r="I54" s="3">
-        <v>13000</v>
-      </c>
-      <c r="J54" s="3">
-        <v>13200</v>
-      </c>
-      <c r="K54" s="3">
-        <v>12800</v>
-      </c>
-      <c r="L54" s="3">
-        <v>15600</v>
-      </c>
-      <c r="M54" s="3">
-        <v>12600</v>
-      </c>
-      <c r="N54" s="3">
-        <v>11700</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>11300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3900</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>3600</v>
       </c>
       <c r="R54" s="3">
         <v>3600</v>
       </c>
       <c r="S54" s="3">
+        <v>3600</v>
+      </c>
+      <c r="T54" s="3">
         <v>3900</v>
-      </c>
-      <c r="T54" s="3">
-        <v>2600</v>
       </c>
       <c r="U54" s="3">
         <v>2600</v>
       </c>
       <c r="V54" s="3">
+        <v>2600</v>
+      </c>
+      <c r="W54" s="3">
         <v>3000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>200</v>
       </c>
-      <c r="Z54" s="3">
-        <v>0</v>
-      </c>
       <c r="AA54" s="3">
         <v>0</v>
       </c>
@@ -4514,8 +4640,11 @@
       <c r="AE54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,22 +4710,23 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="E57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G57" s="3">
         <v>2900</v>
-      </c>
-      <c r="F57" s="3">
-        <v>2900</v>
-      </c>
-      <c r="G57" s="3">
-        <v>2600</v>
       </c>
       <c r="H57" s="3">
         <v>2600</v>
@@ -4607,10 +4738,10 @@
         <v>2400</v>
       </c>
       <c r="K57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L57" s="3">
         <v>2500</v>
-      </c>
-      <c r="L57" s="3">
-        <v>2100</v>
       </c>
       <c r="M57" s="3">
         <v>2100</v>
@@ -4622,31 +4753,31 @@
         <v>2100</v>
       </c>
       <c r="P57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="Q57" s="3">
         <v>1900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>200</v>
-      </c>
-      <c r="X57" s="3">
-        <v>100</v>
       </c>
       <c r="Y57" s="3">
         <v>100</v>
@@ -4664,75 +4795,78 @@
         <v>100</v>
       </c>
       <c r="AD57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AE57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1700</v>
+        <v>2200</v>
       </c>
       <c r="E58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F58" s="3">
         <v>1500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1300</v>
-      </c>
-      <c r="H58" s="3">
-        <v>1900</v>
       </c>
       <c r="I58" s="3">
         <v>1800</v>
       </c>
       <c r="J58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K58" s="3">
         <v>1300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>200</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
-      </c>
-      <c r="V58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W58" s="3">
-        <v>0</v>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X58" s="3">
         <v>0</v>
@@ -4741,7 +4875,7 @@
         <v>0</v>
       </c>
       <c r="Z58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="AA58" s="3">
         <v>300</v>
@@ -4758,49 +4892,52 @@
       <c r="AE58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>200</v>
+      </c>
+      <c r="E59" s="3">
         <v>100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
+        <v>200</v>
+      </c>
+      <c r="H59" s="3">
         <v>300</v>
       </c>
-      <c r="G59" s="3">
-        <v>300</v>
-      </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>200</v>
-      </c>
-      <c r="I59" s="3">
-        <v>300</v>
       </c>
       <c r="J59" s="3">
         <v>300</v>
       </c>
       <c r="K59" s="3">
+        <v>300</v>
+      </c>
+      <c r="L59" s="3">
         <v>400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>400</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
+      <c r="P59" s="3">
+        <v>0</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>4</v>
@@ -4817,14 +4954,14 @@
       <c r="U59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V59" s="3">
-        <v>0</v>
+      <c r="V59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W59" s="3">
         <v>0</v>
       </c>
       <c r="X59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y59" s="3">
         <v>100</v>
@@ -4847,79 +4984,82 @@
       <c r="AE59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F60" s="3">
+        <v>4600</v>
+      </c>
+      <c r="G60" s="3">
         <v>4900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="H60" s="3">
+        <v>4100</v>
+      </c>
+      <c r="I60" s="3">
+        <v>4600</v>
+      </c>
+      <c r="J60" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K60" s="3">
+        <v>4000</v>
+      </c>
+      <c r="L60" s="3">
+        <v>5100</v>
+      </c>
+      <c r="M60" s="3">
+        <v>4500</v>
+      </c>
+      <c r="N60" s="3">
         <v>4700</v>
       </c>
-      <c r="F60" s="3">
-        <v>5000</v>
-      </c>
-      <c r="G60" s="3">
-        <v>4200</v>
-      </c>
-      <c r="H60" s="3">
-        <v>4700</v>
-      </c>
-      <c r="I60" s="3">
-        <v>4500</v>
-      </c>
-      <c r="J60" s="3">
-        <v>4000</v>
-      </c>
-      <c r="K60" s="3">
-        <v>5100</v>
-      </c>
-      <c r="L60" s="3">
-        <v>4500</v>
-      </c>
-      <c r="M60" s="3">
-        <v>4700</v>
-      </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4600</v>
-      </c>
-      <c r="O60" s="3">
-        <v>4200</v>
       </c>
       <c r="P60" s="3">
         <v>4200</v>
       </c>
       <c r="Q60" s="3">
+        <v>4200</v>
+      </c>
+      <c r="R60" s="3">
         <v>3500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>300</v>
-      </c>
-      <c r="W60" s="3">
-        <v>200</v>
       </c>
       <c r="X60" s="3">
         <v>200</v>
       </c>
       <c r="Y60" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z60" s="3">
         <v>100</v>
-      </c>
-      <c r="Z60" s="3">
-        <v>500</v>
       </c>
       <c r="AA60" s="3">
         <v>500</v>
@@ -4931,70 +5071,73 @@
         <v>500</v>
       </c>
       <c r="AD60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AE60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2900</v>
+        <v>1700</v>
       </c>
       <c r="E61" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F61" s="3">
         <v>3000</v>
       </c>
-      <c r="F61" s="3">
-        <v>3200</v>
-      </c>
       <c r="G61" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="H61" s="3">
-        <v>3400</v>
+        <v>3100</v>
       </c>
       <c r="I61" s="3">
-        <v>3600</v>
+        <v>3300</v>
       </c>
       <c r="J61" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K61" s="3">
         <v>3700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>400</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
@@ -5025,19 +5168,22 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E62" s="3">
         <v>800</v>
       </c>
       <c r="F62" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="G62" s="3">
         <v>100</v>
@@ -5049,13 +5195,13 @@
         <v>100</v>
       </c>
       <c r="J62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K62" s="3">
         <v>200</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
+      <c r="L62" s="3">
+        <v>200</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
@@ -5069,8 +5215,8 @@
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -5114,8 +5260,11 @@
       <c r="AE62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,79 +5536,82 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9100</v>
+        <v>8700</v>
       </c>
       <c r="E66" s="3">
-        <v>9100</v>
+        <v>8900</v>
       </c>
       <c r="F66" s="3">
-        <v>8800</v>
+        <v>8900</v>
       </c>
       <c r="G66" s="3">
+        <v>8700</v>
+      </c>
+      <c r="H66" s="3">
+        <v>7900</v>
+      </c>
+      <c r="I66" s="3">
+        <v>8700</v>
+      </c>
+      <c r="J66" s="3">
+        <v>8700</v>
+      </c>
+      <c r="K66" s="3">
+        <v>8400</v>
+      </c>
+      <c r="L66" s="3">
+        <v>8000</v>
+      </c>
+      <c r="M66" s="3">
+        <v>7900</v>
+      </c>
+      <c r="N66" s="3">
         <v>8100</v>
       </c>
-      <c r="H66" s="3">
-        <v>8800</v>
-      </c>
-      <c r="I66" s="3">
-        <v>8900</v>
-      </c>
-      <c r="J66" s="3">
-        <v>8400</v>
-      </c>
-      <c r="K66" s="3">
-        <v>8000</v>
-      </c>
-      <c r="L66" s="3">
-        <v>7900</v>
-      </c>
-      <c r="M66" s="3">
-        <v>8100</v>
-      </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>300</v>
-      </c>
-      <c r="W66" s="3">
-        <v>200</v>
       </c>
       <c r="X66" s="3">
         <v>200</v>
       </c>
       <c r="Y66" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z66" s="3">
         <v>100</v>
-      </c>
-      <c r="Z66" s="3">
-        <v>500</v>
       </c>
       <c r="AA66" s="3">
         <v>500</v>
@@ -5465,13 +5623,16 @@
         <v>500</v>
       </c>
       <c r="AD66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AE66" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF66" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,79 +6030,82 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-26600</v>
+        <v>-29300</v>
       </c>
       <c r="E72" s="3">
-        <v>-26000</v>
+        <v>-26100</v>
       </c>
       <c r="F72" s="3">
-        <v>-25300</v>
+        <v>-25600</v>
       </c>
       <c r="G72" s="3">
-        <v>-24700</v>
+        <v>-24800</v>
       </c>
       <c r="H72" s="3">
-        <v>-23200</v>
+        <v>-24300</v>
       </c>
       <c r="I72" s="3">
         <v>-22800</v>
       </c>
       <c r="J72" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-22300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-21300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-19700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-19300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-19400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-18500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-16900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-16800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-16000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-16200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-13400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-12500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-11200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-10000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-9800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-7200</v>
-      </c>
-      <c r="Z72" s="3">
-        <v>-6600</v>
       </c>
       <c r="AA72" s="3">
         <v>-6600</v>
@@ -5940,16 +6114,19 @@
         <v>-6600</v>
       </c>
       <c r="AC72" s="3">
-        <v>-6800</v>
+        <v>-6600</v>
       </c>
       <c r="AD72" s="3">
         <v>-6800</v>
       </c>
       <c r="AE72" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="AF72" s="3">
         <v>-6700</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,85 +6398,88 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2600</v>
+        <v>-1200</v>
       </c>
       <c r="E76" s="3">
-        <v>3100</v>
+        <v>2500</v>
       </c>
       <c r="F76" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G76" s="3">
         <v>3700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3800</v>
       </c>
-      <c r="I76" s="3">
-        <v>4200</v>
-      </c>
       <c r="J76" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K76" s="3">
         <v>4700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7700</v>
-      </c>
-      <c r="M76" s="3">
-        <v>4500</v>
       </c>
       <c r="N76" s="3">
         <v>4500</v>
       </c>
       <c r="O76" s="3">
+        <v>4500</v>
+      </c>
+      <c r="P76" s="3">
         <v>4300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>400</v>
       </c>
-      <c r="Y76" s="3">
-        <v>0</v>
-      </c>
       <c r="Z76" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="AA76" s="3">
         <v>-500</v>
       </c>
       <c r="AB76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="AC76" s="3">
         <v>-400</v>
@@ -6304,8 +6490,11 @@
       <c r="AE76" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF76" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,174 +6582,180 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-500</v>
       </c>
       <c r="J81" s="3">
         <v>-500</v>
       </c>
       <c r="K81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L81" s="3">
         <v>-2400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2000</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-4800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-3500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-2700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-600</v>
       </c>
-      <c r="Z81" s="3">
-        <v>0</v>
-      </c>
       <c r="AA81" s="3">
         <v>0</v>
       </c>
@@ -6576,8 +6771,11 @@
       <c r="AE81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +6807,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6627,19 +6826,19 @@
         <v>200</v>
       </c>
       <c r="H83" s="3">
+        <v>200</v>
+      </c>
+      <c r="I83" s="3">
         <v>300</v>
-      </c>
-      <c r="I83" s="3">
-        <v>200</v>
       </c>
       <c r="J83" s="3">
         <v>200</v>
       </c>
       <c r="K83" s="3">
+        <v>200</v>
+      </c>
+      <c r="L83" s="3">
         <v>400</v>
-      </c>
-      <c r="L83" s="3">
-        <v>100</v>
       </c>
       <c r="M83" s="3">
         <v>100</v>
@@ -6651,7 +6850,7 @@
         <v>100</v>
       </c>
       <c r="P83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -6677,8 +6876,8 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>4</v>
+      <c r="Y83" s="3">
+        <v>0</v>
       </c>
       <c r="Z83" s="3" t="s">
         <v>4</v>
@@ -6698,8 +6897,11 @@
       <c r="AE83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,80 +7357,83 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-2400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-100</v>
       </c>
-      <c r="Z89" s="3">
-        <v>0</v>
-      </c>
       <c r="AA89" s="3">
         <v>0</v>
       </c>
@@ -7232,8 +7449,11 @@
       <c r="AE89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,28 +7485,29 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>-300</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>-200</v>
@@ -7295,17 +7516,17 @@
         <v>-200</v>
       </c>
       <c r="L91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
@@ -7315,26 +7536,26 @@
       <c r="R91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T91" s="3">
         <v>-2100</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U91" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W91" s="3">
-        <v>-100</v>
+      <c r="W91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X91" s="3">
         <v>-100</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>4</v>
+      <c r="Y91" s="3">
+        <v>-100</v>
       </c>
       <c r="Z91" s="3" t="s">
         <v>4</v>
@@ -7354,8 +7575,11 @@
       <c r="AE91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,49 +7759,52 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-300</v>
+        <v>100</v>
       </c>
       <c r="E94" s="3">
         <v>-300</v>
       </c>
       <c r="F94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>900</v>
+      </c>
+      <c r="K94" s="3">
+        <v>800</v>
+      </c>
+      <c r="L94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="N94" s="3">
         <v>-200</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>900</v>
-      </c>
-      <c r="J94" s="3">
-        <v>800</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-100</v>
       </c>
       <c r="O94" s="3">
         <v>-100</v>
       </c>
       <c r="P94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -7583,26 +7813,26 @@
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-2500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-400</v>
-      </c>
-      <c r="V94" s="3">
-        <v>-900</v>
       </c>
       <c r="W94" s="3">
         <v>-900</v>
       </c>
       <c r="X94" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-100</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z94" s="3" t="s">
         <v>4</v>
       </c>
@@ -7621,8 +7851,11 @@
       <c r="AE94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,80 +8253,83 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-400</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
-      </c>
-      <c r="N100" s="3">
-        <v>600</v>
       </c>
       <c r="O100" s="3">
         <v>600</v>
       </c>
       <c r="P100" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q100" s="3">
         <v>500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>400</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
         <v>0</v>
       </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>4200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>200</v>
       </c>
-      <c r="Z100" s="3">
-        <v>0</v>
-      </c>
       <c r="AA100" s="3">
         <v>0</v>
       </c>
@@ -8099,38 +8345,41 @@
       <c r="AE100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
@@ -8138,14 +8387,14 @@
         <v>0</v>
       </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
         <v>0</v>
       </c>
@@ -8164,8 +8413,8 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-      <c r="X101" s="3" t="s">
-        <v>4</v>
+      <c r="X101" s="3">
+        <v>0</v>
       </c>
       <c r="Y101" s="3" t="s">
         <v>4</v>
@@ -8179,8 +8428,8 @@
       <c r="AB101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC101" s="3">
-        <v>0</v>
+      <c r="AC101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AD101" s="3">
         <v>0</v>
@@ -8188,49 +8437,52 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-300</v>
-      </c>
-      <c r="N102" s="3">
-        <v>400</v>
       </c>
       <c r="O102" s="3">
         <v>400</v>
       </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Q102" s="3">
         <v>0</v>
@@ -8239,29 +8491,29 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-2600</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>2400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>100</v>
       </c>
-      <c r="Z102" s="3">
-        <v>0</v>
-      </c>
       <c r="AA102" s="3">
         <v>0</v>
       </c>
@@ -8275,6 +8527,9 @@
         <v>0</v>
       </c>
       <c r="AE102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF102" s="3">
         <v>0</v>
       </c>
     </row>
